--- a/StructureDefinition-MedRecordUsage.xlsx
+++ b/StructureDefinition-MedRecordUsage.xlsx
@@ -9,13 +9,13 @@
     <sheet name="Elements" r:id="rId3" sheetId="1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AM$37</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AM$45</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1289" uniqueCount="271">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1568" uniqueCount="314">
   <si>
     <t>Path</t>
   </si>
@@ -220,13 +220,190 @@
 </t>
   </si>
   <si>
-    <t>MedicationStatement.implicitRules</t>
+    <t>MedicationStatement.meta.id</t>
+  </si>
+  <si>
+    <t>Unique id for inter-element referencing</t>
+  </si>
+  <si>
+    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
+  </si>
+  <si>
+    <t>Element.id</t>
+  </si>
+  <si>
+    <t>n/a</t>
+  </si>
+  <si>
+    <t>MedicationStatement.meta.extension</t>
+  </si>
+  <si>
+    <t>extensions
+user content</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension
+</t>
+  </si>
+  <si>
+    <t>Additional content defined by implementations</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value:url}
+</t>
+  </si>
+  <si>
+    <t>Extensions are always sliced by (at least) url</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>Element.extension</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
+  </si>
+  <si>
+    <t>MedicationStatement.meta.versionId</t>
+  </si>
+  <si>
+    <t xml:space="preserve">id
+</t>
+  </si>
+  <si>
+    <t>Version specific identifier</t>
+  </si>
+  <si>
+    <t>The version specific identifier, as it appears in the version portion of the URL. This value changes when the resource is created, updated, or deleted.</t>
+  </si>
+  <si>
+    <t>The server assigns this value, and ignores what the client specifies, except in the case that the server is imposing version integrity on updates/deletes.</t>
+  </si>
+  <si>
+    <t>Meta.versionId</t>
+  </si>
+  <si>
+    <t>MedicationStatement.meta.lastUpdated</t>
+  </si>
+  <si>
+    <t xml:space="preserve">instant
+</t>
+  </si>
+  <si>
+    <t>When the resource version last changed</t>
+  </si>
+  <si>
+    <t>When the resource last changed - e.g. when the version changed.</t>
+  </si>
+  <si>
+    <t>This value is always populated except when the resource is first being created. The server / resource manager sets this value; what a client provides is irrelevant. This is equivalent to the HTTP Last-Modified and SHOULD have the same value on a [read](http://hl7.org/fhir/R4/http.html#read) interaction.</t>
+  </si>
+  <si>
+    <t>Meta.lastUpdated</t>
+  </si>
+  <si>
+    <t>MedicationStatement.meta.source</t>
   </si>
   <si>
     <t xml:space="preserve">uri
 </t>
   </si>
   <si>
+    <t>Identifies where the resource comes from</t>
+  </si>
+  <si>
+    <t>A uri that identifies the source system of the resource. This provides a minimal amount of [Provenance](http://hl7.org/fhir/R4/provenance.html#) information that can be used to track or differentiate the source of information in the resource. The source may identify another FHIR server, document, message, database, etc.</t>
+  </si>
+  <si>
+    <t>In the provenance resource, this corresponds to Provenance.entity.what[x]. The exact use of the source (and the implied Provenance.entity.role) is left to implementer discretion. Only one nominated source is allowed; for additional provenance details, a full Provenance resource should be used. 
+This element can be used to indicate where the current master source of a resource that has a canonical URL if the resource is no longer hosted at the canonical URL.</t>
+  </si>
+  <si>
+    <t>Meta.source</t>
+  </si>
+  <si>
+    <t>MedicationStatement.meta.profile</t>
+  </si>
+  <si>
+    <t xml:space="preserve">canonical(StructureDefinition)
+</t>
+  </si>
+  <si>
+    <t>Profiles this resource claims to conform to</t>
+  </si>
+  <si>
+    <t>A list of profiles (references to [StructureDefinition](http://hl7.org/fhir/R4/structuredefinition.html#) resources) that this resource claims to conform to. The URL is a reference to [StructureDefinition.url](http://hl7.org/fhir/R4/structuredefinition-definitions.html#StructureDefinition.url).</t>
+  </si>
+  <si>
+    <t>It is up to the server and/or other infrastructure of policy to determine whether/how these claims are verified and/or updated over time.  The list of profile URLs is a set.</t>
+  </si>
+  <si>
+    <t>Meta.profile</t>
+  </si>
+  <si>
+    <t>MedicationStatement.meta.security</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coding
+</t>
+  </si>
+  <si>
+    <t>Security Labels applied to this resource</t>
+  </si>
+  <si>
+    <t>Security labels applied to this resource. These tags connect specific resources to the overall security policy and infrastructure.</t>
+  </si>
+  <si>
+    <t>The security labels can be updated without changing the stated version of the resource. The list of security labels is a set. Uniqueness is based the system/code, and version and display are ignored.</t>
+  </si>
+  <si>
+    <t>extensible</t>
+  </si>
+  <si>
+    <t>Security Labels from the Healthcare Privacy and Security Classification System.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/security-labels</t>
+  </si>
+  <si>
+    <t>Meta.security</t>
+  </si>
+  <si>
+    <t>MedicationStatement.meta.tag</t>
+  </si>
+  <si>
+    <t>Tags applied to this resource</t>
+  </si>
+  <si>
+    <t>Tags applied to this resource. Tags are intended to be used to identify and relate resources to process and workflow, and applications are not required to consider the tags when interpreting the meaning of a resource.</t>
+  </si>
+  <si>
+    <t>The tags can be updated without changing the stated version of the resource. The list of tags is a set. Uniqueness is based the system/code, and version and display are ignored.</t>
+  </si>
+  <si>
+    <t>example</t>
+  </si>
+  <si>
+    <t>Codes that represent various types of tags, commonly workflow-related; e.g. "Needs review by Dr. Jones".</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/common-tags</t>
+  </si>
+  <si>
+    <t>Meta.tag</t>
+  </si>
+  <si>
+    <t>MedicationStatement.implicitRules</t>
+  </si>
+  <si>
     <t>A set of rules under which this content was created</t>
   </si>
   <si>
@@ -322,28 +499,13 @@
     <t>MedicationStatement.extension</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension
-</t>
-  </si>
-  <si>
     <t>Extension</t>
   </si>
   <si>
     <t>An Extension</t>
   </si>
   <si>
-    <t xml:space="preserve">value:url}
-</t>
-  </si>
-  <si>
-    <t>open</t>
-  </si>
-  <si>
     <t>DomainResource.extension</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
   </si>
   <si>
     <t>treatmentPlan</t>
@@ -375,25 +537,7 @@
     <t>MedicationStatement.extension.id</t>
   </si>
   <si>
-    <t>Unique id for inter-element referencing</t>
-  </si>
-  <si>
-    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
-  </si>
-  <si>
-    <t>Element.id</t>
-  </si>
-  <si>
-    <t>n/a</t>
-  </si>
-  <si>
     <t>MedicationStatement.extension.extension</t>
-  </si>
-  <si>
-    <t>Extensions are always sliced by (at least) url</t>
-  </si>
-  <si>
-    <t>Element.extension</t>
   </si>
   <si>
     <t>MedicationStatement.extension.url</t>
@@ -447,18 +591,11 @@
     <t>MedicationStatement.modifierExtension</t>
   </si>
   <si>
-    <t>extensions
-user content</t>
-  </si>
-  <si>
     <t>Extensions that cannot be ignored</t>
   </si>
   <si>
     <t>May be used to represent additional information that is not part of the basic definition of the resource and that modifies the understanding of the element that contains it and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
 Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
-  </si>
-  <si>
-    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
   </si>
   <si>
     <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R4/extensibility.html#modifierExtension).</t>
@@ -576,9 +713,6 @@
   </si>
   <si>
     <t>This is generally only used for "exception" statuses such as "not-taken", "on-hold", "cancelled" or "entered-in-error". The reason for performing the event at all is captured in reasonCode, not here.</t>
-  </si>
-  <si>
-    <t>example</t>
   </si>
   <si>
     <t>A coded concept indicating the reason for the status of the statement.</t>
@@ -1024,7 +1158,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AM37"/>
+  <dimension ref="A1:AM45"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1543,23 +1677,21 @@
         <v>40</v>
       </c>
       <c r="H5" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="I5" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="J5" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="K5" t="s" s="2">
         <v>64</v>
       </c>
-      <c r="K5" t="s" s="2">
+      <c r="L5" t="s" s="2">
         <v>65</v>
       </c>
-      <c r="L5" t="s" s="2">
-        <v>66</v>
-      </c>
-      <c r="M5" t="s" s="2">
-        <v>67</v>
-      </c>
+      <c r="M5" s="2"/>
       <c r="N5" s="2"/>
       <c r="O5" t="s" s="2">
         <v>40</v>
@@ -1608,7 +1740,7 @@
         <v>40</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="AF5" t="s" s="2">
         <v>41</v>
@@ -1620,13 +1752,13 @@
         <v>40</v>
       </c>
       <c r="AI5" t="s" s="2">
-        <v>62</v>
+        <v>40</v>
       </c>
       <c r="AJ5" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AK5" t="s" s="2">
-        <v>40</v>
+        <v>67</v>
       </c>
       <c r="AL5" t="s" s="2">
         <v>40</v>
@@ -1637,18 +1769,18 @@
     </row>
     <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" t="s" s="2">
-        <v>40</v>
+        <v>69</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F6" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G6" t="s" s="2">
         <v>40</v>
@@ -1695,28 +1827,28 @@
         <v>40</v>
       </c>
       <c r="W6" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X6" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y6" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z6" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA6" t="s" s="2">
         <v>74</v>
       </c>
-      <c r="X6" t="s" s="2">
+      <c r="AB6" t="s" s="2">
         <v>75</v>
       </c>
-      <c r="Y6" t="s" s="2">
+      <c r="AC6" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD6" t="s" s="2">
         <v>76</v>
-      </c>
-      <c r="Z6" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA6" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB6" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC6" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD6" t="s" s="2">
-        <v>40</v>
       </c>
       <c r="AE6" t="s" s="2">
         <v>77</v>
@@ -1725,19 +1857,19 @@
         <v>41</v>
       </c>
       <c r="AG6" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AH6" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>62</v>
+        <v>78</v>
       </c>
       <c r="AJ6" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AK6" t="s" s="2">
-        <v>40</v>
+        <v>67</v>
       </c>
       <c r="AL6" t="s" s="2">
         <v>40</v>
@@ -1748,11 +1880,11 @@
     </row>
     <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" t="s" s="2">
-        <v>79</v>
+        <v>40</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" t="s" s="2">
@@ -1768,7 +1900,7 @@
         <v>40</v>
       </c>
       <c r="I7" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="J7" t="s" s="2">
         <v>80</v>
@@ -1848,7 +1980,7 @@
         <v>40</v>
       </c>
       <c r="AK7" t="s" s="2">
-        <v>85</v>
+        <v>40</v>
       </c>
       <c r="AL7" t="s" s="2">
         <v>40</v>
@@ -1859,18 +1991,18 @@
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" t="s" s="2">
-        <v>87</v>
+        <v>40</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F8" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="G8" t="s" s="2">
         <v>40</v>
@@ -1879,19 +2011,19 @@
         <v>40</v>
       </c>
       <c r="I8" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="J8" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="K8" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="L8" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="K8" t="s" s="2">
+      <c r="M8" t="s" s="2">
         <v>89</v>
-      </c>
-      <c r="L8" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="M8" t="s" s="2">
-        <v>91</v>
       </c>
       <c r="N8" s="2"/>
       <c r="O8" t="s" s="2">
@@ -1941,25 +2073,25 @@
         <v>40</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="AF8" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG8" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AH8" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AI8" t="s" s="2">
-        <v>40</v>
+        <v>62</v>
       </c>
       <c r="AJ8" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AK8" t="s" s="2">
-        <v>93</v>
+        <v>40</v>
       </c>
       <c r="AL8" t="s" s="2">
         <v>40</v>
@@ -1970,7 +2102,7 @@
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
@@ -1981,7 +2113,7 @@
         <v>41</v>
       </c>
       <c r="F9" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="G9" t="s" s="2">
         <v>40</v>
@@ -1990,18 +2122,20 @@
         <v>40</v>
       </c>
       <c r="I9" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="J9" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="K9" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="L9" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="M9" t="s" s="2">
         <v>95</v>
       </c>
-      <c r="K9" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="L9" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="M9" s="2"/>
       <c r="N9" s="2"/>
       <c r="O9" t="s" s="2">
         <v>40</v>
@@ -2038,29 +2172,31 @@
         <v>40</v>
       </c>
       <c r="AA9" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AB9" s="2"/>
+        <v>40</v>
+      </c>
+      <c r="AB9" t="s" s="2">
+        <v>40</v>
+      </c>
       <c r="AC9" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AD9" t="s" s="2">
-        <v>99</v>
+        <v>40</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="AF9" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG9" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AH9" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>101</v>
+        <v>62</v>
       </c>
       <c r="AJ9" t="s" s="2">
         <v>40</v>
@@ -2075,42 +2211,42 @@
         <v>40</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="B10" t="s" s="2">
-        <v>102</v>
-      </c>
+        <v>97</v>
+      </c>
+      <c r="B10" s="2"/>
       <c r="C10" t="s" s="2">
         <v>40</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="F10" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G10" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H10" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I10" t="s" s="2">
         <v>51</v>
       </c>
-      <c r="H10" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I10" t="s" s="2">
-        <v>40</v>
-      </c>
       <c r="J10" t="s" s="2">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="M10" s="2"/>
+        <v>100</v>
+      </c>
+      <c r="M10" t="s" s="2">
+        <v>101</v>
+      </c>
       <c r="N10" s="2"/>
       <c r="O10" t="s" s="2">
         <v>40</v>
@@ -2159,7 +2295,7 @@
         <v>40</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="AF10" t="s" s="2">
         <v>41</v>
@@ -2168,27 +2304,27 @@
         <v>42</v>
       </c>
       <c r="AH10" t="s" s="2">
-        <v>106</v>
+        <v>40</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>101</v>
+        <v>62</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>107</v>
+        <v>40</v>
       </c>
       <c r="AK10" t="s" s="2">
-        <v>108</v>
+        <v>40</v>
       </c>
       <c r="AL10" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM10" t="s" s="2">
-        <v>109</v>
+        <v>40</v>
       </c>
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" t="s" s="2">
@@ -2199,7 +2335,7 @@
         <v>41</v>
       </c>
       <c r="F11" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G11" t="s" s="2">
         <v>40</v>
@@ -2208,18 +2344,20 @@
         <v>40</v>
       </c>
       <c r="I11" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>52</v>
+        <v>104</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>112</v>
-      </c>
-      <c r="M11" s="2"/>
+        <v>106</v>
+      </c>
+      <c r="M11" t="s" s="2">
+        <v>107</v>
+      </c>
       <c r="N11" s="2"/>
       <c r="O11" t="s" s="2">
         <v>40</v>
@@ -2244,13 +2382,13 @@
         <v>40</v>
       </c>
       <c r="W11" t="s" s="2">
-        <v>40</v>
+        <v>108</v>
       </c>
       <c r="X11" t="s" s="2">
-        <v>40</v>
+        <v>109</v>
       </c>
       <c r="Y11" t="s" s="2">
-        <v>40</v>
+        <v>110</v>
       </c>
       <c r="Z11" t="s" s="2">
         <v>40</v>
@@ -2268,25 +2406,25 @@
         <v>40</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="AF11" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG11" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AH11" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>40</v>
+        <v>62</v>
       </c>
       <c r="AJ11" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>114</v>
+        <v>40</v>
       </c>
       <c r="AL11" t="s" s="2">
         <v>40</v>
@@ -2297,7 +2435,7 @@
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
@@ -2308,7 +2446,7 @@
         <v>41</v>
       </c>
       <c r="F12" t="s" s="2">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G12" t="s" s="2">
         <v>40</v>
@@ -2317,18 +2455,20 @@
         <v>40</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>95</v>
+        <v>104</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>96</v>
+        <v>113</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="M12" s="2"/>
+        <v>114</v>
+      </c>
+      <c r="M12" t="s" s="2">
+        <v>115</v>
+      </c>
       <c r="N12" s="2"/>
       <c r="O12" t="s" s="2">
         <v>40</v>
@@ -2353,31 +2493,31 @@
         <v>40</v>
       </c>
       <c r="W12" t="s" s="2">
-        <v>40</v>
+        <v>116</v>
       </c>
       <c r="X12" t="s" s="2">
-        <v>40</v>
+        <v>117</v>
       </c>
       <c r="Y12" t="s" s="2">
-        <v>40</v>
+        <v>118</v>
       </c>
       <c r="Z12" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AA12" t="s" s="2">
-        <v>98</v>
+        <v>40</v>
       </c>
       <c r="AB12" t="s" s="2">
-        <v>116</v>
+        <v>40</v>
       </c>
       <c r="AC12" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AD12" t="s" s="2">
-        <v>99</v>
+        <v>40</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="AF12" t="s" s="2">
         <v>41</v>
@@ -2389,7 +2529,7 @@
         <v>40</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>101</v>
+        <v>62</v>
       </c>
       <c r="AJ12" t="s" s="2">
         <v>40</v>
@@ -2406,7 +2546,7 @@
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
@@ -2414,7 +2554,7 @@
       </c>
       <c r="D13" s="2"/>
       <c r="E13" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="F13" t="s" s="2">
         <v>50</v>
@@ -2423,22 +2563,22 @@
         <v>40</v>
       </c>
       <c r="H13" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="I13" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>64</v>
+        <v>92</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="N13" s="2"/>
       <c r="O13" t="s" s="2">
@@ -2446,7 +2586,7 @@
       </c>
       <c r="P13" s="2"/>
       <c r="Q13" t="s" s="2">
-        <v>122</v>
+        <v>40</v>
       </c>
       <c r="R13" t="s" s="2">
         <v>40</v>
@@ -2488,10 +2628,10 @@
         <v>40</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>50</v>
@@ -2500,13 +2640,13 @@
         <v>40</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>40</v>
+        <v>62</v>
       </c>
       <c r="AJ13" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>93</v>
+        <v>40</v>
       </c>
       <c r="AL13" t="s" s="2">
         <v>40</v>
@@ -2517,7 +2657,7 @@
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
@@ -2525,7 +2665,7 @@
       </c>
       <c r="D14" s="2"/>
       <c r="E14" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="F14" t="s" s="2">
         <v>50</v>
@@ -2540,15 +2680,17 @@
         <v>40</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>127</v>
-      </c>
-      <c r="M14" s="2"/>
+        <v>128</v>
+      </c>
+      <c r="M14" t="s" s="2">
+        <v>129</v>
+      </c>
       <c r="N14" s="2"/>
       <c r="O14" t="s" s="2">
         <v>40</v>
@@ -2573,29 +2715,31 @@
         <v>40</v>
       </c>
       <c r="W14" t="s" s="2">
-        <v>40</v>
+        <v>130</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>40</v>
+        <v>131</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>40</v>
+        <v>132</v>
       </c>
       <c r="Z14" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AA14" t="s" s="2">
-        <v>128</v>
-      </c>
-      <c r="AB14" s="2"/>
+        <v>40</v>
+      </c>
+      <c r="AB14" t="s" s="2">
+        <v>40</v>
+      </c>
       <c r="AC14" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AD14" t="s" s="2">
-        <v>129</v>
+        <v>40</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="AF14" t="s" s="2">
         <v>41</v>
@@ -2613,7 +2757,7 @@
         <v>40</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>93</v>
+        <v>40</v>
       </c>
       <c r="AL14" t="s" s="2">
         <v>40</v>
@@ -2624,17 +2768,15 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>124</v>
-      </c>
-      <c r="B15" t="s" s="2">
-        <v>131</v>
-      </c>
+        <v>134</v>
+      </c>
+      <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
-        <v>40</v>
+        <v>135</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="F15" t="s" s="2">
         <v>50</v>
@@ -2649,15 +2791,17 @@
         <v>40</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>126</v>
+        <v>137</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>127</v>
-      </c>
-      <c r="M15" s="2"/>
+        <v>138</v>
+      </c>
+      <c r="M15" t="s" s="2">
+        <v>139</v>
+      </c>
       <c r="N15" s="2"/>
       <c r="O15" t="s" s="2">
         <v>40</v>
@@ -2706,7 +2850,7 @@
         <v>40</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>41</v>
@@ -2724,7 +2868,7 @@
         <v>40</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>93</v>
+        <v>141</v>
       </c>
       <c r="AL15" t="s" s="2">
         <v>40</v>
@@ -2735,11 +2879,11 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>133</v>
+        <v>142</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
-        <v>134</v>
+        <v>143</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" t="s" s="2">
@@ -2752,26 +2896,24 @@
         <v>40</v>
       </c>
       <c r="H16" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="I16" t="s" s="2">
         <v>40</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>95</v>
+        <v>144</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>135</v>
+        <v>145</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>136</v>
+        <v>146</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="N16" t="s" s="2">
-        <v>138</v>
-      </c>
+        <v>147</v>
+      </c>
+      <c r="N16" s="2"/>
       <c r="O16" t="s" s="2">
         <v>40</v>
       </c>
@@ -2819,7 +2961,7 @@
         <v>40</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>139</v>
+        <v>148</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>41</v>
@@ -2831,13 +2973,13 @@
         <v>40</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>101</v>
+        <v>40</v>
       </c>
       <c r="AJ16" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>93</v>
+        <v>149</v>
       </c>
       <c r="AL16" t="s" s="2">
         <v>40</v>
@@ -2846,9 +2988,9 @@
         <v>40</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
@@ -2862,26 +3004,24 @@
         <v>42</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="H17" t="s" s="2">
         <v>40</v>
       </c>
       <c r="I17" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>141</v>
+        <v>70</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>142</v>
+        <v>151</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>143</v>
-      </c>
-      <c r="M17" t="s" s="2">
-        <v>144</v>
-      </c>
+        <v>152</v>
+      </c>
+      <c r="M17" s="2"/>
       <c r="N17" s="2"/>
       <c r="O17" t="s" s="2">
         <v>40</v>
@@ -2918,19 +3058,17 @@
         <v>40</v>
       </c>
       <c r="AA17" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB17" t="s" s="2">
-        <v>40</v>
-      </c>
+        <v>74</v>
+      </c>
+      <c r="AB17" s="2"/>
       <c r="AC17" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AD17" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>140</v>
+        <v>153</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>41</v>
@@ -2942,26 +3080,28 @@
         <v>40</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>62</v>
+        <v>78</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>145</v>
+        <v>40</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>146</v>
+        <v>40</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>147</v>
+        <v>40</v>
       </c>
       <c r="AM17" t="s" s="2">
         <v>40</v>
       </c>
     </row>
-    <row r="18" hidden="true">
+    <row r="18">
       <c r="A18" t="s" s="2">
-        <v>148</v>
-      </c>
-      <c r="B18" s="2"/>
+        <v>150</v>
+      </c>
+      <c r="B18" t="s" s="2">
+        <v>154</v>
+      </c>
       <c r="C18" t="s" s="2">
         <v>40</v>
       </c>
@@ -2970,30 +3110,28 @@
         <v>41</v>
       </c>
       <c r="F18" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="H18" t="s" s="2">
         <v>40</v>
       </c>
       <c r="I18" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>105</v>
+        <v>157</v>
       </c>
       <c r="M18" s="2"/>
-      <c r="N18" t="s" s="2">
-        <v>151</v>
-      </c>
+      <c r="N18" s="2"/>
       <c r="O18" t="s" s="2">
         <v>40</v>
       </c>
@@ -3041,7 +3179,7 @@
         <v>40</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>41</v>
@@ -3050,27 +3188,27 @@
         <v>42</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>40</v>
+        <v>158</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>62</v>
+        <v>78</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>107</v>
+        <v>159</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="AL18" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>40</v>
+        <v>161</v>
       </c>
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>153</v>
+        <v>162</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
@@ -3081,7 +3219,7 @@
         <v>41</v>
       </c>
       <c r="F19" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="G19" t="s" s="2">
         <v>40</v>
@@ -3090,21 +3228,19 @@
         <v>40</v>
       </c>
       <c r="I19" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>154</v>
+        <v>52</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>155</v>
+        <v>64</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>156</v>
+        <v>65</v>
       </c>
       <c r="M19" s="2"/>
-      <c r="N19" t="s" s="2">
-        <v>157</v>
-      </c>
+      <c r="N19" s="2"/>
       <c r="O19" t="s" s="2">
         <v>40</v>
       </c>
@@ -3152,25 +3288,25 @@
         <v>40</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>153</v>
+        <v>66</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG19" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AH19" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>62</v>
+        <v>40</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>158</v>
+        <v>40</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>159</v>
+        <v>67</v>
       </c>
       <c r="AL19" t="s" s="2">
         <v>40</v>
@@ -3179,9 +3315,9 @@
         <v>40</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -3189,32 +3325,30 @@
       </c>
       <c r="D20" s="2"/>
       <c r="E20" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="F20" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="H20" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="I20" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="J20" t="s" s="2">
         <v>70</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>161</v>
+        <v>151</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>162</v>
-      </c>
-      <c r="M20" t="s" s="2">
-        <v>163</v>
-      </c>
+        <v>152</v>
+      </c>
+      <c r="M20" s="2"/>
       <c r="N20" s="2"/>
       <c r="O20" t="s" s="2">
         <v>40</v>
@@ -3239,52 +3373,52 @@
         <v>40</v>
       </c>
       <c r="W20" t="s" s="2">
-        <v>164</v>
+        <v>40</v>
       </c>
       <c r="X20" t="s" s="2">
-        <v>165</v>
+        <v>40</v>
       </c>
       <c r="Y20" t="s" s="2">
-        <v>166</v>
+        <v>40</v>
       </c>
       <c r="Z20" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AA20" t="s" s="2">
-        <v>40</v>
+        <v>74</v>
       </c>
       <c r="AB20" t="s" s="2">
-        <v>40</v>
+        <v>75</v>
       </c>
       <c r="AC20" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AD20" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>160</v>
+        <v>77</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="AG20" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AH20" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>62</v>
+        <v>78</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>167</v>
+        <v>40</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>168</v>
+        <v>40</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>169</v>
+        <v>40</v>
       </c>
       <c r="AM20" t="s" s="2">
         <v>40</v>
@@ -3292,7 +3426,7 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -3300,10 +3434,10 @@
       </c>
       <c r="D21" s="2"/>
       <c r="E21" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="F21" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="G21" t="s" s="2">
         <v>40</v>
@@ -3315,16 +3449,16 @@
         <v>40</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>171</v>
+        <v>92</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" t="s" s="2">
@@ -3332,7 +3466,7 @@
       </c>
       <c r="P21" s="2"/>
       <c r="Q21" t="s" s="2">
-        <v>40</v>
+        <v>168</v>
       </c>
       <c r="R21" t="s" s="2">
         <v>40</v>
@@ -3350,13 +3484,13 @@
         <v>40</v>
       </c>
       <c r="W21" t="s" s="2">
-        <v>175</v>
+        <v>40</v>
       </c>
       <c r="X21" t="s" s="2">
-        <v>176</v>
+        <v>40</v>
       </c>
       <c r="Y21" t="s" s="2">
-        <v>177</v>
+        <v>40</v>
       </c>
       <c r="Z21" t="s" s="2">
         <v>40</v>
@@ -3374,36 +3508,36 @@
         <v>40</v>
       </c>
       <c r="AE21" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="AF21" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AG21" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AH21" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI21" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ21" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK21" t="s" s="2">
+        <v>149</v>
+      </c>
+      <c r="AL21" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM21" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="22" hidden="true">
+      <c r="A22" t="s" s="2">
         <v>170</v>
-      </c>
-      <c r="AF21" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG21" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AH21" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI21" t="s" s="2">
-        <v>62</v>
-      </c>
-      <c r="AJ21" t="s" s="2">
-        <v>178</v>
-      </c>
-      <c r="AK21" t="s" s="2">
-        <v>179</v>
-      </c>
-      <c r="AL21" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AM21" t="s" s="2">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="s" s="2">
-        <v>180</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -3411,28 +3545,28 @@
       </c>
       <c r="D22" s="2"/>
       <c r="E22" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="F22" t="s" s="2">
         <v>50</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="H22" t="s" s="2">
         <v>40</v>
       </c>
       <c r="I22" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="J22" t="s" s="2">
         <v>171</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>181</v>
+        <v>172</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>182</v>
+        <v>173</v>
       </c>
       <c r="M22" s="2"/>
       <c r="N22" s="2"/>
@@ -3459,31 +3593,29 @@
         <v>40</v>
       </c>
       <c r="W22" t="s" s="2">
-        <v>74</v>
+        <v>40</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>183</v>
+        <v>40</v>
       </c>
       <c r="Y22" t="s" s="2">
-        <v>184</v>
+        <v>40</v>
       </c>
       <c r="Z22" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AA22" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB22" t="s" s="2">
-        <v>40</v>
-      </c>
+        <v>174</v>
+      </c>
+      <c r="AB22" s="2"/>
       <c r="AC22" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AD22" t="s" s="2">
-        <v>40</v>
+        <v>175</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>41</v>
@@ -3501,10 +3633,10 @@
         <v>40</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>185</v>
+        <v>149</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>186</v>
+        <v>40</v>
       </c>
       <c r="AM22" t="s" s="2">
         <v>40</v>
@@ -3512,9 +3644,11 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>187</v>
-      </c>
-      <c r="B23" s="2"/>
+        <v>170</v>
+      </c>
+      <c r="B23" t="s" s="2">
+        <v>177</v>
+      </c>
       <c r="C23" t="s" s="2">
         <v>40</v>
       </c>
@@ -3532,20 +3666,18 @@
         <v>40</v>
       </c>
       <c r="I23" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>188</v>
+        <v>178</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>189</v>
+        <v>172</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>190</v>
-      </c>
-      <c r="M23" t="s" s="2">
-        <v>191</v>
-      </c>
+        <v>173</v>
+      </c>
+      <c r="M23" s="2"/>
       <c r="N23" s="2"/>
       <c r="O23" t="s" s="2">
         <v>40</v>
@@ -3570,32 +3702,34 @@
         <v>40</v>
       </c>
       <c r="W23" t="s" s="2">
-        <v>175</v>
+        <v>40</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>192</v>
+        <v>40</v>
       </c>
       <c r="Y23" t="s" s="2">
-        <v>193</v>
+        <v>40</v>
       </c>
       <c r="Z23" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AA23" t="s" s="2">
-        <v>128</v>
-      </c>
-      <c r="AB23" s="2"/>
+        <v>40</v>
+      </c>
+      <c r="AB23" t="s" s="2">
+        <v>40</v>
+      </c>
       <c r="AC23" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AD23" t="s" s="2">
-        <v>129</v>
+        <v>40</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>187</v>
+        <v>176</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>50</v>
@@ -3607,57 +3741,57 @@
         <v>62</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>194</v>
+        <v>40</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>195</v>
+        <v>149</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>196</v>
+        <v>40</v>
       </c>
       <c r="AM23" t="s" s="2">
         <v>40</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>187</v>
-      </c>
-      <c r="B24" t="s" s="2">
-        <v>197</v>
-      </c>
+        <v>179</v>
+      </c>
+      <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
-        <v>40</v>
+        <v>69</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F24" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G24" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H24" t="s" s="2">
         <v>51</v>
       </c>
-      <c r="H24" t="s" s="2">
-        <v>40</v>
-      </c>
       <c r="I24" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>171</v>
+        <v>70</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>189</v>
+        <v>180</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>190</v>
+        <v>181</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>191</v>
-      </c>
-      <c r="N24" s="2"/>
+        <v>73</v>
+      </c>
+      <c r="N24" t="s" s="2">
+        <v>182</v>
+      </c>
       <c r="O24" t="s" s="2">
         <v>40</v>
       </c>
@@ -3681,13 +3815,13 @@
         <v>40</v>
       </c>
       <c r="W24" t="s" s="2">
-        <v>175</v>
+        <v>40</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>192</v>
+        <v>40</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>193</v>
+        <v>40</v>
       </c>
       <c r="Z24" t="s" s="2">
         <v>40</v>
@@ -3705,28 +3839,28 @@
         <v>40</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AH24" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>62</v>
+        <v>78</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>194</v>
+        <v>40</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>195</v>
+        <v>149</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>196</v>
+        <v>40</v>
       </c>
       <c r="AM24" t="s" s="2">
         <v>40</v>
@@ -3734,11 +3868,9 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>187</v>
-      </c>
-      <c r="B25" t="s" s="2">
-        <v>198</v>
-      </c>
+        <v>184</v>
+      </c>
+      <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
         <v>40</v>
       </c>
@@ -3747,7 +3879,7 @@
         <v>41</v>
       </c>
       <c r="F25" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G25" t="s" s="2">
         <v>51</v>
@@ -3759,16 +3891,16 @@
         <v>51</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>199</v>
+        <v>185</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" t="s" s="2">
@@ -3818,13 +3950,13 @@
         <v>40</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AH25" t="s" s="2">
         <v>40</v>
@@ -3833,21 +3965,21 @@
         <v>62</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="AM25" t="s" s="2">
         <v>40</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>200</v>
+        <v>192</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -3855,13 +3987,13 @@
       </c>
       <c r="D26" s="2"/>
       <c r="E26" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="F26" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="H26" t="s" s="2">
         <v>40</v>
@@ -3870,16 +4002,18 @@
         <v>51</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>203</v>
+        <v>157</v>
       </c>
       <c r="M26" s="2"/>
-      <c r="N26" s="2"/>
+      <c r="N26" t="s" s="2">
+        <v>195</v>
+      </c>
       <c r="O26" t="s" s="2">
         <v>40</v>
       </c>
@@ -3927,13 +4061,13 @@
         <v>40</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>200</v>
+        <v>192</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AH26" t="s" s="2">
         <v>40</v>
@@ -3942,21 +4076,21 @@
         <v>62</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>204</v>
+        <v>159</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>205</v>
+        <v>196</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>206</v>
+        <v>40</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>207</v>
+        <v>40</v>
       </c>
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>208</v>
+        <v>197</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -3967,7 +4101,7 @@
         <v>41</v>
       </c>
       <c r="F27" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G27" t="s" s="2">
         <v>40</v>
@@ -3979,16 +4113,18 @@
         <v>51</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>209</v>
+        <v>198</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>210</v>
+        <v>199</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>211</v>
+        <v>200</v>
       </c>
       <c r="M27" s="2"/>
-      <c r="N27" s="2"/>
+      <c r="N27" t="s" s="2">
+        <v>201</v>
+      </c>
       <c r="O27" t="s" s="2">
         <v>40</v>
       </c>
@@ -4036,13 +4172,13 @@
         <v>40</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>208</v>
+        <v>197</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AH27" t="s" s="2">
         <v>40</v>
@@ -4051,10 +4187,10 @@
         <v>62</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>212</v>
+        <v>202</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>213</v>
+        <v>203</v>
       </c>
       <c r="AL27" t="s" s="2">
         <v>40</v>
@@ -4063,9 +4199,9 @@
         <v>40</v>
       </c>
     </row>
-    <row r="28" hidden="true">
+    <row r="28">
       <c r="A28" t="s" s="2">
-        <v>214</v>
+        <v>204</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -4073,31 +4209,31 @@
       </c>
       <c r="D28" s="2"/>
       <c r="E28" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="F28" t="s" s="2">
         <v>50</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="H28" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="I28" t="s" s="2">
         <v>51</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>215</v>
+        <v>126</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>216</v>
+        <v>205</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>217</v>
+        <v>206</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>218</v>
+        <v>207</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
@@ -4123,32 +4259,34 @@
         <v>40</v>
       </c>
       <c r="W28" t="s" s="2">
-        <v>40</v>
+        <v>208</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>40</v>
+        <v>209</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>40</v>
+        <v>210</v>
       </c>
       <c r="Z28" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AA28" t="s" s="2">
-        <v>128</v>
-      </c>
-      <c r="AB28" s="2"/>
+        <v>40</v>
+      </c>
+      <c r="AB28" t="s" s="2">
+        <v>40</v>
+      </c>
       <c r="AC28" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AD28" t="s" s="2">
-        <v>129</v>
+        <v>40</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>214</v>
+        <v>204</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>50</v>
@@ -4160,25 +4298,23 @@
         <v>62</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="AM28" t="s" s="2">
         <v>40</v>
       </c>
     </row>
-    <row r="29">
+    <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
         <v>214</v>
       </c>
-      <c r="B29" t="s" s="2">
-        <v>222</v>
-      </c>
+      <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
         <v>40</v>
       </c>
@@ -4187,19 +4323,19 @@
         <v>41</v>
       </c>
       <c r="F29" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="H29" t="s" s="2">
         <v>40</v>
       </c>
       <c r="I29" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="K29" t="s" s="2">
         <v>216</v>
@@ -4234,13 +4370,13 @@
         <v>40</v>
       </c>
       <c r="W29" t="s" s="2">
-        <v>40</v>
+        <v>116</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>40</v>
+        <v>219</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>40</v>
+        <v>220</v>
       </c>
       <c r="Z29" t="s" s="2">
         <v>40</v>
@@ -4264,7 +4400,7 @@
         <v>41</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AH29" t="s" s="2">
         <v>40</v>
@@ -4273,13 +4409,13 @@
         <v>62</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>221</v>
+        <v>40</v>
       </c>
       <c r="AM29" t="s" s="2">
         <v>40</v>
@@ -4287,11 +4423,9 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>214</v>
-      </c>
-      <c r="B30" t="s" s="2">
-        <v>224</v>
-      </c>
+        <v>223</v>
+      </c>
+      <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
         <v>40</v>
       </c>
@@ -4312,17 +4446,15 @@
         <v>51</v>
       </c>
       <c r="J30" t="s" s="2">
+        <v>215</v>
+      </c>
+      <c r="K30" t="s" s="2">
+        <v>224</v>
+      </c>
+      <c r="L30" t="s" s="2">
         <v>225</v>
       </c>
-      <c r="K30" t="s" s="2">
-        <v>216</v>
-      </c>
-      <c r="L30" t="s" s="2">
-        <v>217</v>
-      </c>
-      <c r="M30" t="s" s="2">
-        <v>218</v>
-      </c>
+      <c r="M30" s="2"/>
       <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
         <v>40</v>
@@ -4347,13 +4479,13 @@
         <v>40</v>
       </c>
       <c r="W30" t="s" s="2">
-        <v>40</v>
+        <v>130</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>40</v>
+        <v>226</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>40</v>
+        <v>227</v>
       </c>
       <c r="Z30" t="s" s="2">
         <v>40</v>
@@ -4371,7 +4503,7 @@
         <v>40</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>214</v>
+        <v>223</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>41</v>
@@ -4386,21 +4518,21 @@
         <v>62</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>219</v>
+        <v>40</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>220</v>
+        <v>228</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>221</v>
+        <v>229</v>
       </c>
       <c r="AM30" t="s" s="2">
         <v>40</v>
       </c>
     </row>
-    <row r="31">
+    <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -4408,13 +4540,13 @@
       </c>
       <c r="D31" s="2"/>
       <c r="E31" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="F31" t="s" s="2">
         <v>50</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="H31" t="s" s="2">
         <v>40</v>
@@ -4423,15 +4555,17 @@
         <v>51</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>223</v>
+        <v>231</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>228</v>
-      </c>
-      <c r="M31" s="2"/>
+        <v>233</v>
+      </c>
+      <c r="M31" t="s" s="2">
+        <v>234</v>
+      </c>
       <c r="N31" s="2"/>
       <c r="O31" t="s" s="2">
         <v>40</v>
@@ -4456,34 +4590,32 @@
         <v>40</v>
       </c>
       <c r="W31" t="s" s="2">
-        <v>40</v>
+        <v>116</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>40</v>
+        <v>235</v>
       </c>
       <c r="Y31" t="s" s="2">
-        <v>40</v>
+        <v>236</v>
       </c>
       <c r="Z31" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AA31" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB31" t="s" s="2">
-        <v>40</v>
-      </c>
+        <v>174</v>
+      </c>
+      <c r="AB31" s="2"/>
       <c r="AC31" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AD31" t="s" s="2">
-        <v>40</v>
+        <v>175</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>50</v>
@@ -4495,13 +4627,13 @@
         <v>62</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>40</v>
+        <v>237</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>229</v>
+        <v>238</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>230</v>
+        <v>239</v>
       </c>
       <c r="AM31" t="s" s="2">
         <v>40</v>
@@ -4509,9 +4641,11 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>231</v>
-      </c>
-      <c r="B32" s="2"/>
+        <v>230</v>
+      </c>
+      <c r="B32" t="s" s="2">
+        <v>240</v>
+      </c>
       <c r="C32" t="s" s="2">
         <v>40</v>
       </c>
@@ -4529,18 +4663,20 @@
         <v>40</v>
       </c>
       <c r="I32" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="J32" t="s" s="2">
+        <v>215</v>
+      </c>
+      <c r="K32" t="s" s="2">
         <v>232</v>
       </c>
-      <c r="K32" t="s" s="2">
+      <c r="L32" t="s" s="2">
         <v>233</v>
       </c>
-      <c r="L32" t="s" s="2">
+      <c r="M32" t="s" s="2">
         <v>234</v>
       </c>
-      <c r="M32" s="2"/>
       <c r="N32" s="2"/>
       <c r="O32" t="s" s="2">
         <v>40</v>
@@ -4565,13 +4701,13 @@
         <v>40</v>
       </c>
       <c r="W32" t="s" s="2">
-        <v>40</v>
+        <v>116</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>40</v>
+        <v>235</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>40</v>
+        <v>236</v>
       </c>
       <c r="Z32" t="s" s="2">
         <v>40</v>
@@ -4589,10 +4725,10 @@
         <v>40</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>50</v>
@@ -4604,23 +4740,25 @@
         <v>62</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>40</v>
+        <v>237</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="AM32" t="s" s="2">
         <v>40</v>
       </c>
     </row>
-    <row r="33" hidden="true">
+    <row r="33">
       <c r="A33" t="s" s="2">
-        <v>237</v>
-      </c>
-      <c r="B33" s="2"/>
+        <v>230</v>
+      </c>
+      <c r="B33" t="s" s="2">
+        <v>241</v>
+      </c>
       <c r="C33" t="s" s="2">
         <v>40</v>
       </c>
@@ -4629,28 +4767,28 @@
         <v>41</v>
       </c>
       <c r="F33" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="H33" t="s" s="2">
         <v>40</v>
       </c>
       <c r="I33" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
@@ -4700,13 +4838,13 @@
         <v>40</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="AG33" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AH33" t="s" s="2">
         <v>40</v>
@@ -4715,13 +4853,13 @@
         <v>62</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>40</v>
+        <v>237</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>40</v>
+        <v>239</v>
       </c>
       <c r="AM33" t="s" s="2">
         <v>40</v>
@@ -4737,10 +4875,10 @@
       </c>
       <c r="D34" s="2"/>
       <c r="E34" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="F34" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="G34" t="s" s="2">
         <v>51</v>
@@ -4749,20 +4887,18 @@
         <v>40</v>
       </c>
       <c r="I34" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>171</v>
+        <v>244</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>245</v>
-      </c>
-      <c r="M34" t="s" s="2">
         <v>246</v>
       </c>
+      <c r="M34" s="2"/>
       <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
         <v>40</v>
@@ -4787,13 +4923,13 @@
         <v>40</v>
       </c>
       <c r="W34" t="s" s="2">
-        <v>175</v>
+        <v>40</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>247</v>
+        <v>40</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>248</v>
+        <v>40</v>
       </c>
       <c r="Z34" t="s" s="2">
         <v>40</v>
@@ -4814,10 +4950,10 @@
         <v>243</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AH34" t="s" s="2">
         <v>40</v>
@@ -4826,21 +4962,21 @@
         <v>62</v>
       </c>
       <c r="AJ34" t="s" s="2">
+        <v>247</v>
+      </c>
+      <c r="AK34" t="s" s="2">
+        <v>248</v>
+      </c>
+      <c r="AL34" t="s" s="2">
         <v>249</v>
       </c>
-      <c r="AK34" t="s" s="2">
+      <c r="AM34" t="s" s="2">
         <v>250</v>
       </c>
-      <c r="AL34" t="s" s="2">
+    </row>
+    <row r="35" hidden="true">
+      <c r="A35" t="s" s="2">
         <v>251</v>
-      </c>
-      <c r="AM34" t="s" s="2">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="s" s="2">
-        <v>252</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -4851,29 +4987,27 @@
         <v>41</v>
       </c>
       <c r="F35" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="G35" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H35" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I35" t="s" s="2">
         <v>51</v>
       </c>
-      <c r="H35" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I35" t="s" s="2">
-        <v>40</v>
-      </c>
       <c r="J35" t="s" s="2">
+        <v>252</v>
+      </c>
+      <c r="K35" t="s" s="2">
         <v>253</v>
       </c>
-      <c r="K35" t="s" s="2">
+      <c r="L35" t="s" s="2">
         <v>254</v>
       </c>
-      <c r="L35" t="s" s="2">
-        <v>255</v>
-      </c>
-      <c r="M35" t="s" s="2">
-        <v>256</v>
-      </c>
+      <c r="M35" s="2"/>
       <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
         <v>40</v>
@@ -4922,13 +5056,13 @@
         <v>40</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AH35" t="s" s="2">
         <v>40</v>
@@ -4937,13 +5071,13 @@
         <v>62</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>251</v>
+        <v>40</v>
       </c>
       <c r="AM35" t="s" s="2">
         <v>40</v>
@@ -4951,7 +5085,7 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -4962,7 +5096,7 @@
         <v>41</v>
       </c>
       <c r="F36" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="G36" t="s" s="2">
         <v>40</v>
@@ -4971,18 +5105,20 @@
         <v>40</v>
       </c>
       <c r="I36" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="J36" t="s" s="2">
+        <v>258</v>
+      </c>
+      <c r="K36" t="s" s="2">
+        <v>259</v>
+      </c>
+      <c r="L36" t="s" s="2">
         <v>260</v>
       </c>
-      <c r="K36" t="s" s="2">
+      <c r="M36" t="s" s="2">
         <v>261</v>
       </c>
-      <c r="L36" t="s" s="2">
-        <v>262</v>
-      </c>
-      <c r="M36" s="2"/>
       <c r="N36" s="2"/>
       <c r="O36" t="s" s="2">
         <v>40</v>
@@ -5019,25 +5155,23 @@
         <v>40</v>
       </c>
       <c r="AA36" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB36" t="s" s="2">
-        <v>40</v>
-      </c>
+        <v>174</v>
+      </c>
+      <c r="AB36" s="2"/>
       <c r="AC36" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AD36" t="s" s="2">
-        <v>40</v>
+        <v>175</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG36" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AH36" t="s" s="2">
         <v>40</v>
@@ -5046,13 +5180,13 @@
         <v>62</v>
       </c>
       <c r="AJ36" t="s" s="2">
+        <v>262</v>
+      </c>
+      <c r="AK36" t="s" s="2">
         <v>263</v>
       </c>
-      <c r="AK36" t="s" s="2">
+      <c r="AL36" t="s" s="2">
         <v>264</v>
-      </c>
-      <c r="AL36" t="s" s="2">
-        <v>40</v>
       </c>
       <c r="AM36" t="s" s="2">
         <v>40</v>
@@ -5060,9 +5194,11 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
+        <v>257</v>
+      </c>
+      <c r="B37" t="s" s="2">
         <v>265</v>
       </c>
-      <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
         <v>40</v>
       </c>
@@ -5071,7 +5207,7 @@
         <v>41</v>
       </c>
       <c r="F37" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="G37" t="s" s="2">
         <v>51</v>
@@ -5080,19 +5216,19 @@
         <v>40</v>
       </c>
       <c r="I37" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="J37" t="s" s="2">
         <v>266</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>267</v>
+        <v>259</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>268</v>
+        <v>260</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
@@ -5142,13 +5278,13 @@
         <v>40</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>265</v>
+        <v>257</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AH37" t="s" s="2">
         <v>40</v>
@@ -5157,20 +5293,904 @@
         <v>62</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>40</v>
+        <v>262</v>
       </c>
       <c r="AK37" t="s" s="2">
+        <v>263</v>
+      </c>
+      <c r="AL37" t="s" s="2">
+        <v>264</v>
+      </c>
+      <c r="AM37" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s" s="2">
+        <v>257</v>
+      </c>
+      <c r="B38" t="s" s="2">
+        <v>267</v>
+      </c>
+      <c r="C38" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D38" s="2"/>
+      <c r="E38" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F38" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="G38" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="H38" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I38" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="J38" t="s" s="2">
+        <v>268</v>
+      </c>
+      <c r="K38" t="s" s="2">
+        <v>259</v>
+      </c>
+      <c r="L38" t="s" s="2">
+        <v>260</v>
+      </c>
+      <c r="M38" t="s" s="2">
+        <v>261</v>
+      </c>
+      <c r="N38" s="2"/>
+      <c r="O38" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P38" s="2"/>
+      <c r="Q38" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R38" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S38" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T38" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U38" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V38" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W38" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X38" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y38" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z38" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA38" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB38" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC38" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD38" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE38" t="s" s="2">
+        <v>257</v>
+      </c>
+      <c r="AF38" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG38" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AH38" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI38" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="AJ38" t="s" s="2">
+        <v>262</v>
+      </c>
+      <c r="AK38" t="s" s="2">
+        <v>263</v>
+      </c>
+      <c r="AL38" t="s" s="2">
+        <v>264</v>
+      </c>
+      <c r="AM38" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s" s="2">
+        <v>269</v>
+      </c>
+      <c r="B39" s="2"/>
+      <c r="C39" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D39" s="2"/>
+      <c r="E39" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F39" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="G39" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="H39" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I39" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="J39" t="s" s="2">
+        <v>266</v>
+      </c>
+      <c r="K39" t="s" s="2">
         <v>270</v>
       </c>
-      <c r="AL37" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AM37" t="s" s="2">
+      <c r="L39" t="s" s="2">
+        <v>271</v>
+      </c>
+      <c r="M39" s="2"/>
+      <c r="N39" s="2"/>
+      <c r="O39" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P39" s="2"/>
+      <c r="Q39" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R39" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S39" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T39" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U39" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V39" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W39" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X39" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y39" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z39" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA39" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB39" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC39" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD39" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE39" t="s" s="2">
+        <v>269</v>
+      </c>
+      <c r="AF39" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG39" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AH39" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI39" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="AJ39" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK39" t="s" s="2">
+        <v>272</v>
+      </c>
+      <c r="AL39" t="s" s="2">
+        <v>273</v>
+      </c>
+      <c r="AM39" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s" s="2">
+        <v>274</v>
+      </c>
+      <c r="B40" s="2"/>
+      <c r="C40" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D40" s="2"/>
+      <c r="E40" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F40" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="G40" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="H40" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I40" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="J40" t="s" s="2">
+        <v>275</v>
+      </c>
+      <c r="K40" t="s" s="2">
+        <v>276</v>
+      </c>
+      <c r="L40" t="s" s="2">
+        <v>277</v>
+      </c>
+      <c r="M40" s="2"/>
+      <c r="N40" s="2"/>
+      <c r="O40" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P40" s="2"/>
+      <c r="Q40" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R40" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S40" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T40" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U40" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V40" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W40" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X40" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y40" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z40" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA40" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB40" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC40" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD40" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE40" t="s" s="2">
+        <v>274</v>
+      </c>
+      <c r="AF40" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG40" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AH40" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI40" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="AJ40" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK40" t="s" s="2">
+        <v>278</v>
+      </c>
+      <c r="AL40" t="s" s="2">
+        <v>279</v>
+      </c>
+      <c r="AM40" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="41" hidden="true">
+      <c r="A41" t="s" s="2">
+        <v>280</v>
+      </c>
+      <c r="B41" s="2"/>
+      <c r="C41" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D41" s="2"/>
+      <c r="E41" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F41" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="G41" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H41" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I41" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="J41" t="s" s="2">
+        <v>281</v>
+      </c>
+      <c r="K41" t="s" s="2">
+        <v>282</v>
+      </c>
+      <c r="L41" t="s" s="2">
+        <v>283</v>
+      </c>
+      <c r="M41" t="s" s="2">
+        <v>284</v>
+      </c>
+      <c r="N41" s="2"/>
+      <c r="O41" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P41" s="2"/>
+      <c r="Q41" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R41" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S41" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T41" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U41" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V41" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W41" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X41" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y41" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z41" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA41" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB41" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC41" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD41" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE41" t="s" s="2">
+        <v>280</v>
+      </c>
+      <c r="AF41" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG41" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AH41" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI41" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="AJ41" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK41" t="s" s="2">
+        <v>285</v>
+      </c>
+      <c r="AL41" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM41" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s" s="2">
+        <v>286</v>
+      </c>
+      <c r="B42" s="2"/>
+      <c r="C42" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D42" s="2"/>
+      <c r="E42" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F42" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="G42" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="H42" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I42" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="J42" t="s" s="2">
+        <v>215</v>
+      </c>
+      <c r="K42" t="s" s="2">
+        <v>287</v>
+      </c>
+      <c r="L42" t="s" s="2">
+        <v>288</v>
+      </c>
+      <c r="M42" t="s" s="2">
+        <v>289</v>
+      </c>
+      <c r="N42" s="2"/>
+      <c r="O42" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P42" s="2"/>
+      <c r="Q42" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R42" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S42" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T42" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U42" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V42" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W42" t="s" s="2">
+        <v>116</v>
+      </c>
+      <c r="X42" t="s" s="2">
+        <v>290</v>
+      </c>
+      <c r="Y42" t="s" s="2">
+        <v>291</v>
+      </c>
+      <c r="Z42" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA42" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB42" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC42" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD42" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE42" t="s" s="2">
+        <v>286</v>
+      </c>
+      <c r="AF42" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG42" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AH42" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI42" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="AJ42" t="s" s="2">
+        <v>292</v>
+      </c>
+      <c r="AK42" t="s" s="2">
+        <v>293</v>
+      </c>
+      <c r="AL42" t="s" s="2">
+        <v>294</v>
+      </c>
+      <c r="AM42" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s" s="2">
+        <v>295</v>
+      </c>
+      <c r="B43" s="2"/>
+      <c r="C43" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D43" s="2"/>
+      <c r="E43" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F43" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="G43" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="H43" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I43" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="J43" t="s" s="2">
+        <v>296</v>
+      </c>
+      <c r="K43" t="s" s="2">
+        <v>297</v>
+      </c>
+      <c r="L43" t="s" s="2">
+        <v>298</v>
+      </c>
+      <c r="M43" t="s" s="2">
+        <v>299</v>
+      </c>
+      <c r="N43" s="2"/>
+      <c r="O43" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P43" s="2"/>
+      <c r="Q43" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R43" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S43" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T43" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U43" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V43" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W43" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X43" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y43" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z43" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA43" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB43" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC43" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD43" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE43" t="s" s="2">
+        <v>295</v>
+      </c>
+      <c r="AF43" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG43" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AH43" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI43" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="AJ43" t="s" s="2">
+        <v>300</v>
+      </c>
+      <c r="AK43" t="s" s="2">
+        <v>301</v>
+      </c>
+      <c r="AL43" t="s" s="2">
+        <v>294</v>
+      </c>
+      <c r="AM43" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="44" hidden="true">
+      <c r="A44" t="s" s="2">
+        <v>302</v>
+      </c>
+      <c r="B44" s="2"/>
+      <c r="C44" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D44" s="2"/>
+      <c r="E44" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F44" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="G44" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H44" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I44" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="J44" t="s" s="2">
+        <v>303</v>
+      </c>
+      <c r="K44" t="s" s="2">
+        <v>304</v>
+      </c>
+      <c r="L44" t="s" s="2">
+        <v>305</v>
+      </c>
+      <c r="M44" s="2"/>
+      <c r="N44" s="2"/>
+      <c r="O44" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P44" s="2"/>
+      <c r="Q44" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R44" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S44" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T44" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U44" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V44" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W44" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X44" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y44" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z44" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA44" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB44" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC44" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD44" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE44" t="s" s="2">
+        <v>302</v>
+      </c>
+      <c r="AF44" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG44" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AH44" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI44" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="AJ44" t="s" s="2">
+        <v>306</v>
+      </c>
+      <c r="AK44" t="s" s="2">
+        <v>307</v>
+      </c>
+      <c r="AL44" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM44" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s" s="2">
+        <v>308</v>
+      </c>
+      <c r="B45" s="2"/>
+      <c r="C45" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D45" s="2"/>
+      <c r="E45" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F45" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="G45" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="H45" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I45" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="J45" t="s" s="2">
+        <v>309</v>
+      </c>
+      <c r="K45" t="s" s="2">
+        <v>310</v>
+      </c>
+      <c r="L45" t="s" s="2">
+        <v>311</v>
+      </c>
+      <c r="M45" t="s" s="2">
+        <v>312</v>
+      </c>
+      <c r="N45" s="2"/>
+      <c r="O45" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P45" s="2"/>
+      <c r="Q45" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R45" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S45" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T45" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U45" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V45" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W45" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X45" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y45" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z45" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA45" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB45" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC45" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD45" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE45" t="s" s="2">
+        <v>308</v>
+      </c>
+      <c r="AF45" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG45" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AH45" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI45" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="AJ45" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK45" t="s" s="2">
+        <v>313</v>
+      </c>
+      <c r="AL45" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM45" t="s" s="2">
         <v>40</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AM37">
+  <autoFilter ref="A1:AM45">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -5180,7 +6200,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI36">
+  <conditionalFormatting sqref="A2:AI44">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/StructureDefinition-MedRecordUsage.xlsx
+++ b/StructureDefinition-MedRecordUsage.xlsx
@@ -9,13 +9,13 @@
     <sheet name="Elements" r:id="rId3" sheetId="1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AM$45</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AM$46</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1568" uniqueCount="314">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1603" uniqueCount="316">
   <si>
     <t>Path</t>
   </si>
@@ -585,6 +585,13 @@
   </si>
   <si>
     <t xml:space="preserve">Reference(CarePlan)
+</t>
+  </si>
+  <si>
+    <t>basedOn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {https://www.hl7belgium.be/fhir/StructureDefinition/related-tl}
 </t>
   </si>
   <si>
@@ -1158,7 +1165,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AM45"/>
+  <dimension ref="A1:AM46"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -3753,45 +3760,43 @@
         <v>40</v>
       </c>
     </row>
-    <row r="24" hidden="true">
+    <row r="24">
       <c r="A24" t="s" s="2">
+        <v>150</v>
+      </c>
+      <c r="B24" t="s" s="2">
         <v>179</v>
       </c>
-      <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
-        <v>69</v>
+        <v>40</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F24" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="H24" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="I24" t="s" s="2">
         <v>40</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>70</v>
+        <v>180</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>180</v>
+        <v>151</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>181</v>
-      </c>
-      <c r="M24" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="N24" t="s" s="2">
-        <v>182</v>
-      </c>
+        <v>152</v>
+      </c>
+      <c r="M24" s="2"/>
+      <c r="N24" s="2"/>
       <c r="O24" t="s" s="2">
         <v>40</v>
       </c>
@@ -3839,7 +3844,7 @@
         <v>40</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>183</v>
+        <v>153</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>41</v>
@@ -3848,7 +3853,7 @@
         <v>42</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>40</v>
+        <v>158</v>
       </c>
       <c r="AI24" t="s" s="2">
         <v>78</v>
@@ -3857,7 +3862,7 @@
         <v>40</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>149</v>
+        <v>40</v>
       </c>
       <c r="AL24" t="s" s="2">
         <v>40</v>
@@ -3866,13 +3871,13 @@
         <v>40</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
-        <v>40</v>
+        <v>69</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
@@ -3882,27 +3887,29 @@
         <v>42</v>
       </c>
       <c r="G25" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H25" t="s" s="2">
         <v>51</v>
       </c>
-      <c r="H25" t="s" s="2">
-        <v>40</v>
-      </c>
       <c r="I25" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>185</v>
+        <v>70</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>188</v>
-      </c>
-      <c r="N25" s="2"/>
+        <v>73</v>
+      </c>
+      <c r="N25" t="s" s="2">
+        <v>184</v>
+      </c>
       <c r="O25" t="s" s="2">
         <v>40</v>
       </c>
@@ -3950,7 +3957,7 @@
         <v>40</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>41</v>
@@ -3962,24 +3969,24 @@
         <v>40</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>62</v>
+        <v>78</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>189</v>
+        <v>40</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>190</v>
+        <v>149</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>191</v>
+        <v>40</v>
       </c>
       <c r="AM25" t="s" s="2">
         <v>40</v>
       </c>
     </row>
-    <row r="26" hidden="true">
+    <row r="26">
       <c r="A26" t="s" s="2">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -3993,7 +4000,7 @@
         <v>42</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="H26" t="s" s="2">
         <v>40</v>
@@ -4002,18 +4009,18 @@
         <v>51</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>157</v>
-      </c>
-      <c r="M26" s="2"/>
-      <c r="N26" t="s" s="2">
-        <v>195</v>
-      </c>
+        <v>189</v>
+      </c>
+      <c r="M26" t="s" s="2">
+        <v>190</v>
+      </c>
+      <c r="N26" s="2"/>
       <c r="O26" t="s" s="2">
         <v>40</v>
       </c>
@@ -4061,7 +4068,7 @@
         <v>40</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>41</v>
@@ -4076,13 +4083,13 @@
         <v>62</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>159</v>
+        <v>191</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>40</v>
+        <v>193</v>
       </c>
       <c r="AM26" t="s" s="2">
         <v>40</v>
@@ -4090,7 +4097,7 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -4101,7 +4108,7 @@
         <v>41</v>
       </c>
       <c r="F27" t="s" s="2">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G27" t="s" s="2">
         <v>40</v>
@@ -4113,17 +4120,17 @@
         <v>51</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>200</v>
+        <v>157</v>
       </c>
       <c r="M27" s="2"/>
       <c r="N27" t="s" s="2">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="O27" t="s" s="2">
         <v>40</v>
@@ -4172,7 +4179,7 @@
         <v>40</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>41</v>
@@ -4187,10 +4194,10 @@
         <v>62</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>202</v>
+        <v>159</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="AL27" t="s" s="2">
         <v>40</v>
@@ -4199,9 +4206,9 @@
         <v>40</v>
       </c>
     </row>
-    <row r="28">
+    <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -4209,33 +4216,33 @@
       </c>
       <c r="D28" s="2"/>
       <c r="E28" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="F28" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="H28" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="I28" t="s" s="2">
         <v>51</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>126</v>
+        <v>200</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>206</v>
-      </c>
-      <c r="M28" t="s" s="2">
-        <v>207</v>
-      </c>
-      <c r="N28" s="2"/>
+        <v>202</v>
+      </c>
+      <c r="M28" s="2"/>
+      <c r="N28" t="s" s="2">
+        <v>203</v>
+      </c>
       <c r="O28" t="s" s="2">
         <v>40</v>
       </c>
@@ -4259,13 +4266,13 @@
         <v>40</v>
       </c>
       <c r="W28" t="s" s="2">
-        <v>208</v>
+        <v>40</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>209</v>
+        <v>40</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>210</v>
+        <v>40</v>
       </c>
       <c r="Z28" t="s" s="2">
         <v>40</v>
@@ -4283,13 +4290,13 @@
         <v>40</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AH28" t="s" s="2">
         <v>40</v>
@@ -4298,21 +4305,21 @@
         <v>62</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>213</v>
+        <v>40</v>
       </c>
       <c r="AM28" t="s" s="2">
         <v>40</v>
       </c>
     </row>
-    <row r="29" hidden="true">
+    <row r="29">
       <c r="A29" t="s" s="2">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -4320,31 +4327,31 @@
       </c>
       <c r="D29" s="2"/>
       <c r="E29" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="F29" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="H29" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="I29" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>215</v>
+        <v>126</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>216</v>
+        <v>207</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>217</v>
+        <v>208</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>218</v>
+        <v>209</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" t="s" s="2">
@@ -4370,13 +4377,13 @@
         <v>40</v>
       </c>
       <c r="W29" t="s" s="2">
-        <v>116</v>
+        <v>210</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="Z29" t="s" s="2">
         <v>40</v>
@@ -4394,13 +4401,13 @@
         <v>40</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AH29" t="s" s="2">
         <v>40</v>
@@ -4409,21 +4416,21 @@
         <v>62</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>40</v>
+        <v>215</v>
       </c>
       <c r="AM29" t="s" s="2">
         <v>40</v>
       </c>
     </row>
-    <row r="30">
+    <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -4434,27 +4441,29 @@
         <v>41</v>
       </c>
       <c r="F30" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="H30" t="s" s="2">
         <v>40</v>
       </c>
       <c r="I30" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>225</v>
-      </c>
-      <c r="M30" s="2"/>
+        <v>219</v>
+      </c>
+      <c r="M30" t="s" s="2">
+        <v>220</v>
+      </c>
       <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
         <v>40</v>
@@ -4479,13 +4488,13 @@
         <v>40</v>
       </c>
       <c r="W30" t="s" s="2">
-        <v>130</v>
+        <v>116</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="Z30" t="s" s="2">
         <v>40</v>
@@ -4503,13 +4512,13 @@
         <v>40</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AH30" t="s" s="2">
         <v>40</v>
@@ -4518,21 +4527,21 @@
         <v>62</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>40</v>
+        <v>223</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>229</v>
+        <v>40</v>
       </c>
       <c r="AM30" t="s" s="2">
         <v>40</v>
       </c>
     </row>
-    <row r="31" hidden="true">
+    <row r="31">
       <c r="A31" t="s" s="2">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -4540,13 +4549,13 @@
       </c>
       <c r="D31" s="2"/>
       <c r="E31" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="F31" t="s" s="2">
         <v>50</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="H31" t="s" s="2">
         <v>40</v>
@@ -4555,17 +4564,15 @@
         <v>51</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>231</v>
+        <v>217</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>233</v>
-      </c>
-      <c r="M31" t="s" s="2">
-        <v>234</v>
-      </c>
+        <v>227</v>
+      </c>
+      <c r="M31" s="2"/>
       <c r="N31" s="2"/>
       <c r="O31" t="s" s="2">
         <v>40</v>
@@ -4590,32 +4597,34 @@
         <v>40</v>
       </c>
       <c r="W31" t="s" s="2">
-        <v>116</v>
+        <v>130</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="Y31" t="s" s="2">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="Z31" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AA31" t="s" s="2">
-        <v>174</v>
-      </c>
-      <c r="AB31" s="2"/>
+        <v>40</v>
+      </c>
+      <c r="AB31" t="s" s="2">
+        <v>40</v>
+      </c>
       <c r="AC31" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AD31" t="s" s="2">
-        <v>175</v>
+        <v>40</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>50</v>
@@ -4627,37 +4636,35 @@
         <v>62</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>237</v>
+        <v>40</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>238</v>
+        <v>230</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="AM31" t="s" s="2">
         <v>40</v>
       </c>
     </row>
-    <row r="32">
+    <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>230</v>
-      </c>
-      <c r="B32" t="s" s="2">
-        <v>240</v>
-      </c>
+        <v>232</v>
+      </c>
+      <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
         <v>40</v>
       </c>
       <c r="D32" s="2"/>
       <c r="E32" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="F32" t="s" s="2">
         <v>50</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="H32" t="s" s="2">
         <v>40</v>
@@ -4666,16 +4673,16 @@
         <v>51</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>215</v>
+        <v>233</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" t="s" s="2">
@@ -4704,28 +4711,26 @@
         <v>116</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="Z32" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AA32" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB32" t="s" s="2">
-        <v>40</v>
-      </c>
+        <v>174</v>
+      </c>
+      <c r="AB32" s="2"/>
       <c r="AC32" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AD32" t="s" s="2">
-        <v>40</v>
+        <v>175</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>50</v>
@@ -4740,13 +4745,13 @@
         <v>62</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="AM32" t="s" s="2">
         <v>40</v>
@@ -4754,10 +4759,10 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="C33" t="s" s="2">
         <v>40</v>
@@ -4779,16 +4784,16 @@
         <v>51</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>242</v>
+        <v>217</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
@@ -4814,13 +4819,13 @@
         <v>40</v>
       </c>
       <c r="W33" t="s" s="2">
-        <v>40</v>
+        <v>116</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>40</v>
+        <v>237</v>
       </c>
       <c r="Y33" t="s" s="2">
-        <v>40</v>
+        <v>238</v>
       </c>
       <c r="Z33" t="s" s="2">
         <v>40</v>
@@ -4838,7 +4843,7 @@
         <v>40</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>50</v>
@@ -4853,13 +4858,13 @@
         <v>62</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="AM33" t="s" s="2">
         <v>40</v>
@@ -4867,15 +4872,17 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
+        <v>232</v>
+      </c>
+      <c r="B34" t="s" s="2">
         <v>243</v>
       </c>
-      <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
         <v>40</v>
       </c>
       <c r="D34" s="2"/>
       <c r="E34" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="F34" t="s" s="2">
         <v>50</v>
@@ -4893,12 +4900,14 @@
         <v>244</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>245</v>
+        <v>234</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>246</v>
-      </c>
-      <c r="M34" s="2"/>
+        <v>235</v>
+      </c>
+      <c r="M34" t="s" s="2">
+        <v>236</v>
+      </c>
       <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
         <v>40</v>
@@ -4947,7 +4956,7 @@
         <v>40</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>243</v>
+        <v>232</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>50</v>
@@ -4962,21 +4971,21 @@
         <v>62</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>247</v>
+        <v>239</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>248</v>
+        <v>240</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>249</v>
+        <v>241</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>250</v>
+        <v>40</v>
       </c>
     </row>
-    <row r="35" hidden="true">
+    <row r="35">
       <c r="A35" t="s" s="2">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -4984,13 +4993,13 @@
       </c>
       <c r="D35" s="2"/>
       <c r="E35" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="F35" t="s" s="2">
         <v>50</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="H35" t="s" s="2">
         <v>40</v>
@@ -4999,13 +5008,13 @@
         <v>51</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="M35" s="2"/>
       <c r="N35" s="2"/>
@@ -5056,10 +5065,10 @@
         <v>40</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>50</v>
@@ -5071,21 +5080,21 @@
         <v>62</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>40</v>
+        <v>251</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>40</v>
+        <v>252</v>
       </c>
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -5108,17 +5117,15 @@
         <v>51</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>260</v>
-      </c>
-      <c r="M36" t="s" s="2">
-        <v>261</v>
-      </c>
+        <v>256</v>
+      </c>
+      <c r="M36" s="2"/>
       <c r="N36" s="2"/>
       <c r="O36" t="s" s="2">
         <v>40</v>
@@ -5155,17 +5162,19 @@
         <v>40</v>
       </c>
       <c r="AA36" t="s" s="2">
-        <v>174</v>
-      </c>
-      <c r="AB36" s="2"/>
+        <v>40</v>
+      </c>
+      <c r="AB36" t="s" s="2">
+        <v>40</v>
+      </c>
       <c r="AC36" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AD36" t="s" s="2">
-        <v>175</v>
+        <v>40</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>41</v>
@@ -5180,25 +5189,23 @@
         <v>62</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>264</v>
+        <v>40</v>
       </c>
       <c r="AM36" t="s" s="2">
         <v>40</v>
       </c>
     </row>
-    <row r="37">
+    <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>257</v>
-      </c>
-      <c r="B37" t="s" s="2">
-        <v>265</v>
-      </c>
+        <v>259</v>
+      </c>
+      <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
         <v>40</v>
       </c>
@@ -5210,7 +5217,7 @@
         <v>50</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="H37" t="s" s="2">
         <v>40</v>
@@ -5219,16 +5226,16 @@
         <v>51</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
@@ -5266,19 +5273,17 @@
         <v>40</v>
       </c>
       <c r="AA37" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB37" t="s" s="2">
-        <v>40</v>
-      </c>
+        <v>174</v>
+      </c>
+      <c r="AB37" s="2"/>
       <c r="AC37" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AD37" t="s" s="2">
-        <v>40</v>
+        <v>175</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>41</v>
@@ -5293,13 +5298,13 @@
         <v>62</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="AM37" t="s" s="2">
         <v>40</v>
@@ -5307,7 +5312,7 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="B38" t="s" s="2">
         <v>267</v>
@@ -5335,13 +5340,13 @@
         <v>268</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" t="s" s="2">
@@ -5391,7 +5396,7 @@
         <v>40</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>41</v>
@@ -5406,13 +5411,13 @@
         <v>62</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="AM38" t="s" s="2">
         <v>40</v>
@@ -5420,9 +5425,11 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
+        <v>259</v>
+      </c>
+      <c r="B39" t="s" s="2">
         <v>269</v>
       </c>
-      <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
         <v>40</v>
       </c>
@@ -5443,15 +5450,17 @@
         <v>51</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>270</v>
+        <v>261</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>271</v>
-      </c>
-      <c r="M39" s="2"/>
+        <v>262</v>
+      </c>
+      <c r="M39" t="s" s="2">
+        <v>263</v>
+      </c>
       <c r="N39" s="2"/>
       <c r="O39" t="s" s="2">
         <v>40</v>
@@ -5500,7 +5509,7 @@
         <v>40</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>269</v>
+        <v>259</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>41</v>
@@ -5515,13 +5524,13 @@
         <v>62</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>40</v>
+        <v>264</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>272</v>
+        <v>265</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="AM39" t="s" s="2">
         <v>40</v>
@@ -5529,7 +5538,7 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -5549,16 +5558,16 @@
         <v>40</v>
       </c>
       <c r="I40" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>275</v>
+        <v>268</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="M40" s="2"/>
       <c r="N40" s="2"/>
@@ -5609,7 +5618,7 @@
         <v>40</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>41</v>
@@ -5627,18 +5636,18 @@
         <v>40</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="AM40" t="s" s="2">
         <v>40</v>
       </c>
     </row>
-    <row r="41" hidden="true">
+    <row r="41">
       <c r="A41" t="s" s="2">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -5649,10 +5658,10 @@
         <v>41</v>
       </c>
       <c r="F41" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="H41" t="s" s="2">
         <v>40</v>
@@ -5661,17 +5670,15 @@
         <v>40</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>283</v>
-      </c>
-      <c r="M41" t="s" s="2">
-        <v>284</v>
-      </c>
+        <v>279</v>
+      </c>
+      <c r="M41" s="2"/>
       <c r="N41" s="2"/>
       <c r="O41" t="s" s="2">
         <v>40</v>
@@ -5720,13 +5727,13 @@
         <v>40</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG41" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AH41" t="s" s="2">
         <v>40</v>
@@ -5738,18 +5745,18 @@
         <v>40</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>40</v>
+        <v>281</v>
       </c>
       <c r="AM41" t="s" s="2">
         <v>40</v>
       </c>
     </row>
-    <row r="42">
+    <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -5763,7 +5770,7 @@
         <v>42</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="H42" t="s" s="2">
         <v>40</v>
@@ -5772,16 +5779,16 @@
         <v>40</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>215</v>
+        <v>283</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
@@ -5807,13 +5814,13 @@
         <v>40</v>
       </c>
       <c r="W42" t="s" s="2">
-        <v>116</v>
+        <v>40</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>290</v>
+        <v>40</v>
       </c>
       <c r="Y42" t="s" s="2">
-        <v>291</v>
+        <v>40</v>
       </c>
       <c r="Z42" t="s" s="2">
         <v>40</v>
@@ -5831,7 +5838,7 @@
         <v>40</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>41</v>
@@ -5846,13 +5853,13 @@
         <v>62</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>292</v>
+        <v>40</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>294</v>
+        <v>40</v>
       </c>
       <c r="AM42" t="s" s="2">
         <v>40</v>
@@ -5860,7 +5867,7 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -5883,16 +5890,16 @@
         <v>40</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>296</v>
+        <v>217</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>297</v>
+        <v>289</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>298</v>
+        <v>290</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>299</v>
+        <v>291</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
@@ -5918,13 +5925,13 @@
         <v>40</v>
       </c>
       <c r="W43" t="s" s="2">
-        <v>40</v>
+        <v>116</v>
       </c>
       <c r="X43" t="s" s="2">
-        <v>40</v>
+        <v>292</v>
       </c>
       <c r="Y43" t="s" s="2">
-        <v>40</v>
+        <v>293</v>
       </c>
       <c r="Z43" t="s" s="2">
         <v>40</v>
@@ -5942,7 +5949,7 @@
         <v>40</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>41</v>
@@ -5957,21 +5964,21 @@
         <v>62</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="AM43" t="s" s="2">
         <v>40</v>
       </c>
     </row>
-    <row r="44" hidden="true">
+    <row r="44">
       <c r="A44" t="s" s="2">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -5985,7 +5992,7 @@
         <v>42</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="H44" t="s" s="2">
         <v>40</v>
@@ -5994,15 +6001,17 @@
         <v>40</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>305</v>
-      </c>
-      <c r="M44" s="2"/>
+        <v>300</v>
+      </c>
+      <c r="M44" t="s" s="2">
+        <v>301</v>
+      </c>
       <c r="N44" s="2"/>
       <c r="O44" t="s" s="2">
         <v>40</v>
@@ -6051,7 +6060,7 @@
         <v>40</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>41</v>
@@ -6066,21 +6075,21 @@
         <v>62</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>40</v>
+        <v>296</v>
       </c>
       <c r="AM44" t="s" s="2">
         <v>40</v>
       </c>
     </row>
-    <row r="45">
+    <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -6094,7 +6103,7 @@
         <v>42</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="H45" t="s" s="2">
         <v>40</v>
@@ -6103,17 +6112,15 @@
         <v>40</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>311</v>
-      </c>
-      <c r="M45" t="s" s="2">
-        <v>312</v>
-      </c>
+        <v>307</v>
+      </c>
+      <c r="M45" s="2"/>
       <c r="N45" s="2"/>
       <c r="O45" t="s" s="2">
         <v>40</v>
@@ -6162,7 +6169,7 @@
         <v>40</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>41</v>
@@ -6177,20 +6184,131 @@
         <v>62</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>40</v>
+        <v>308</v>
       </c>
       <c r="AK45" t="s" s="2">
+        <v>309</v>
+      </c>
+      <c r="AL45" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM45" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s" s="2">
+        <v>310</v>
+      </c>
+      <c r="B46" s="2"/>
+      <c r="C46" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D46" s="2"/>
+      <c r="E46" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F46" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="G46" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="H46" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I46" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="J46" t="s" s="2">
+        <v>311</v>
+      </c>
+      <c r="K46" t="s" s="2">
+        <v>312</v>
+      </c>
+      <c r="L46" t="s" s="2">
         <v>313</v>
       </c>
-      <c r="AL45" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AM45" t="s" s="2">
+      <c r="M46" t="s" s="2">
+        <v>314</v>
+      </c>
+      <c r="N46" s="2"/>
+      <c r="O46" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P46" s="2"/>
+      <c r="Q46" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R46" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S46" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T46" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U46" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V46" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W46" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X46" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y46" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z46" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA46" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB46" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC46" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD46" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE46" t="s" s="2">
+        <v>310</v>
+      </c>
+      <c r="AF46" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG46" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AH46" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI46" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="AJ46" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK46" t="s" s="2">
+        <v>315</v>
+      </c>
+      <c r="AL46" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM46" t="s" s="2">
         <v>40</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AM45">
+  <autoFilter ref="A1:AM46">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -6200,7 +6318,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI44">
+  <conditionalFormatting sqref="A2:AI45">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/StructureDefinition-MedRecordUsage.xlsx
+++ b/StructureDefinition-MedRecordUsage.xlsx
@@ -9,13 +9,13 @@
     <sheet name="Elements" r:id="rId3" sheetId="1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AM$46</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AM$51</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1603" uniqueCount="316">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1774" uniqueCount="318">
   <si>
     <t>Path</t>
   </si>
@@ -593,6 +593,12 @@
   <si>
     <t xml:space="preserve">Extension {https://www.hl7belgium.be/fhir/StructureDefinition/related-tl}
 </t>
+  </si>
+  <si>
+    <t>https://www.hl7belgium.be/fhir/StructureDefinition/related-tl</t>
+  </si>
+  <si>
+    <t>Value of extension - must be one of a constrained set of the data types (see [Extensibility](http://hl7.org/fhir/R4/extensibility.html) for a list).</t>
   </si>
   <si>
     <t>MedicationStatement.modifierExtension</t>
@@ -1165,7 +1171,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AM46"/>
+  <dimension ref="A1:AM51"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -3873,43 +3879,39 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>181</v>
+        <v>162</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
-        <v>69</v>
+        <v>40</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F25" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="G25" t="s" s="2">
         <v>40</v>
       </c>
       <c r="H25" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="I25" t="s" s="2">
         <v>40</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>70</v>
+        <v>52</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>182</v>
+        <v>64</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>183</v>
-      </c>
-      <c r="M25" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="N25" t="s" s="2">
-        <v>184</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="M25" s="2"/>
+      <c r="N25" s="2"/>
       <c r="O25" t="s" s="2">
         <v>40</v>
       </c>
@@ -3957,25 +3959,25 @@
         <v>40</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>185</v>
+        <v>66</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AH25" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>78</v>
+        <v>40</v>
       </c>
       <c r="AJ25" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>149</v>
+        <v>67</v>
       </c>
       <c r="AL25" t="s" s="2">
         <v>40</v>
@@ -3984,9 +3986,9 @@
         <v>40</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>186</v>
+        <v>163</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -3997,29 +3999,27 @@
         <v>41</v>
       </c>
       <c r="F26" t="s" s="2">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="H26" t="s" s="2">
         <v>40</v>
       </c>
       <c r="I26" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>187</v>
+        <v>70</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>188</v>
+        <v>151</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>189</v>
-      </c>
-      <c r="M26" t="s" s="2">
-        <v>190</v>
-      </c>
+        <v>152</v>
+      </c>
+      <c r="M26" s="2"/>
       <c r="N26" s="2"/>
       <c r="O26" t="s" s="2">
         <v>40</v>
@@ -4056,19 +4056,19 @@
         <v>40</v>
       </c>
       <c r="AA26" t="s" s="2">
-        <v>40</v>
+        <v>74</v>
       </c>
       <c r="AB26" t="s" s="2">
-        <v>40</v>
+        <v>75</v>
       </c>
       <c r="AC26" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AD26" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>186</v>
+        <v>77</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>41</v>
@@ -4080,16 +4080,16 @@
         <v>40</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>62</v>
+        <v>78</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>191</v>
+        <v>40</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>192</v>
+        <v>40</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>193</v>
+        <v>40</v>
       </c>
       <c r="AM26" t="s" s="2">
         <v>40</v>
@@ -4097,7 +4097,7 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>194</v>
+        <v>164</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -4105,10 +4105,10 @@
       </c>
       <c r="D27" s="2"/>
       <c r="E27" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="F27" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="G27" t="s" s="2">
         <v>40</v>
@@ -4117,27 +4117,27 @@
         <v>40</v>
       </c>
       <c r="I27" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>195</v>
+        <v>92</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>196</v>
+        <v>165</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>157</v>
-      </c>
-      <c r="M27" s="2"/>
-      <c r="N27" t="s" s="2">
-        <v>197</v>
-      </c>
+        <v>166</v>
+      </c>
+      <c r="M27" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
         <v>40</v>
       </c>
       <c r="P27" s="2"/>
       <c r="Q27" t="s" s="2">
-        <v>40</v>
+        <v>181</v>
       </c>
       <c r="R27" t="s" s="2">
         <v>40</v>
@@ -4179,25 +4179,25 @@
         <v>40</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>194</v>
+        <v>169</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AH27" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>62</v>
+        <v>40</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>159</v>
+        <v>40</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>198</v>
+        <v>149</v>
       </c>
       <c r="AL27" t="s" s="2">
         <v>40</v>
@@ -4208,7 +4208,7 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>199</v>
+        <v>170</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -4219,7 +4219,7 @@
         <v>41</v>
       </c>
       <c r="F28" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="G28" t="s" s="2">
         <v>40</v>
@@ -4228,21 +4228,19 @@
         <v>40</v>
       </c>
       <c r="I28" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>200</v>
+        <v>171</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>201</v>
+        <v>172</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>202</v>
+        <v>182</v>
       </c>
       <c r="M28" s="2"/>
-      <c r="N28" t="s" s="2">
-        <v>203</v>
-      </c>
+      <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
         <v>40</v>
       </c>
@@ -4278,25 +4276,23 @@
         <v>40</v>
       </c>
       <c r="AA28" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB28" t="s" s="2">
-        <v>40</v>
-      </c>
+        <v>174</v>
+      </c>
+      <c r="AB28" s="2"/>
       <c r="AC28" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AD28" t="s" s="2">
-        <v>40</v>
+        <v>175</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>199</v>
+        <v>176</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AH28" t="s" s="2">
         <v>40</v>
@@ -4305,10 +4301,10 @@
         <v>62</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>204</v>
+        <v>40</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>205</v>
+        <v>149</v>
       </c>
       <c r="AL28" t="s" s="2">
         <v>40</v>
@@ -4317,42 +4313,42 @@
         <v>40</v>
       </c>
     </row>
-    <row r="29">
+    <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>206</v>
-      </c>
-      <c r="B29" s="2"/>
+        <v>170</v>
+      </c>
+      <c r="B29" t="s" s="2">
+        <v>177</v>
+      </c>
       <c r="C29" t="s" s="2">
         <v>40</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="F29" t="s" s="2">
         <v>50</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="H29" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="I29" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>126</v>
+        <v>171</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>207</v>
+        <v>172</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>208</v>
-      </c>
-      <c r="M29" t="s" s="2">
-        <v>209</v>
-      </c>
+        <v>182</v>
+      </c>
+      <c r="M29" s="2"/>
       <c r="N29" s="2"/>
       <c r="O29" t="s" s="2">
         <v>40</v>
@@ -4377,13 +4373,13 @@
         <v>40</v>
       </c>
       <c r="W29" t="s" s="2">
-        <v>210</v>
+        <v>40</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>211</v>
+        <v>40</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>212</v>
+        <v>40</v>
       </c>
       <c r="Z29" t="s" s="2">
         <v>40</v>
@@ -4401,10 +4397,10 @@
         <v>40</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>206</v>
+        <v>176</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>50</v>
@@ -4416,13 +4412,13 @@
         <v>62</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>213</v>
+        <v>40</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>214</v>
+        <v>149</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>215</v>
+        <v>40</v>
       </c>
       <c r="AM29" t="s" s="2">
         <v>40</v>
@@ -4430,11 +4426,11 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>216</v>
+        <v>183</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
-        <v>40</v>
+        <v>69</v>
       </c>
       <c r="D30" s="2"/>
       <c r="E30" t="s" s="2">
@@ -4447,24 +4443,26 @@
         <v>40</v>
       </c>
       <c r="H30" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="I30" t="s" s="2">
         <v>40</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>217</v>
+        <v>70</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>218</v>
+        <v>184</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>219</v>
+        <v>185</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>220</v>
-      </c>
-      <c r="N30" s="2"/>
+        <v>73</v>
+      </c>
+      <c r="N30" t="s" s="2">
+        <v>186</v>
+      </c>
       <c r="O30" t="s" s="2">
         <v>40</v>
       </c>
@@ -4488,13 +4486,13 @@
         <v>40</v>
       </c>
       <c r="W30" t="s" s="2">
-        <v>116</v>
+        <v>40</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>221</v>
+        <v>40</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>222</v>
+        <v>40</v>
       </c>
       <c r="Z30" t="s" s="2">
         <v>40</v>
@@ -4512,7 +4510,7 @@
         <v>40</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>216</v>
+        <v>187</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>41</v>
@@ -4524,13 +4522,13 @@
         <v>40</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>62</v>
+        <v>78</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>223</v>
+        <v>40</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>224</v>
+        <v>149</v>
       </c>
       <c r="AL30" t="s" s="2">
         <v>40</v>
@@ -4541,7 +4539,7 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>225</v>
+        <v>188</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -4552,7 +4550,7 @@
         <v>41</v>
       </c>
       <c r="F31" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G31" t="s" s="2">
         <v>51</v>
@@ -4564,15 +4562,17 @@
         <v>51</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>217</v>
+        <v>189</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>226</v>
+        <v>190</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>227</v>
-      </c>
-      <c r="M31" s="2"/>
+        <v>191</v>
+      </c>
+      <c r="M31" t="s" s="2">
+        <v>192</v>
+      </c>
       <c r="N31" s="2"/>
       <c r="O31" t="s" s="2">
         <v>40</v>
@@ -4597,13 +4597,13 @@
         <v>40</v>
       </c>
       <c r="W31" t="s" s="2">
-        <v>130</v>
+        <v>40</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>228</v>
+        <v>40</v>
       </c>
       <c r="Y31" t="s" s="2">
-        <v>229</v>
+        <v>40</v>
       </c>
       <c r="Z31" t="s" s="2">
         <v>40</v>
@@ -4621,13 +4621,13 @@
         <v>40</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>225</v>
+        <v>188</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AH31" t="s" s="2">
         <v>40</v>
@@ -4636,13 +4636,13 @@
         <v>62</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>40</v>
+        <v>193</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>230</v>
+        <v>194</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>231</v>
+        <v>195</v>
       </c>
       <c r="AM31" t="s" s="2">
         <v>40</v>
@@ -4650,7 +4650,7 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>232</v>
+        <v>196</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -4658,10 +4658,10 @@
       </c>
       <c r="D32" s="2"/>
       <c r="E32" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="F32" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="G32" t="s" s="2">
         <v>40</v>
@@ -4673,18 +4673,18 @@
         <v>51</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>233</v>
+        <v>197</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>234</v>
+        <v>198</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>235</v>
-      </c>
-      <c r="M32" t="s" s="2">
-        <v>236</v>
-      </c>
-      <c r="N32" s="2"/>
+        <v>157</v>
+      </c>
+      <c r="M32" s="2"/>
+      <c r="N32" t="s" s="2">
+        <v>199</v>
+      </c>
       <c r="O32" t="s" s="2">
         <v>40</v>
       </c>
@@ -4708,35 +4708,37 @@
         <v>40</v>
       </c>
       <c r="W32" t="s" s="2">
-        <v>116</v>
+        <v>40</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>237</v>
+        <v>40</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>238</v>
+        <v>40</v>
       </c>
       <c r="Z32" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AA32" t="s" s="2">
-        <v>174</v>
-      </c>
-      <c r="AB32" s="2"/>
+        <v>40</v>
+      </c>
+      <c r="AB32" t="s" s="2">
+        <v>40</v>
+      </c>
       <c r="AC32" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AD32" t="s" s="2">
-        <v>175</v>
+        <v>40</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>232</v>
+        <v>196</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AH32" t="s" s="2">
         <v>40</v>
@@ -4745,25 +4747,23 @@
         <v>62</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>239</v>
+        <v>159</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>240</v>
+        <v>200</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>241</v>
+        <v>40</v>
       </c>
       <c r="AM32" t="s" s="2">
         <v>40</v>
       </c>
     </row>
-    <row r="33">
+    <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>232</v>
-      </c>
-      <c r="B33" t="s" s="2">
-        <v>242</v>
-      </c>
+        <v>201</v>
+      </c>
+      <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
         <v>40</v>
       </c>
@@ -4772,10 +4772,10 @@
         <v>41</v>
       </c>
       <c r="F33" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="H33" t="s" s="2">
         <v>40</v>
@@ -4784,18 +4784,18 @@
         <v>51</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>217</v>
+        <v>202</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>234</v>
+        <v>203</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>235</v>
-      </c>
-      <c r="M33" t="s" s="2">
-        <v>236</v>
-      </c>
-      <c r="N33" s="2"/>
+        <v>204</v>
+      </c>
+      <c r="M33" s="2"/>
+      <c r="N33" t="s" s="2">
+        <v>205</v>
+      </c>
       <c r="O33" t="s" s="2">
         <v>40</v>
       </c>
@@ -4819,13 +4819,13 @@
         <v>40</v>
       </c>
       <c r="W33" t="s" s="2">
-        <v>116</v>
+        <v>40</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>237</v>
+        <v>40</v>
       </c>
       <c r="Y33" t="s" s="2">
-        <v>238</v>
+        <v>40</v>
       </c>
       <c r="Z33" t="s" s="2">
         <v>40</v>
@@ -4843,13 +4843,13 @@
         <v>40</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>232</v>
+        <v>201</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="AG33" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AH33" t="s" s="2">
         <v>40</v>
@@ -4858,13 +4858,13 @@
         <v>62</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>239</v>
+        <v>206</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>240</v>
+        <v>207</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>241</v>
+        <v>40</v>
       </c>
       <c r="AM33" t="s" s="2">
         <v>40</v>
@@ -4872,17 +4872,15 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>232</v>
-      </c>
-      <c r="B34" t="s" s="2">
-        <v>243</v>
-      </c>
+        <v>208</v>
+      </c>
+      <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
         <v>40</v>
       </c>
       <c r="D34" s="2"/>
       <c r="E34" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="F34" t="s" s="2">
         <v>50</v>
@@ -4891,22 +4889,22 @@
         <v>51</v>
       </c>
       <c r="H34" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="I34" t="s" s="2">
         <v>51</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>244</v>
+        <v>126</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>234</v>
+        <v>209</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>235</v>
+        <v>210</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>236</v>
+        <v>211</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
@@ -4932,13 +4930,13 @@
         <v>40</v>
       </c>
       <c r="W34" t="s" s="2">
-        <v>40</v>
+        <v>212</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>40</v>
+        <v>213</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>40</v>
+        <v>214</v>
       </c>
       <c r="Z34" t="s" s="2">
         <v>40</v>
@@ -4956,7 +4954,7 @@
         <v>40</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>232</v>
+        <v>208</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>50</v>
@@ -4971,21 +4969,21 @@
         <v>62</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>239</v>
+        <v>215</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>240</v>
+        <v>216</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>241</v>
+        <v>217</v>
       </c>
       <c r="AM34" t="s" s="2">
         <v>40</v>
       </c>
     </row>
-    <row r="35">
+    <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>245</v>
+        <v>218</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -4993,30 +4991,32 @@
       </c>
       <c r="D35" s="2"/>
       <c r="E35" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="F35" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="H35" t="s" s="2">
         <v>40</v>
       </c>
       <c r="I35" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>246</v>
+        <v>219</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>247</v>
+        <v>220</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>248</v>
-      </c>
-      <c r="M35" s="2"/>
+        <v>221</v>
+      </c>
+      <c r="M35" t="s" s="2">
+        <v>222</v>
+      </c>
       <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
         <v>40</v>
@@ -5041,13 +5041,13 @@
         <v>40</v>
       </c>
       <c r="W35" t="s" s="2">
-        <v>40</v>
+        <v>116</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>40</v>
+        <v>223</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>40</v>
+        <v>224</v>
       </c>
       <c r="Z35" t="s" s="2">
         <v>40</v>
@@ -5065,13 +5065,13 @@
         <v>40</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>245</v>
+        <v>218</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AH35" t="s" s="2">
         <v>40</v>
@@ -5080,21 +5080,21 @@
         <v>62</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>249</v>
+        <v>225</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>250</v>
+        <v>226</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>251</v>
+        <v>40</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>252</v>
+        <v>40</v>
       </c>
     </row>
-    <row r="36" hidden="true">
+    <row r="36">
       <c r="A36" t="s" s="2">
-        <v>253</v>
+        <v>227</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -5108,7 +5108,7 @@
         <v>50</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="H36" t="s" s="2">
         <v>40</v>
@@ -5117,13 +5117,13 @@
         <v>51</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>254</v>
+        <v>219</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>255</v>
+        <v>228</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>256</v>
+        <v>229</v>
       </c>
       <c r="M36" s="2"/>
       <c r="N36" s="2"/>
@@ -5150,13 +5150,13 @@
         <v>40</v>
       </c>
       <c r="W36" t="s" s="2">
-        <v>40</v>
+        <v>130</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>40</v>
+        <v>230</v>
       </c>
       <c r="Y36" t="s" s="2">
-        <v>40</v>
+        <v>231</v>
       </c>
       <c r="Z36" t="s" s="2">
         <v>40</v>
@@ -5174,7 +5174,7 @@
         <v>40</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>253</v>
+        <v>227</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>41</v>
@@ -5189,13 +5189,13 @@
         <v>62</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>257</v>
+        <v>40</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>258</v>
+        <v>232</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>40</v>
+        <v>233</v>
       </c>
       <c r="AM36" t="s" s="2">
         <v>40</v>
@@ -5203,7 +5203,7 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>259</v>
+        <v>234</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -5211,7 +5211,7 @@
       </c>
       <c r="D37" s="2"/>
       <c r="E37" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="F37" t="s" s="2">
         <v>50</v>
@@ -5226,16 +5226,16 @@
         <v>51</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>260</v>
+        <v>235</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>261</v>
+        <v>236</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>262</v>
+        <v>237</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>263</v>
+        <v>238</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
@@ -5261,13 +5261,13 @@
         <v>40</v>
       </c>
       <c r="W37" t="s" s="2">
-        <v>40</v>
+        <v>116</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>40</v>
+        <v>239</v>
       </c>
       <c r="Y37" t="s" s="2">
-        <v>40</v>
+        <v>240</v>
       </c>
       <c r="Z37" t="s" s="2">
         <v>40</v>
@@ -5283,10 +5283,10 @@
         <v>175</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>259</v>
+        <v>234</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>50</v>
@@ -5298,13 +5298,13 @@
         <v>62</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>264</v>
+        <v>241</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>265</v>
+        <v>242</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>266</v>
+        <v>243</v>
       </c>
       <c r="AM37" t="s" s="2">
         <v>40</v>
@@ -5312,10 +5312,10 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>259</v>
+        <v>234</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>267</v>
+        <v>244</v>
       </c>
       <c r="C38" t="s" s="2">
         <v>40</v>
@@ -5337,16 +5337,16 @@
         <v>51</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>268</v>
+        <v>219</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>261</v>
+        <v>236</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>262</v>
+        <v>237</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>263</v>
+        <v>238</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" t="s" s="2">
@@ -5372,13 +5372,13 @@
         <v>40</v>
       </c>
       <c r="W38" t="s" s="2">
-        <v>40</v>
+        <v>116</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>40</v>
+        <v>239</v>
       </c>
       <c r="Y38" t="s" s="2">
-        <v>40</v>
+        <v>240</v>
       </c>
       <c r="Z38" t="s" s="2">
         <v>40</v>
@@ -5396,10 +5396,10 @@
         <v>40</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>259</v>
+        <v>234</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>50</v>
@@ -5411,13 +5411,13 @@
         <v>62</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>264</v>
+        <v>241</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>265</v>
+        <v>242</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>266</v>
+        <v>243</v>
       </c>
       <c r="AM38" t="s" s="2">
         <v>40</v>
@@ -5425,10 +5425,10 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>259</v>
+        <v>234</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>269</v>
+        <v>245</v>
       </c>
       <c r="C39" t="s" s="2">
         <v>40</v>
@@ -5450,16 +5450,16 @@
         <v>51</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>270</v>
+        <v>246</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>261</v>
+        <v>236</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>262</v>
+        <v>237</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>263</v>
+        <v>238</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" t="s" s="2">
@@ -5509,10 +5509,10 @@
         <v>40</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>259</v>
+        <v>234</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>50</v>
@@ -5524,13 +5524,13 @@
         <v>62</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>264</v>
+        <v>241</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>265</v>
+        <v>242</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>266</v>
+        <v>243</v>
       </c>
       <c r="AM39" t="s" s="2">
         <v>40</v>
@@ -5538,7 +5538,7 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>271</v>
+        <v>247</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -5546,7 +5546,7 @@
       </c>
       <c r="D40" s="2"/>
       <c r="E40" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="F40" t="s" s="2">
         <v>50</v>
@@ -5561,13 +5561,13 @@
         <v>51</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>268</v>
+        <v>248</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>272</v>
+        <v>249</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>273</v>
+        <v>250</v>
       </c>
       <c r="M40" s="2"/>
       <c r="N40" s="2"/>
@@ -5618,10 +5618,10 @@
         <v>40</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>271</v>
+        <v>247</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>50</v>
@@ -5633,21 +5633,21 @@
         <v>62</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>40</v>
+        <v>251</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>274</v>
+        <v>252</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>275</v>
+        <v>253</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>40</v>
+        <v>254</v>
       </c>
     </row>
-    <row r="41">
+    <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>276</v>
+        <v>255</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -5661,22 +5661,22 @@
         <v>50</v>
       </c>
       <c r="G41" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H41" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I41" t="s" s="2">
         <v>51</v>
       </c>
-      <c r="H41" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I41" t="s" s="2">
-        <v>40</v>
-      </c>
       <c r="J41" t="s" s="2">
-        <v>277</v>
+        <v>256</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>278</v>
+        <v>257</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>279</v>
+        <v>258</v>
       </c>
       <c r="M41" s="2"/>
       <c r="N41" s="2"/>
@@ -5727,7 +5727,7 @@
         <v>40</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>276</v>
+        <v>255</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>41</v>
@@ -5742,13 +5742,13 @@
         <v>62</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>40</v>
+        <v>259</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>280</v>
+        <v>260</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>281</v>
+        <v>40</v>
       </c>
       <c r="AM41" t="s" s="2">
         <v>40</v>
@@ -5756,7 +5756,7 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>282</v>
+        <v>261</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -5767,7 +5767,7 @@
         <v>41</v>
       </c>
       <c r="F42" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="G42" t="s" s="2">
         <v>40</v>
@@ -5776,19 +5776,19 @@
         <v>40</v>
       </c>
       <c r="I42" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>283</v>
+        <v>262</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>284</v>
+        <v>263</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>285</v>
+        <v>264</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>286</v>
+        <v>265</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
@@ -5826,25 +5826,23 @@
         <v>40</v>
       </c>
       <c r="AA42" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB42" t="s" s="2">
-        <v>40</v>
-      </c>
+        <v>174</v>
+      </c>
+      <c r="AB42" s="2"/>
       <c r="AC42" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AD42" t="s" s="2">
-        <v>40</v>
+        <v>175</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>282</v>
+        <v>261</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG42" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AH42" t="s" s="2">
         <v>40</v>
@@ -5853,13 +5851,13 @@
         <v>62</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>40</v>
+        <v>266</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>287</v>
+        <v>267</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>40</v>
+        <v>268</v>
       </c>
       <c r="AM42" t="s" s="2">
         <v>40</v>
@@ -5867,9 +5865,11 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>288</v>
-      </c>
-      <c r="B43" s="2"/>
+        <v>261</v>
+      </c>
+      <c r="B43" t="s" s="2">
+        <v>269</v>
+      </c>
       <c r="C43" t="s" s="2">
         <v>40</v>
       </c>
@@ -5878,7 +5878,7 @@
         <v>41</v>
       </c>
       <c r="F43" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="G43" t="s" s="2">
         <v>51</v>
@@ -5887,19 +5887,19 @@
         <v>40</v>
       </c>
       <c r="I43" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>217</v>
+        <v>270</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>289</v>
+        <v>263</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>290</v>
+        <v>264</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>291</v>
+        <v>265</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
@@ -5925,13 +5925,13 @@
         <v>40</v>
       </c>
       <c r="W43" t="s" s="2">
-        <v>116</v>
+        <v>40</v>
       </c>
       <c r="X43" t="s" s="2">
-        <v>292</v>
+        <v>40</v>
       </c>
       <c r="Y43" t="s" s="2">
-        <v>293</v>
+        <v>40</v>
       </c>
       <c r="Z43" t="s" s="2">
         <v>40</v>
@@ -5949,13 +5949,13 @@
         <v>40</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>288</v>
+        <v>261</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG43" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AH43" t="s" s="2">
         <v>40</v>
@@ -5964,13 +5964,13 @@
         <v>62</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>294</v>
+        <v>266</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>295</v>
+        <v>267</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>296</v>
+        <v>268</v>
       </c>
       <c r="AM43" t="s" s="2">
         <v>40</v>
@@ -5978,9 +5978,11 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>297</v>
-      </c>
-      <c r="B44" s="2"/>
+        <v>261</v>
+      </c>
+      <c r="B44" t="s" s="2">
+        <v>271</v>
+      </c>
       <c r="C44" t="s" s="2">
         <v>40</v>
       </c>
@@ -5989,7 +5991,7 @@
         <v>41</v>
       </c>
       <c r="F44" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="G44" t="s" s="2">
         <v>51</v>
@@ -5998,19 +6000,19 @@
         <v>40</v>
       </c>
       <c r="I44" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>298</v>
+        <v>272</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>299</v>
+        <v>263</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>300</v>
+        <v>264</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>301</v>
+        <v>265</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" t="s" s="2">
@@ -6060,13 +6062,13 @@
         <v>40</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>297</v>
+        <v>261</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG44" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AH44" t="s" s="2">
         <v>40</v>
@@ -6075,21 +6077,21 @@
         <v>62</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>302</v>
+        <v>266</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>303</v>
+        <v>267</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>296</v>
+        <v>268</v>
       </c>
       <c r="AM44" t="s" s="2">
         <v>40</v>
       </c>
     </row>
-    <row r="45" hidden="true">
+    <row r="45">
       <c r="A45" t="s" s="2">
-        <v>304</v>
+        <v>273</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -6100,25 +6102,25 @@
         <v>41</v>
       </c>
       <c r="F45" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="H45" t="s" s="2">
         <v>40</v>
       </c>
       <c r="I45" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>305</v>
+        <v>270</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>306</v>
+        <v>274</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>307</v>
+        <v>275</v>
       </c>
       <c r="M45" s="2"/>
       <c r="N45" s="2"/>
@@ -6169,13 +6171,13 @@
         <v>40</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>304</v>
+        <v>273</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG45" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AH45" t="s" s="2">
         <v>40</v>
@@ -6184,13 +6186,13 @@
         <v>62</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>308</v>
+        <v>40</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>309</v>
+        <v>276</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>40</v>
+        <v>277</v>
       </c>
       <c r="AM45" t="s" s="2">
         <v>40</v>
@@ -6198,7 +6200,7 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>310</v>
+        <v>278</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -6209,7 +6211,7 @@
         <v>41</v>
       </c>
       <c r="F46" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="G46" t="s" s="2">
         <v>51</v>
@@ -6221,17 +6223,15 @@
         <v>40</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>311</v>
+        <v>279</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>312</v>
+        <v>280</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>313</v>
-      </c>
-      <c r="M46" t="s" s="2">
-        <v>314</v>
-      </c>
+        <v>281</v>
+      </c>
+      <c r="M46" s="2"/>
       <c r="N46" s="2"/>
       <c r="O46" t="s" s="2">
         <v>40</v>
@@ -6280,13 +6280,13 @@
         <v>40</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>310</v>
+        <v>278</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG46" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AH46" t="s" s="2">
         <v>40</v>
@@ -6298,17 +6298,570 @@
         <v>40</v>
       </c>
       <c r="AK46" t="s" s="2">
+        <v>282</v>
+      </c>
+      <c r="AL46" t="s" s="2">
+        <v>283</v>
+      </c>
+      <c r="AM46" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="47" hidden="true">
+      <c r="A47" t="s" s="2">
+        <v>284</v>
+      </c>
+      <c r="B47" s="2"/>
+      <c r="C47" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D47" s="2"/>
+      <c r="E47" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F47" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="G47" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H47" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I47" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="J47" t="s" s="2">
+        <v>285</v>
+      </c>
+      <c r="K47" t="s" s="2">
+        <v>286</v>
+      </c>
+      <c r="L47" t="s" s="2">
+        <v>287</v>
+      </c>
+      <c r="M47" t="s" s="2">
+        <v>288</v>
+      </c>
+      <c r="N47" s="2"/>
+      <c r="O47" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P47" s="2"/>
+      <c r="Q47" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R47" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S47" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T47" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U47" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V47" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W47" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X47" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y47" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z47" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA47" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB47" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC47" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD47" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE47" t="s" s="2">
+        <v>284</v>
+      </c>
+      <c r="AF47" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG47" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AH47" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI47" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="AJ47" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK47" t="s" s="2">
+        <v>289</v>
+      </c>
+      <c r="AL47" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM47" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="s" s="2">
+        <v>290</v>
+      </c>
+      <c r="B48" s="2"/>
+      <c r="C48" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D48" s="2"/>
+      <c r="E48" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F48" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="G48" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="H48" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I48" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="J48" t="s" s="2">
+        <v>219</v>
+      </c>
+      <c r="K48" t="s" s="2">
+        <v>291</v>
+      </c>
+      <c r="L48" t="s" s="2">
+        <v>292</v>
+      </c>
+      <c r="M48" t="s" s="2">
+        <v>293</v>
+      </c>
+      <c r="N48" s="2"/>
+      <c r="O48" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P48" s="2"/>
+      <c r="Q48" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R48" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S48" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T48" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U48" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V48" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W48" t="s" s="2">
+        <v>116</v>
+      </c>
+      <c r="X48" t="s" s="2">
+        <v>294</v>
+      </c>
+      <c r="Y48" t="s" s="2">
+        <v>295</v>
+      </c>
+      <c r="Z48" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA48" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB48" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC48" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD48" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE48" t="s" s="2">
+        <v>290</v>
+      </c>
+      <c r="AF48" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG48" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AH48" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI48" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="AJ48" t="s" s="2">
+        <v>296</v>
+      </c>
+      <c r="AK48" t="s" s="2">
+        <v>297</v>
+      </c>
+      <c r="AL48" t="s" s="2">
+        <v>298</v>
+      </c>
+      <c r="AM48" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="s" s="2">
+        <v>299</v>
+      </c>
+      <c r="B49" s="2"/>
+      <c r="C49" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D49" s="2"/>
+      <c r="E49" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F49" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="G49" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="H49" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I49" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="J49" t="s" s="2">
+        <v>300</v>
+      </c>
+      <c r="K49" t="s" s="2">
+        <v>301</v>
+      </c>
+      <c r="L49" t="s" s="2">
+        <v>302</v>
+      </c>
+      <c r="M49" t="s" s="2">
+        <v>303</v>
+      </c>
+      <c r="N49" s="2"/>
+      <c r="O49" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P49" s="2"/>
+      <c r="Q49" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R49" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S49" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T49" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U49" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V49" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W49" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X49" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y49" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z49" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA49" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB49" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC49" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD49" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE49" t="s" s="2">
+        <v>299</v>
+      </c>
+      <c r="AF49" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG49" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AH49" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI49" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="AJ49" t="s" s="2">
+        <v>304</v>
+      </c>
+      <c r="AK49" t="s" s="2">
+        <v>305</v>
+      </c>
+      <c r="AL49" t="s" s="2">
+        <v>298</v>
+      </c>
+      <c r="AM49" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="50" hidden="true">
+      <c r="A50" t="s" s="2">
+        <v>306</v>
+      </c>
+      <c r="B50" s="2"/>
+      <c r="C50" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D50" s="2"/>
+      <c r="E50" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F50" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="G50" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H50" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I50" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="J50" t="s" s="2">
+        <v>307</v>
+      </c>
+      <c r="K50" t="s" s="2">
+        <v>308</v>
+      </c>
+      <c r="L50" t="s" s="2">
+        <v>309</v>
+      </c>
+      <c r="M50" s="2"/>
+      <c r="N50" s="2"/>
+      <c r="O50" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P50" s="2"/>
+      <c r="Q50" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R50" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S50" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T50" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U50" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V50" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W50" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X50" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y50" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z50" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA50" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB50" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC50" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD50" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE50" t="s" s="2">
+        <v>306</v>
+      </c>
+      <c r="AF50" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG50" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AH50" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI50" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="AJ50" t="s" s="2">
+        <v>310</v>
+      </c>
+      <c r="AK50" t="s" s="2">
+        <v>311</v>
+      </c>
+      <c r="AL50" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM50" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="s" s="2">
+        <v>312</v>
+      </c>
+      <c r="B51" s="2"/>
+      <c r="C51" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D51" s="2"/>
+      <c r="E51" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F51" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="G51" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="H51" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I51" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="J51" t="s" s="2">
+        <v>313</v>
+      </c>
+      <c r="K51" t="s" s="2">
+        <v>314</v>
+      </c>
+      <c r="L51" t="s" s="2">
         <v>315</v>
       </c>
-      <c r="AL46" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AM46" t="s" s="2">
+      <c r="M51" t="s" s="2">
+        <v>316</v>
+      </c>
+      <c r="N51" s="2"/>
+      <c r="O51" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P51" s="2"/>
+      <c r="Q51" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R51" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S51" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T51" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U51" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V51" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W51" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X51" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y51" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z51" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA51" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB51" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC51" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD51" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE51" t="s" s="2">
+        <v>312</v>
+      </c>
+      <c r="AF51" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG51" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AH51" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI51" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="AJ51" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK51" t="s" s="2">
+        <v>317</v>
+      </c>
+      <c r="AL51" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM51" t="s" s="2">
         <v>40</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AM46">
+  <autoFilter ref="A1:AM51">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -6318,7 +6871,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI45">
+  <conditionalFormatting sqref="A2:AI50">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/StructureDefinition-MedRecordUsage.xlsx
+++ b/StructureDefinition-MedRecordUsage.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1774" uniqueCount="318">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1774" uniqueCount="320">
   <si>
     <t>Path</t>
   </si>
@@ -593,6 +593,12 @@
   <si>
     <t xml:space="preserve">Extension {https://www.hl7belgium.be/fhir/StructureDefinition/related-tl}
 </t>
+  </si>
+  <si>
+    <t>Based On Extension</t>
+  </si>
+  <si>
+    <t>Extension for connecting several resources to a single Treatment Line</t>
   </si>
   <si>
     <t>https://www.hl7belgium.be/fhir/StructureDefinition/related-tl</t>
@@ -3796,10 +3802,10 @@
         <v>180</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>151</v>
+        <v>181</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>152</v>
+        <v>182</v>
       </c>
       <c r="M24" s="2"/>
       <c r="N24" s="2"/>
@@ -4137,7 +4143,7 @@
       </c>
       <c r="P27" s="2"/>
       <c r="Q27" t="s" s="2">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="R27" t="s" s="2">
         <v>40</v>
@@ -4237,7 +4243,7 @@
         <v>172</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="M28" s="2"/>
       <c r="N28" s="2"/>
@@ -4346,7 +4352,7 @@
         <v>172</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="M29" s="2"/>
       <c r="N29" s="2"/>
@@ -4426,7 +4432,7 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -4452,16 +4458,16 @@
         <v>70</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="M30" t="s" s="2">
         <v>73</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="O30" t="s" s="2">
         <v>40</v>
@@ -4510,7 +4516,7 @@
         <v>40</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>41</v>
@@ -4539,7 +4545,7 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -4562,16 +4568,16 @@
         <v>51</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" t="s" s="2">
@@ -4621,7 +4627,7 @@
         <v>40</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>41</v>
@@ -4636,13 +4642,13 @@
         <v>62</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="AM31" t="s" s="2">
         <v>40</v>
@@ -4650,7 +4656,7 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -4673,17 +4679,17 @@
         <v>51</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="L32" t="s" s="2">
         <v>157</v>
       </c>
       <c r="M32" s="2"/>
       <c r="N32" t="s" s="2">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="O32" t="s" s="2">
         <v>40</v>
@@ -4732,7 +4738,7 @@
         <v>40</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>41</v>
@@ -4750,7 +4756,7 @@
         <v>159</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="AL32" t="s" s="2">
         <v>40</v>
@@ -4761,7 +4767,7 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -4784,17 +4790,17 @@
         <v>51</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="M33" s="2"/>
       <c r="N33" t="s" s="2">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="O33" t="s" s="2">
         <v>40</v>
@@ -4843,7 +4849,7 @@
         <v>40</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>41</v>
@@ -4858,10 +4864,10 @@
         <v>62</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="AL33" t="s" s="2">
         <v>40</v>
@@ -4872,7 +4878,7 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -4898,13 +4904,13 @@
         <v>126</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
@@ -4930,13 +4936,13 @@
         <v>40</v>
       </c>
       <c r="W34" t="s" s="2">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="Z34" t="s" s="2">
         <v>40</v>
@@ -4954,7 +4960,7 @@
         <v>40</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>50</v>
@@ -4969,13 +4975,13 @@
         <v>62</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="AM34" t="s" s="2">
         <v>40</v>
@@ -4983,7 +4989,7 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -5006,16 +5012,16 @@
         <v>40</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
@@ -5044,10 +5050,10 @@
         <v>116</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="Z35" t="s" s="2">
         <v>40</v>
@@ -5065,7 +5071,7 @@
         <v>40</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>41</v>
@@ -5080,10 +5086,10 @@
         <v>62</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="AL35" t="s" s="2">
         <v>40</v>
@@ -5094,7 +5100,7 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -5117,13 +5123,13 @@
         <v>51</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="M36" s="2"/>
       <c r="N36" s="2"/>
@@ -5153,10 +5159,10 @@
         <v>130</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="Y36" t="s" s="2">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="Z36" t="s" s="2">
         <v>40</v>
@@ -5174,7 +5180,7 @@
         <v>40</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>41</v>
@@ -5192,10 +5198,10 @@
         <v>40</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="AM36" t="s" s="2">
         <v>40</v>
@@ -5203,7 +5209,7 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -5226,16 +5232,16 @@
         <v>51</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
@@ -5264,10 +5270,10 @@
         <v>116</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="Y37" t="s" s="2">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="Z37" t="s" s="2">
         <v>40</v>
@@ -5283,7 +5289,7 @@
         <v>175</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>50</v>
@@ -5298,13 +5304,13 @@
         <v>62</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="AM37" t="s" s="2">
         <v>40</v>
@@ -5312,10 +5318,10 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="C38" t="s" s="2">
         <v>40</v>
@@ -5337,16 +5343,16 @@
         <v>51</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" t="s" s="2">
@@ -5375,10 +5381,10 @@
         <v>116</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="Y38" t="s" s="2">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="Z38" t="s" s="2">
         <v>40</v>
@@ -5396,7 +5402,7 @@
         <v>40</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>50</v>
@@ -5411,13 +5417,13 @@
         <v>62</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="AM38" t="s" s="2">
         <v>40</v>
@@ -5425,10 +5431,10 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="C39" t="s" s="2">
         <v>40</v>
@@ -5450,16 +5456,16 @@
         <v>51</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" t="s" s="2">
@@ -5509,7 +5515,7 @@
         <v>40</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>50</v>
@@ -5524,13 +5530,13 @@
         <v>62</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="AM39" t="s" s="2">
         <v>40</v>
@@ -5538,7 +5544,7 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -5561,13 +5567,13 @@
         <v>51</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="M40" s="2"/>
       <c r="N40" s="2"/>
@@ -5618,7 +5624,7 @@
         <v>40</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>50</v>
@@ -5633,21 +5639,21 @@
         <v>62</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>254</v>
+        <v>256</v>
       </c>
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -5670,13 +5676,13 @@
         <v>51</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="M41" s="2"/>
       <c r="N41" s="2"/>
@@ -5727,7 +5733,7 @@
         <v>40</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>41</v>
@@ -5742,10 +5748,10 @@
         <v>62</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="AL41" t="s" s="2">
         <v>40</v>
@@ -5756,7 +5762,7 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -5779,16 +5785,16 @@
         <v>51</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
@@ -5836,7 +5842,7 @@
         <v>175</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>41</v>
@@ -5851,13 +5857,13 @@
         <v>62</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="AM42" t="s" s="2">
         <v>40</v>
@@ -5865,10 +5871,10 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="C43" t="s" s="2">
         <v>40</v>
@@ -5890,16 +5896,16 @@
         <v>51</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
@@ -5949,7 +5955,7 @@
         <v>40</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>41</v>
@@ -5964,13 +5970,13 @@
         <v>62</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="AM43" t="s" s="2">
         <v>40</v>
@@ -5978,10 +5984,10 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="C44" t="s" s="2">
         <v>40</v>
@@ -6003,16 +6009,16 @@
         <v>51</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" t="s" s="2">
@@ -6062,7 +6068,7 @@
         <v>40</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>41</v>
@@ -6077,13 +6083,13 @@
         <v>62</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="AM44" t="s" s="2">
         <v>40</v>
@@ -6091,7 +6097,7 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -6114,13 +6120,13 @@
         <v>51</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="M45" s="2"/>
       <c r="N45" s="2"/>
@@ -6171,7 +6177,7 @@
         <v>40</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>41</v>
@@ -6189,10 +6195,10 @@
         <v>40</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="AM45" t="s" s="2">
         <v>40</v>
@@ -6200,7 +6206,7 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -6223,13 +6229,13 @@
         <v>40</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="M46" s="2"/>
       <c r="N46" s="2"/>
@@ -6280,7 +6286,7 @@
         <v>40</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>41</v>
@@ -6298,10 +6304,10 @@
         <v>40</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="AM46" t="s" s="2">
         <v>40</v>
@@ -6309,7 +6315,7 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -6332,16 +6338,16 @@
         <v>40</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" t="s" s="2">
@@ -6391,7 +6397,7 @@
         <v>40</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>41</v>
@@ -6409,7 +6415,7 @@
         <v>40</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="AL47" t="s" s="2">
         <v>40</v>
@@ -6420,7 +6426,7 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -6443,16 +6449,16 @@
         <v>40</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" t="s" s="2">
@@ -6481,10 +6487,10 @@
         <v>116</v>
       </c>
       <c r="X48" t="s" s="2">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="Y48" t="s" s="2">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="Z48" t="s" s="2">
         <v>40</v>
@@ -6502,7 +6508,7 @@
         <v>40</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>41</v>
@@ -6517,13 +6523,13 @@
         <v>62</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="AM48" t="s" s="2">
         <v>40</v>
@@ -6531,7 +6537,7 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -6554,16 +6560,16 @@
         <v>40</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="N49" s="2"/>
       <c r="O49" t="s" s="2">
@@ -6613,7 +6619,7 @@
         <v>40</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>41</v>
@@ -6628,13 +6634,13 @@
         <v>62</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="AM49" t="s" s="2">
         <v>40</v>
@@ -6642,7 +6648,7 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -6665,13 +6671,13 @@
         <v>40</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="M50" s="2"/>
       <c r="N50" s="2"/>
@@ -6722,7 +6728,7 @@
         <v>40</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>41</v>
@@ -6737,10 +6743,10 @@
         <v>62</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="AL50" t="s" s="2">
         <v>40</v>
@@ -6751,7 +6757,7 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -6774,16 +6780,16 @@
         <v>40</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="N51" s="2"/>
       <c r="O51" t="s" s="2">
@@ -6833,7 +6839,7 @@
         <v>40</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>41</v>
@@ -6851,7 +6857,7 @@
         <v>40</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="AL51" t="s" s="2">
         <v>40</v>

--- a/StructureDefinition-MedRecordUsage.xlsx
+++ b/StructureDefinition-MedRecordUsage.xlsx
@@ -9,13 +9,13 @@
     <sheet name="Elements" r:id="rId3" sheetId="1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AM$51</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AM$40</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1774" uniqueCount="320">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1397" uniqueCount="298">
   <si>
     <t>Path</t>
   </si>
@@ -511,102 +511,20 @@
     <t>treatmentPlan</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {event-basedOn}
+    <t xml:space="preserve">Extension {http://hl7belgium.org/fhir/riziv-medicationrecord/StructureDefinition/treatmentPlan}
 </t>
   </si>
   <si>
-    <t>Fulfills plan, proposal or order</t>
-  </si>
-  <si>
-    <t>A plan, proposal or order that is fulfilled in whole or in part by this event.</t>
+    <t>Based On</t>
+  </si>
+  <si>
+    <t>The Medication Treatment that this resource belongs to or is based on</t>
   </si>
   <si>
     <t xml:space="preserve">ele-1
 </t>
   </si>
   <si>
-    <t>Event.basedOn</t>
-  </si>
-  <si>
-    <t>.outboundRelationship[typeCode=FLFS].target</t>
-  </si>
-  <si>
-    <t>ORC in proximity to EVN segment</t>
-  </si>
-  <si>
-    <t>MedicationStatement.extension.id</t>
-  </si>
-  <si>
-    <t>MedicationStatement.extension.extension</t>
-  </si>
-  <si>
-    <t>MedicationStatement.extension.url</t>
-  </si>
-  <si>
-    <t>identifies the meaning of the extension</t>
-  </si>
-  <si>
-    <t>Source of the definition for the extension code - a logical name or a URL.</t>
-  </si>
-  <si>
-    <t>The definition may point directly to a computable or human-readable definition of the extensibility codes, or it may be a logical URI as declared in some other specification. The definition SHALL be a URI for the Structure Definition defining the extension.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/StructureDefinition/event-basedOn</t>
-  </si>
-  <si>
-    <t>Extension.url</t>
-  </si>
-  <si>
-    <t>MedicationStatement.extension.value[x]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference
-</t>
-  </si>
-  <si>
-    <t>Value of extension</t>
-  </si>
-  <si>
-    <t>Value of extension - must be one of a constrained set of the data types (see [Extensibility](http://hl7.org/fhir/extensibility.html) for a list).</t>
-  </si>
-  <si>
-    <t xml:space="preserve">type:$this}
-</t>
-  </si>
-  <si>
-    <t>closed</t>
-  </si>
-  <si>
-    <t>Extension.value[x]</t>
-  </si>
-  <si>
-    <t>valueReference</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(CarePlan)
-</t>
-  </si>
-  <si>
-    <t>basedOn</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {https://www.hl7belgium.be/fhir/StructureDefinition/related-tl}
-</t>
-  </si>
-  <si>
-    <t>Based On Extension</t>
-  </si>
-  <si>
-    <t>Extension for connecting several resources to a single Treatment Line</t>
-  </si>
-  <si>
-    <t>https://www.hl7belgium.be/fhir/StructureDefinition/related-tl</t>
-  </si>
-  <si>
-    <t>Value of extension - must be one of a constrained set of the data types (see [Extensibility](http://hl7.org/fhir/R4/extensibility.html) for a list).</t>
-  </si>
-  <si>
     <t>MedicationStatement.modifierExtension</t>
   </si>
   <si>
@@ -658,7 +576,13 @@
     <t>Fulfils plan, proposal or order</t>
   </si>
   <si>
+    <t>A plan, proposal or order that is fulfilled in whole or in part by this event.</t>
+  </si>
+  <si>
     <t>Allows tracing of authorization for the event and tracking whether proposals/recommendations were acted upon.</t>
+  </si>
+  <si>
+    <t>Event.basedOn</t>
   </si>
   <si>
     <t>.outboundRelationship[typeCode=FLFS].target[classCode=SBADM or PROC or PCPR or OBS, moodCode=RQO orPLAN or PRP]</t>
@@ -787,6 +711,13 @@
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/medication-codes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">type:$this}
+</t>
+  </si>
+  <si>
+    <t>closed</t>
   </si>
   <si>
     <t>Event.code</t>
@@ -1177,7 +1108,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AM51"/>
+  <dimension ref="A1:AM40"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1186,7 +1117,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="39.8203125" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="38.25" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="27.47265625" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="6.7734375" customWidth="true" bestFit="true" hidden="true"/>
@@ -1224,7 +1155,7 @@
     <col min="36" max="36" width="29.69921875" customWidth="true" bestFit="true"/>
     <col min="37" max="37" width="140.7265625" customWidth="true" bestFit="true"/>
     <col min="38" max="38" width="36.91796875" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="32.0234375" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="28.1484375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -3213,53 +3144,57 @@
         <v>78</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>159</v>
+        <v>40</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>160</v>
+        <v>40</v>
       </c>
       <c r="AL18" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>161</v>
+        <v>40</v>
       </c>
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
-        <v>40</v>
+        <v>69</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F19" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G19" t="s" s="2">
         <v>40</v>
       </c>
       <c r="H19" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="I19" t="s" s="2">
         <v>40</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>52</v>
+        <v>70</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>64</v>
+        <v>160</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>65</v>
-      </c>
-      <c r="M19" s="2"/>
-      <c r="N19" s="2"/>
+        <v>161</v>
+      </c>
+      <c r="M19" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="N19" t="s" s="2">
+        <v>162</v>
+      </c>
       <c r="O19" t="s" s="2">
         <v>40</v>
       </c>
@@ -3307,25 +3242,25 @@
         <v>40</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>66</v>
+        <v>163</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG19" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AH19" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>40</v>
+        <v>78</v>
       </c>
       <c r="AJ19" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>67</v>
+        <v>149</v>
       </c>
       <c r="AL19" t="s" s="2">
         <v>40</v>
@@ -3334,9 +3269,9 @@
         <v>40</v>
       </c>
     </row>
-    <row r="20" hidden="true">
+    <row r="20">
       <c r="A20" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -3347,27 +3282,29 @@
         <v>41</v>
       </c>
       <c r="F20" t="s" s="2">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="H20" t="s" s="2">
         <v>40</v>
       </c>
       <c r="I20" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>70</v>
+        <v>165</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>151</v>
+        <v>166</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>152</v>
-      </c>
-      <c r="M20" s="2"/>
+        <v>167</v>
+      </c>
+      <c r="M20" t="s" s="2">
+        <v>168</v>
+      </c>
       <c r="N20" s="2"/>
       <c r="O20" t="s" s="2">
         <v>40</v>
@@ -3404,19 +3341,19 @@
         <v>40</v>
       </c>
       <c r="AA20" t="s" s="2">
-        <v>74</v>
+        <v>40</v>
       </c>
       <c r="AB20" t="s" s="2">
-        <v>75</v>
+        <v>40</v>
       </c>
       <c r="AC20" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AD20" t="s" s="2">
-        <v>76</v>
+        <v>40</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>77</v>
+        <v>164</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>41</v>
@@ -3428,16 +3365,16 @@
         <v>40</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>78</v>
+        <v>62</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>40</v>
+        <v>169</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>40</v>
+        <v>170</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>40</v>
+        <v>171</v>
       </c>
       <c r="AM20" t="s" s="2">
         <v>40</v>
@@ -3445,7 +3382,7 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>164</v>
+        <v>172</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -3453,10 +3390,10 @@
       </c>
       <c r="D21" s="2"/>
       <c r="E21" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="F21" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G21" t="s" s="2">
         <v>40</v>
@@ -3465,27 +3402,27 @@
         <v>40</v>
       </c>
       <c r="I21" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>92</v>
+        <v>173</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>165</v>
+        <v>174</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>166</v>
-      </c>
-      <c r="M21" t="s" s="2">
-        <v>167</v>
-      </c>
-      <c r="N21" s="2"/>
+        <v>175</v>
+      </c>
+      <c r="M21" s="2"/>
+      <c r="N21" t="s" s="2">
+        <v>176</v>
+      </c>
       <c r="O21" t="s" s="2">
         <v>40</v>
       </c>
       <c r="P21" s="2"/>
       <c r="Q21" t="s" s="2">
-        <v>168</v>
+        <v>40</v>
       </c>
       <c r="R21" t="s" s="2">
         <v>40</v>
@@ -3527,25 +3464,25 @@
         <v>40</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="AG21" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AH21" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>40</v>
+        <v>62</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>40</v>
+        <v>177</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>149</v>
+        <v>178</v>
       </c>
       <c r="AL21" t="s" s="2">
         <v>40</v>
@@ -3556,7 +3493,7 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>170</v>
+        <v>179</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -3564,10 +3501,10 @@
       </c>
       <c r="D22" s="2"/>
       <c r="E22" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="F22" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G22" t="s" s="2">
         <v>40</v>
@@ -3576,19 +3513,21 @@
         <v>40</v>
       </c>
       <c r="I22" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>171</v>
+        <v>180</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>172</v>
+        <v>181</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>173</v>
+        <v>182</v>
       </c>
       <c r="M22" s="2"/>
-      <c r="N22" s="2"/>
+      <c r="N22" t="s" s="2">
+        <v>183</v>
+      </c>
       <c r="O22" t="s" s="2">
         <v>40</v>
       </c>
@@ -3624,23 +3563,25 @@
         <v>40</v>
       </c>
       <c r="AA22" t="s" s="2">
-        <v>174</v>
-      </c>
-      <c r="AB22" s="2"/>
+        <v>40</v>
+      </c>
+      <c r="AB22" t="s" s="2">
+        <v>40</v>
+      </c>
       <c r="AC22" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AD22" t="s" s="2">
-        <v>175</v>
+        <v>40</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AH22" t="s" s="2">
         <v>40</v>
@@ -3649,10 +3590,10 @@
         <v>62</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>40</v>
+        <v>184</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>149</v>
+        <v>185</v>
       </c>
       <c r="AL22" t="s" s="2">
         <v>40</v>
@@ -3661,13 +3602,11 @@
         <v>40</v>
       </c>
     </row>
-    <row r="23" hidden="true">
+    <row r="23">
       <c r="A23" t="s" s="2">
-        <v>170</v>
-      </c>
-      <c r="B23" t="s" s="2">
-        <v>177</v>
-      </c>
+        <v>186</v>
+      </c>
+      <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
         <v>40</v>
       </c>
@@ -3679,24 +3618,26 @@
         <v>50</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="H23" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="I23" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>178</v>
+        <v>126</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>172</v>
+        <v>187</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>173</v>
-      </c>
-      <c r="M23" s="2"/>
+        <v>188</v>
+      </c>
+      <c r="M23" t="s" s="2">
+        <v>189</v>
+      </c>
       <c r="N23" s="2"/>
       <c r="O23" t="s" s="2">
         <v>40</v>
@@ -3721,13 +3662,13 @@
         <v>40</v>
       </c>
       <c r="W23" t="s" s="2">
-        <v>40</v>
+        <v>190</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>40</v>
+        <v>191</v>
       </c>
       <c r="Y23" t="s" s="2">
-        <v>40</v>
+        <v>192</v>
       </c>
       <c r="Z23" t="s" s="2">
         <v>40</v>
@@ -3745,10 +3686,10 @@
         <v>40</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>176</v>
+        <v>186</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>50</v>
@@ -3760,25 +3701,23 @@
         <v>62</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>40</v>
+        <v>193</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>149</v>
+        <v>194</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>40</v>
+        <v>195</v>
       </c>
       <c r="AM23" t="s" s="2">
         <v>40</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="B24" t="s" s="2">
-        <v>179</v>
-      </c>
+        <v>196</v>
+      </c>
+      <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
         <v>40</v>
       </c>
@@ -3787,10 +3726,10 @@
         <v>41</v>
       </c>
       <c r="F24" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="H24" t="s" s="2">
         <v>40</v>
@@ -3799,15 +3738,17 @@
         <v>40</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>180</v>
+        <v>197</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>181</v>
+        <v>198</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>182</v>
-      </c>
-      <c r="M24" s="2"/>
+        <v>199</v>
+      </c>
+      <c r="M24" t="s" s="2">
+        <v>200</v>
+      </c>
       <c r="N24" s="2"/>
       <c r="O24" t="s" s="2">
         <v>40</v>
@@ -3832,13 +3773,13 @@
         <v>40</v>
       </c>
       <c r="W24" t="s" s="2">
-        <v>40</v>
+        <v>116</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>40</v>
+        <v>201</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>40</v>
+        <v>202</v>
       </c>
       <c r="Z24" t="s" s="2">
         <v>40</v>
@@ -3856,7 +3797,7 @@
         <v>40</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>153</v>
+        <v>196</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>41</v>
@@ -3865,16 +3806,16 @@
         <v>42</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>158</v>
+        <v>40</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>78</v>
+        <v>62</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>40</v>
+        <v>203</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>40</v>
+        <v>204</v>
       </c>
       <c r="AL24" t="s" s="2">
         <v>40</v>
@@ -3883,9 +3824,9 @@
         <v>40</v>
       </c>
     </row>
-    <row r="25" hidden="true">
+    <row r="25">
       <c r="A25" t="s" s="2">
-        <v>162</v>
+        <v>205</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -3899,22 +3840,22 @@
         <v>50</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="H25" t="s" s="2">
         <v>40</v>
       </c>
       <c r="I25" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>52</v>
+        <v>197</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>64</v>
+        <v>206</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>65</v>
+        <v>207</v>
       </c>
       <c r="M25" s="2"/>
       <c r="N25" s="2"/>
@@ -3941,13 +3882,13 @@
         <v>40</v>
       </c>
       <c r="W25" t="s" s="2">
-        <v>40</v>
+        <v>130</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>40</v>
+        <v>208</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>40</v>
+        <v>209</v>
       </c>
       <c r="Z25" t="s" s="2">
         <v>40</v>
@@ -3965,7 +3906,7 @@
         <v>40</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>66</v>
+        <v>205</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>41</v>
@@ -3977,16 +3918,16 @@
         <v>40</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>40</v>
+        <v>62</v>
       </c>
       <c r="AJ25" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>67</v>
+        <v>210</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>40</v>
+        <v>211</v>
       </c>
       <c r="AM25" t="s" s="2">
         <v>40</v>
@@ -3994,7 +3935,7 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>163</v>
+        <v>212</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -4002,10 +3943,10 @@
       </c>
       <c r="D26" s="2"/>
       <c r="E26" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="F26" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="G26" t="s" s="2">
         <v>40</v>
@@ -4014,18 +3955,20 @@
         <v>40</v>
       </c>
       <c r="I26" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>70</v>
+        <v>213</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>151</v>
+        <v>214</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>152</v>
-      </c>
-      <c r="M26" s="2"/>
+        <v>215</v>
+      </c>
+      <c r="M26" t="s" s="2">
+        <v>216</v>
+      </c>
       <c r="N26" s="2"/>
       <c r="O26" t="s" s="2">
         <v>40</v>
@@ -4050,92 +3993,92 @@
         <v>40</v>
       </c>
       <c r="W26" t="s" s="2">
-        <v>40</v>
+        <v>116</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>40</v>
+        <v>217</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>40</v>
+        <v>218</v>
       </c>
       <c r="Z26" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AA26" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB26" t="s" s="2">
-        <v>75</v>
-      </c>
+        <v>219</v>
+      </c>
+      <c r="AB26" s="2"/>
       <c r="AC26" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AD26" t="s" s="2">
-        <v>76</v>
+        <v>220</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>77</v>
+        <v>212</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AH26" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>78</v>
+        <v>62</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>40</v>
+        <v>221</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>40</v>
+        <v>222</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>40</v>
+        <v>223</v>
       </c>
       <c r="AM26" t="s" s="2">
         <v>40</v>
       </c>
     </row>
-    <row r="27" hidden="true">
+    <row r="27">
       <c r="A27" t="s" s="2">
-        <v>164</v>
-      </c>
-      <c r="B27" s="2"/>
+        <v>212</v>
+      </c>
+      <c r="B27" t="s" s="2">
+        <v>224</v>
+      </c>
       <c r="C27" t="s" s="2">
         <v>40</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="F27" t="s" s="2">
         <v>50</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="H27" t="s" s="2">
         <v>40</v>
       </c>
       <c r="I27" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>92</v>
+        <v>197</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>165</v>
+        <v>214</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>166</v>
+        <v>215</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>167</v>
+        <v>216</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
@@ -4143,7 +4086,7 @@
       </c>
       <c r="P27" s="2"/>
       <c r="Q27" t="s" s="2">
-        <v>183</v>
+        <v>40</v>
       </c>
       <c r="R27" t="s" s="2">
         <v>40</v>
@@ -4161,13 +4104,13 @@
         <v>40</v>
       </c>
       <c r="W27" t="s" s="2">
-        <v>40</v>
+        <v>116</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>40</v>
+        <v>217</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>40</v>
+        <v>218</v>
       </c>
       <c r="Z27" t="s" s="2">
         <v>40</v>
@@ -4185,7 +4128,7 @@
         <v>40</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>169</v>
+        <v>212</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>50</v>
@@ -4197,26 +4140,28 @@
         <v>40</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>40</v>
+        <v>62</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>40</v>
+        <v>221</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>149</v>
+        <v>222</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>40</v>
+        <v>223</v>
       </c>
       <c r="AM27" t="s" s="2">
         <v>40</v>
       </c>
     </row>
-    <row r="28" hidden="true">
+    <row r="28">
       <c r="A28" t="s" s="2">
-        <v>170</v>
-      </c>
-      <c r="B28" s="2"/>
+        <v>212</v>
+      </c>
+      <c r="B28" t="s" s="2">
+        <v>225</v>
+      </c>
       <c r="C28" t="s" s="2">
         <v>40</v>
       </c>
@@ -4228,24 +4173,26 @@
         <v>50</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="H28" t="s" s="2">
         <v>40</v>
       </c>
       <c r="I28" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>171</v>
+        <v>226</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>172</v>
+        <v>214</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>184</v>
-      </c>
-      <c r="M28" s="2"/>
+        <v>215</v>
+      </c>
+      <c r="M28" t="s" s="2">
+        <v>216</v>
+      </c>
       <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
         <v>40</v>
@@ -4282,20 +4229,22 @@
         <v>40</v>
       </c>
       <c r="AA28" t="s" s="2">
-        <v>174</v>
-      </c>
-      <c r="AB28" s="2"/>
+        <v>40</v>
+      </c>
+      <c r="AB28" t="s" s="2">
+        <v>40</v>
+      </c>
       <c r="AC28" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AD28" t="s" s="2">
-        <v>175</v>
+        <v>40</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>176</v>
+        <v>212</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>50</v>
@@ -4307,52 +4256,50 @@
         <v>62</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>40</v>
+        <v>221</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>149</v>
+        <v>222</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>40</v>
+        <v>223</v>
       </c>
       <c r="AM28" t="s" s="2">
         <v>40</v>
       </c>
     </row>
-    <row r="29" hidden="true">
+    <row r="29">
       <c r="A29" t="s" s="2">
-        <v>170</v>
-      </c>
-      <c r="B29" t="s" s="2">
-        <v>177</v>
-      </c>
+        <v>227</v>
+      </c>
+      <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
         <v>40</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="F29" t="s" s="2">
         <v>50</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="H29" t="s" s="2">
         <v>40</v>
       </c>
       <c r="I29" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>171</v>
+        <v>228</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>172</v>
+        <v>229</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>184</v>
+        <v>230</v>
       </c>
       <c r="M29" s="2"/>
       <c r="N29" s="2"/>
@@ -4403,10 +4350,10 @@
         <v>40</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>176</v>
+        <v>227</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>50</v>
@@ -4418,57 +4365,53 @@
         <v>62</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>40</v>
+        <v>231</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>149</v>
+        <v>232</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>40</v>
+        <v>233</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>40</v>
+        <v>234</v>
       </c>
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>185</v>
+        <v>235</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
-        <v>69</v>
+        <v>40</v>
       </c>
       <c r="D30" s="2"/>
       <c r="E30" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F30" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="G30" t="s" s="2">
         <v>40</v>
       </c>
       <c r="H30" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I30" t="s" s="2">
         <v>51</v>
       </c>
-      <c r="I30" t="s" s="2">
-        <v>40</v>
-      </c>
       <c r="J30" t="s" s="2">
-        <v>70</v>
+        <v>236</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>186</v>
+        <v>237</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>187</v>
-      </c>
-      <c r="M30" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="N30" t="s" s="2">
-        <v>188</v>
-      </c>
+        <v>238</v>
+      </c>
+      <c r="M30" s="2"/>
+      <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
         <v>40</v>
       </c>
@@ -4516,25 +4459,25 @@
         <v>40</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>189</v>
+        <v>235</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AH30" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>78</v>
+        <v>62</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>40</v>
+        <v>239</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>149</v>
+        <v>240</v>
       </c>
       <c r="AL30" t="s" s="2">
         <v>40</v>
@@ -4543,9 +4486,9 @@
         <v>40</v>
       </c>
     </row>
-    <row r="31">
+    <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>190</v>
+        <v>241</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -4556,10 +4499,10 @@
         <v>41</v>
       </c>
       <c r="F31" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="H31" t="s" s="2">
         <v>40</v>
@@ -4568,16 +4511,16 @@
         <v>51</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>191</v>
+        <v>242</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>192</v>
+        <v>243</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>193</v>
+        <v>244</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>194</v>
+        <v>245</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" t="s" s="2">
@@ -4615,25 +4558,23 @@
         <v>40</v>
       </c>
       <c r="AA31" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB31" t="s" s="2">
-        <v>40</v>
-      </c>
+        <v>219</v>
+      </c>
+      <c r="AB31" s="2"/>
       <c r="AC31" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AD31" t="s" s="2">
-        <v>40</v>
+        <v>220</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>190</v>
+        <v>241</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AH31" t="s" s="2">
         <v>40</v>
@@ -4642,23 +4583,25 @@
         <v>62</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>195</v>
+        <v>246</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>196</v>
+        <v>247</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>197</v>
+        <v>248</v>
       </c>
       <c r="AM31" t="s" s="2">
         <v>40</v>
       </c>
     </row>
-    <row r="32" hidden="true">
+    <row r="32">
       <c r="A32" t="s" s="2">
-        <v>198</v>
-      </c>
-      <c r="B32" s="2"/>
+        <v>241</v>
+      </c>
+      <c r="B32" t="s" s="2">
+        <v>249</v>
+      </c>
       <c r="C32" t="s" s="2">
         <v>40</v>
       </c>
@@ -4667,10 +4610,10 @@
         <v>41</v>
       </c>
       <c r="F32" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="H32" t="s" s="2">
         <v>40</v>
@@ -4679,18 +4622,18 @@
         <v>51</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>199</v>
+        <v>250</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>200</v>
+        <v>243</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>157</v>
-      </c>
-      <c r="M32" s="2"/>
-      <c r="N32" t="s" s="2">
-        <v>201</v>
-      </c>
+        <v>244</v>
+      </c>
+      <c r="M32" t="s" s="2">
+        <v>245</v>
+      </c>
+      <c r="N32" s="2"/>
       <c r="O32" t="s" s="2">
         <v>40</v>
       </c>
@@ -4738,13 +4681,13 @@
         <v>40</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>198</v>
+        <v>241</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AH32" t="s" s="2">
         <v>40</v>
@@ -4753,23 +4696,25 @@
         <v>62</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>159</v>
+        <v>246</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>202</v>
+        <v>247</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>40</v>
+        <v>248</v>
       </c>
       <c r="AM32" t="s" s="2">
         <v>40</v>
       </c>
     </row>
-    <row r="33" hidden="true">
+    <row r="33">
       <c r="A33" t="s" s="2">
-        <v>203</v>
-      </c>
-      <c r="B33" s="2"/>
+        <v>241</v>
+      </c>
+      <c r="B33" t="s" s="2">
+        <v>251</v>
+      </c>
       <c r="C33" t="s" s="2">
         <v>40</v>
       </c>
@@ -4778,10 +4723,10 @@
         <v>41</v>
       </c>
       <c r="F33" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="H33" t="s" s="2">
         <v>40</v>
@@ -4790,18 +4735,18 @@
         <v>51</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>204</v>
+        <v>252</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>205</v>
+        <v>243</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>206</v>
-      </c>
-      <c r="M33" s="2"/>
-      <c r="N33" t="s" s="2">
-        <v>207</v>
-      </c>
+        <v>244</v>
+      </c>
+      <c r="M33" t="s" s="2">
+        <v>245</v>
+      </c>
+      <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
         <v>40</v>
       </c>
@@ -4849,13 +4794,13 @@
         <v>40</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>203</v>
+        <v>241</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG33" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AH33" t="s" s="2">
         <v>40</v>
@@ -4864,13 +4809,13 @@
         <v>62</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>208</v>
+        <v>246</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>209</v>
+        <v>247</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>40</v>
+        <v>248</v>
       </c>
       <c r="AM33" t="s" s="2">
         <v>40</v>
@@ -4878,7 +4823,7 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>210</v>
+        <v>253</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -4886,7 +4831,7 @@
       </c>
       <c r="D34" s="2"/>
       <c r="E34" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="F34" t="s" s="2">
         <v>50</v>
@@ -4895,23 +4840,21 @@
         <v>51</v>
       </c>
       <c r="H34" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="I34" t="s" s="2">
         <v>51</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>126</v>
+        <v>250</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>211</v>
+        <v>254</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>212</v>
-      </c>
-      <c r="M34" t="s" s="2">
-        <v>213</v>
-      </c>
+        <v>255</v>
+      </c>
+      <c r="M34" s="2"/>
       <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
         <v>40</v>
@@ -4936,13 +4879,13 @@
         <v>40</v>
       </c>
       <c r="W34" t="s" s="2">
-        <v>214</v>
+        <v>40</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>215</v>
+        <v>40</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>216</v>
+        <v>40</v>
       </c>
       <c r="Z34" t="s" s="2">
         <v>40</v>
@@ -4960,10 +4903,10 @@
         <v>40</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>210</v>
+        <v>253</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>50</v>
@@ -4975,21 +4918,21 @@
         <v>62</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>217</v>
+        <v>40</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>218</v>
+        <v>256</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>219</v>
+        <v>257</v>
       </c>
       <c r="AM34" t="s" s="2">
         <v>40</v>
       </c>
     </row>
-    <row r="35" hidden="true">
+    <row r="35">
       <c r="A35" t="s" s="2">
-        <v>220</v>
+        <v>258</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -5000,10 +4943,10 @@
         <v>41</v>
       </c>
       <c r="F35" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="H35" t="s" s="2">
         <v>40</v>
@@ -5012,17 +4955,15 @@
         <v>40</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>221</v>
+        <v>259</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>222</v>
+        <v>260</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>223</v>
-      </c>
-      <c r="M35" t="s" s="2">
-        <v>224</v>
-      </c>
+        <v>261</v>
+      </c>
+      <c r="M35" s="2"/>
       <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
         <v>40</v>
@@ -5047,13 +4988,13 @@
         <v>40</v>
       </c>
       <c r="W35" t="s" s="2">
-        <v>116</v>
+        <v>40</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>225</v>
+        <v>40</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>226</v>
+        <v>40</v>
       </c>
       <c r="Z35" t="s" s="2">
         <v>40</v>
@@ -5071,13 +5012,13 @@
         <v>40</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>220</v>
+        <v>258</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AH35" t="s" s="2">
         <v>40</v>
@@ -5086,21 +5027,21 @@
         <v>62</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>227</v>
+        <v>40</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>228</v>
+        <v>262</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>40</v>
+        <v>263</v>
       </c>
       <c r="AM35" t="s" s="2">
         <v>40</v>
       </c>
     </row>
-    <row r="36">
+    <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>229</v>
+        <v>264</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -5111,27 +5052,29 @@
         <v>41</v>
       </c>
       <c r="F36" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="H36" t="s" s="2">
         <v>40</v>
       </c>
       <c r="I36" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>221</v>
+        <v>265</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>230</v>
+        <v>266</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>231</v>
-      </c>
-      <c r="M36" s="2"/>
+        <v>267</v>
+      </c>
+      <c r="M36" t="s" s="2">
+        <v>268</v>
+      </c>
       <c r="N36" s="2"/>
       <c r="O36" t="s" s="2">
         <v>40</v>
@@ -5156,13 +5099,13 @@
         <v>40</v>
       </c>
       <c r="W36" t="s" s="2">
-        <v>130</v>
+        <v>40</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>232</v>
+        <v>40</v>
       </c>
       <c r="Y36" t="s" s="2">
-        <v>233</v>
+        <v>40</v>
       </c>
       <c r="Z36" t="s" s="2">
         <v>40</v>
@@ -5180,13 +5123,13 @@
         <v>40</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>229</v>
+        <v>264</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG36" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AH36" t="s" s="2">
         <v>40</v>
@@ -5198,18 +5141,18 @@
         <v>40</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>234</v>
+        <v>269</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>235</v>
+        <v>40</v>
       </c>
       <c r="AM36" t="s" s="2">
         <v>40</v>
       </c>
     </row>
-    <row r="37" hidden="true">
+    <row r="37">
       <c r="A37" t="s" s="2">
-        <v>236</v>
+        <v>270</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -5217,31 +5160,31 @@
       </c>
       <c r="D37" s="2"/>
       <c r="E37" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="F37" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="H37" t="s" s="2">
         <v>40</v>
       </c>
       <c r="I37" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>237</v>
+        <v>197</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>238</v>
+        <v>271</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>239</v>
+        <v>272</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>240</v>
+        <v>273</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
@@ -5270,32 +5213,34 @@
         <v>116</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>241</v>
+        <v>274</v>
       </c>
       <c r="Y37" t="s" s="2">
-        <v>242</v>
+        <v>275</v>
       </c>
       <c r="Z37" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AA37" t="s" s="2">
-        <v>174</v>
-      </c>
-      <c r="AB37" s="2"/>
+        <v>40</v>
+      </c>
+      <c r="AB37" t="s" s="2">
+        <v>40</v>
+      </c>
       <c r="AC37" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AD37" t="s" s="2">
-        <v>175</v>
+        <v>40</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>236</v>
+        <v>270</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AH37" t="s" s="2">
         <v>40</v>
@@ -5304,13 +5249,13 @@
         <v>62</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>243</v>
+        <v>276</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>244</v>
+        <v>277</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>245</v>
+        <v>278</v>
       </c>
       <c r="AM37" t="s" s="2">
         <v>40</v>
@@ -5318,11 +5263,9 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>236</v>
-      </c>
-      <c r="B38" t="s" s="2">
-        <v>246</v>
-      </c>
+        <v>279</v>
+      </c>
+      <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
         <v>40</v>
       </c>
@@ -5331,7 +5274,7 @@
         <v>41</v>
       </c>
       <c r="F38" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G38" t="s" s="2">
         <v>51</v>
@@ -5340,19 +5283,19 @@
         <v>40</v>
       </c>
       <c r="I38" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>221</v>
+        <v>280</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>238</v>
+        <v>281</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>239</v>
+        <v>282</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>240</v>
+        <v>283</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" t="s" s="2">
@@ -5378,13 +5321,13 @@
         <v>40</v>
       </c>
       <c r="W38" t="s" s="2">
-        <v>116</v>
+        <v>40</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>241</v>
+        <v>40</v>
       </c>
       <c r="Y38" t="s" s="2">
-        <v>242</v>
+        <v>40</v>
       </c>
       <c r="Z38" t="s" s="2">
         <v>40</v>
@@ -5402,13 +5345,13 @@
         <v>40</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>236</v>
+        <v>279</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="AG38" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AH38" t="s" s="2">
         <v>40</v>
@@ -5417,25 +5360,23 @@
         <v>62</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>243</v>
+        <v>284</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>244</v>
+        <v>285</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>245</v>
+        <v>278</v>
       </c>
       <c r="AM38" t="s" s="2">
         <v>40</v>
       </c>
     </row>
-    <row r="39">
+    <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>236</v>
-      </c>
-      <c r="B39" t="s" s="2">
-        <v>247</v>
-      </c>
+        <v>286</v>
+      </c>
+      <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
         <v>40</v>
       </c>
@@ -5444,29 +5385,27 @@
         <v>41</v>
       </c>
       <c r="F39" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="H39" t="s" s="2">
         <v>40</v>
       </c>
       <c r="I39" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>248</v>
+        <v>287</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>238</v>
+        <v>288</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>239</v>
-      </c>
-      <c r="M39" t="s" s="2">
-        <v>240</v>
-      </c>
+        <v>289</v>
+      </c>
+      <c r="M39" s="2"/>
       <c r="N39" s="2"/>
       <c r="O39" t="s" s="2">
         <v>40</v>
@@ -5515,13 +5454,13 @@
         <v>40</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>236</v>
+        <v>286</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="AG39" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AH39" t="s" s="2">
         <v>40</v>
@@ -5530,13 +5469,13 @@
         <v>62</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>243</v>
+        <v>290</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>244</v>
+        <v>291</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>245</v>
+        <v>40</v>
       </c>
       <c r="AM39" t="s" s="2">
         <v>40</v>
@@ -5544,7 +5483,7 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>249</v>
+        <v>292</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -5552,10 +5491,10 @@
       </c>
       <c r="D40" s="2"/>
       <c r="E40" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="F40" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G40" t="s" s="2">
         <v>51</v>
@@ -5564,18 +5503,20 @@
         <v>40</v>
       </c>
       <c r="I40" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>250</v>
+        <v>293</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>251</v>
+        <v>294</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>252</v>
-      </c>
-      <c r="M40" s="2"/>
+        <v>295</v>
+      </c>
+      <c r="M40" t="s" s="2">
+        <v>296</v>
+      </c>
       <c r="N40" s="2"/>
       <c r="O40" t="s" s="2">
         <v>40</v>
@@ -5624,13 +5565,13 @@
         <v>40</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>249</v>
+        <v>292</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="AG40" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AH40" t="s" s="2">
         <v>40</v>
@@ -5639,1235 +5580,20 @@
         <v>62</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>253</v>
+        <v>40</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>254</v>
+        <v>297</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>255</v>
+        <v>40</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="41" hidden="true">
-      <c r="A41" t="s" s="2">
-        <v>257</v>
-      </c>
-      <c r="B41" s="2"/>
-      <c r="C41" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="D41" s="2"/>
-      <c r="E41" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="F41" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="G41" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="H41" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I41" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="J41" t="s" s="2">
-        <v>258</v>
-      </c>
-      <c r="K41" t="s" s="2">
-        <v>259</v>
-      </c>
-      <c r="L41" t="s" s="2">
-        <v>260</v>
-      </c>
-      <c r="M41" s="2"/>
-      <c r="N41" s="2"/>
-      <c r="O41" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="P41" s="2"/>
-      <c r="Q41" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="R41" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="S41" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="T41" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="U41" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="V41" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W41" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="X41" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Y41" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Z41" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA41" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB41" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC41" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD41" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE41" t="s" s="2">
-        <v>257</v>
-      </c>
-      <c r="AF41" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG41" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="AH41" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI41" t="s" s="2">
-        <v>62</v>
-      </c>
-      <c r="AJ41" t="s" s="2">
-        <v>261</v>
-      </c>
-      <c r="AK41" t="s" s="2">
-        <v>262</v>
-      </c>
-      <c r="AL41" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AM41" t="s" s="2">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="42" hidden="true">
-      <c r="A42" t="s" s="2">
-        <v>263</v>
-      </c>
-      <c r="B42" s="2"/>
-      <c r="C42" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="D42" s="2"/>
-      <c r="E42" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="F42" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="G42" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="H42" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I42" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="J42" t="s" s="2">
-        <v>264</v>
-      </c>
-      <c r="K42" t="s" s="2">
-        <v>265</v>
-      </c>
-      <c r="L42" t="s" s="2">
-        <v>266</v>
-      </c>
-      <c r="M42" t="s" s="2">
-        <v>267</v>
-      </c>
-      <c r="N42" s="2"/>
-      <c r="O42" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="P42" s="2"/>
-      <c r="Q42" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="R42" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="S42" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="T42" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="U42" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="V42" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W42" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="X42" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Y42" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Z42" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA42" t="s" s="2">
-        <v>174</v>
-      </c>
-      <c r="AB42" s="2"/>
-      <c r="AC42" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD42" t="s" s="2">
-        <v>175</v>
-      </c>
-      <c r="AE42" t="s" s="2">
-        <v>263</v>
-      </c>
-      <c r="AF42" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG42" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="AH42" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI42" t="s" s="2">
-        <v>62</v>
-      </c>
-      <c r="AJ42" t="s" s="2">
-        <v>268</v>
-      </c>
-      <c r="AK42" t="s" s="2">
-        <v>269</v>
-      </c>
-      <c r="AL42" t="s" s="2">
-        <v>270</v>
-      </c>
-      <c r="AM42" t="s" s="2">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="s" s="2">
-        <v>263</v>
-      </c>
-      <c r="B43" t="s" s="2">
-        <v>271</v>
-      </c>
-      <c r="C43" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="D43" s="2"/>
-      <c r="E43" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="F43" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="G43" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="H43" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I43" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="J43" t="s" s="2">
-        <v>272</v>
-      </c>
-      <c r="K43" t="s" s="2">
-        <v>265</v>
-      </c>
-      <c r="L43" t="s" s="2">
-        <v>266</v>
-      </c>
-      <c r="M43" t="s" s="2">
-        <v>267</v>
-      </c>
-      <c r="N43" s="2"/>
-      <c r="O43" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="P43" s="2"/>
-      <c r="Q43" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="R43" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="S43" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="T43" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="U43" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="V43" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W43" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="X43" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Y43" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Z43" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA43" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB43" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC43" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD43" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE43" t="s" s="2">
-        <v>263</v>
-      </c>
-      <c r="AF43" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG43" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="AH43" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI43" t="s" s="2">
-        <v>62</v>
-      </c>
-      <c r="AJ43" t="s" s="2">
-        <v>268</v>
-      </c>
-      <c r="AK43" t="s" s="2">
-        <v>269</v>
-      </c>
-      <c r="AL43" t="s" s="2">
-        <v>270</v>
-      </c>
-      <c r="AM43" t="s" s="2">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="s" s="2">
-        <v>263</v>
-      </c>
-      <c r="B44" t="s" s="2">
-        <v>273</v>
-      </c>
-      <c r="C44" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="D44" s="2"/>
-      <c r="E44" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="F44" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="G44" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="H44" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I44" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="J44" t="s" s="2">
-        <v>274</v>
-      </c>
-      <c r="K44" t="s" s="2">
-        <v>265</v>
-      </c>
-      <c r="L44" t="s" s="2">
-        <v>266</v>
-      </c>
-      <c r="M44" t="s" s="2">
-        <v>267</v>
-      </c>
-      <c r="N44" s="2"/>
-      <c r="O44" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="P44" s="2"/>
-      <c r="Q44" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="R44" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="S44" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="T44" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="U44" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="V44" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W44" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="X44" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Y44" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Z44" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA44" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB44" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC44" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD44" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE44" t="s" s="2">
-        <v>263</v>
-      </c>
-      <c r="AF44" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG44" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="AH44" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI44" t="s" s="2">
-        <v>62</v>
-      </c>
-      <c r="AJ44" t="s" s="2">
-        <v>268</v>
-      </c>
-      <c r="AK44" t="s" s="2">
-        <v>269</v>
-      </c>
-      <c r="AL44" t="s" s="2">
-        <v>270</v>
-      </c>
-      <c r="AM44" t="s" s="2">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="s" s="2">
-        <v>275</v>
-      </c>
-      <c r="B45" s="2"/>
-      <c r="C45" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="D45" s="2"/>
-      <c r="E45" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="F45" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="G45" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="H45" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I45" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="J45" t="s" s="2">
-        <v>272</v>
-      </c>
-      <c r="K45" t="s" s="2">
-        <v>276</v>
-      </c>
-      <c r="L45" t="s" s="2">
-        <v>277</v>
-      </c>
-      <c r="M45" s="2"/>
-      <c r="N45" s="2"/>
-      <c r="O45" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="P45" s="2"/>
-      <c r="Q45" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="R45" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="S45" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="T45" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="U45" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="V45" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W45" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="X45" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Y45" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Z45" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA45" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB45" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC45" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD45" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE45" t="s" s="2">
-        <v>275</v>
-      </c>
-      <c r="AF45" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG45" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="AH45" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI45" t="s" s="2">
-        <v>62</v>
-      </c>
-      <c r="AJ45" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AK45" t="s" s="2">
-        <v>278</v>
-      </c>
-      <c r="AL45" t="s" s="2">
-        <v>279</v>
-      </c>
-      <c r="AM45" t="s" s="2">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="s" s="2">
-        <v>280</v>
-      </c>
-      <c r="B46" s="2"/>
-      <c r="C46" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="D46" s="2"/>
-      <c r="E46" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="F46" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="G46" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="H46" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I46" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="J46" t="s" s="2">
-        <v>281</v>
-      </c>
-      <c r="K46" t="s" s="2">
-        <v>282</v>
-      </c>
-      <c r="L46" t="s" s="2">
-        <v>283</v>
-      </c>
-      <c r="M46" s="2"/>
-      <c r="N46" s="2"/>
-      <c r="O46" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="P46" s="2"/>
-      <c r="Q46" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="R46" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="S46" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="T46" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="U46" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="V46" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W46" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="X46" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Y46" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Z46" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA46" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB46" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC46" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD46" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE46" t="s" s="2">
-        <v>280</v>
-      </c>
-      <c r="AF46" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG46" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="AH46" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI46" t="s" s="2">
-        <v>62</v>
-      </c>
-      <c r="AJ46" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AK46" t="s" s="2">
-        <v>284</v>
-      </c>
-      <c r="AL46" t="s" s="2">
-        <v>285</v>
-      </c>
-      <c r="AM46" t="s" s="2">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="47" hidden="true">
-      <c r="A47" t="s" s="2">
-        <v>286</v>
-      </c>
-      <c r="B47" s="2"/>
-      <c r="C47" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="D47" s="2"/>
-      <c r="E47" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="F47" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="G47" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="H47" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I47" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="J47" t="s" s="2">
-        <v>287</v>
-      </c>
-      <c r="K47" t="s" s="2">
-        <v>288</v>
-      </c>
-      <c r="L47" t="s" s="2">
-        <v>289</v>
-      </c>
-      <c r="M47" t="s" s="2">
-        <v>290</v>
-      </c>
-      <c r="N47" s="2"/>
-      <c r="O47" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="P47" s="2"/>
-      <c r="Q47" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="R47" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="S47" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="T47" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="U47" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="V47" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W47" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="X47" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Y47" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Z47" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA47" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB47" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC47" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD47" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE47" t="s" s="2">
-        <v>286</v>
-      </c>
-      <c r="AF47" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG47" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AH47" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI47" t="s" s="2">
-        <v>62</v>
-      </c>
-      <c r="AJ47" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AK47" t="s" s="2">
-        <v>291</v>
-      </c>
-      <c r="AL47" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AM47" t="s" s="2">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="s" s="2">
-        <v>292</v>
-      </c>
-      <c r="B48" s="2"/>
-      <c r="C48" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="D48" s="2"/>
-      <c r="E48" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="F48" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="G48" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="H48" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I48" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="J48" t="s" s="2">
-        <v>221</v>
-      </c>
-      <c r="K48" t="s" s="2">
-        <v>293</v>
-      </c>
-      <c r="L48" t="s" s="2">
-        <v>294</v>
-      </c>
-      <c r="M48" t="s" s="2">
-        <v>295</v>
-      </c>
-      <c r="N48" s="2"/>
-      <c r="O48" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="P48" s="2"/>
-      <c r="Q48" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="R48" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="S48" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="T48" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="U48" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="V48" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W48" t="s" s="2">
-        <v>116</v>
-      </c>
-      <c r="X48" t="s" s="2">
-        <v>296</v>
-      </c>
-      <c r="Y48" t="s" s="2">
-        <v>297</v>
-      </c>
-      <c r="Z48" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA48" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB48" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC48" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD48" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE48" t="s" s="2">
-        <v>292</v>
-      </c>
-      <c r="AF48" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG48" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AH48" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI48" t="s" s="2">
-        <v>62</v>
-      </c>
-      <c r="AJ48" t="s" s="2">
-        <v>298</v>
-      </c>
-      <c r="AK48" t="s" s="2">
-        <v>299</v>
-      </c>
-      <c r="AL48" t="s" s="2">
-        <v>300</v>
-      </c>
-      <c r="AM48" t="s" s="2">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="s" s="2">
-        <v>301</v>
-      </c>
-      <c r="B49" s="2"/>
-      <c r="C49" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="D49" s="2"/>
-      <c r="E49" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="F49" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="G49" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="H49" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I49" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="J49" t="s" s="2">
-        <v>302</v>
-      </c>
-      <c r="K49" t="s" s="2">
-        <v>303</v>
-      </c>
-      <c r="L49" t="s" s="2">
-        <v>304</v>
-      </c>
-      <c r="M49" t="s" s="2">
-        <v>305</v>
-      </c>
-      <c r="N49" s="2"/>
-      <c r="O49" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="P49" s="2"/>
-      <c r="Q49" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="R49" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="S49" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="T49" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="U49" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="V49" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W49" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="X49" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Y49" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Z49" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA49" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB49" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC49" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD49" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE49" t="s" s="2">
-        <v>301</v>
-      </c>
-      <c r="AF49" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG49" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AH49" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI49" t="s" s="2">
-        <v>62</v>
-      </c>
-      <c r="AJ49" t="s" s="2">
-        <v>306</v>
-      </c>
-      <c r="AK49" t="s" s="2">
-        <v>307</v>
-      </c>
-      <c r="AL49" t="s" s="2">
-        <v>300</v>
-      </c>
-      <c r="AM49" t="s" s="2">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="50" hidden="true">
-      <c r="A50" t="s" s="2">
-        <v>308</v>
-      </c>
-      <c r="B50" s="2"/>
-      <c r="C50" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="D50" s="2"/>
-      <c r="E50" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="F50" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="G50" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="H50" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I50" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="J50" t="s" s="2">
-        <v>309</v>
-      </c>
-      <c r="K50" t="s" s="2">
-        <v>310</v>
-      </c>
-      <c r="L50" t="s" s="2">
-        <v>311</v>
-      </c>
-      <c r="M50" s="2"/>
-      <c r="N50" s="2"/>
-      <c r="O50" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="P50" s="2"/>
-      <c r="Q50" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="R50" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="S50" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="T50" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="U50" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="V50" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W50" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="X50" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Y50" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Z50" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA50" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB50" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC50" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD50" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE50" t="s" s="2">
-        <v>308</v>
-      </c>
-      <c r="AF50" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG50" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AH50" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI50" t="s" s="2">
-        <v>62</v>
-      </c>
-      <c r="AJ50" t="s" s="2">
-        <v>312</v>
-      </c>
-      <c r="AK50" t="s" s="2">
-        <v>313</v>
-      </c>
-      <c r="AL50" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AM50" t="s" s="2">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="s" s="2">
-        <v>314</v>
-      </c>
-      <c r="B51" s="2"/>
-      <c r="C51" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="D51" s="2"/>
-      <c r="E51" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="F51" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="G51" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="H51" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I51" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="J51" t="s" s="2">
-        <v>315</v>
-      </c>
-      <c r="K51" t="s" s="2">
-        <v>316</v>
-      </c>
-      <c r="L51" t="s" s="2">
-        <v>317</v>
-      </c>
-      <c r="M51" t="s" s="2">
-        <v>318</v>
-      </c>
-      <c r="N51" s="2"/>
-      <c r="O51" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="P51" s="2"/>
-      <c r="Q51" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="R51" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="S51" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="T51" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="U51" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="V51" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W51" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="X51" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Y51" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Z51" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA51" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB51" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC51" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD51" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE51" t="s" s="2">
-        <v>314</v>
-      </c>
-      <c r="AF51" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG51" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AH51" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI51" t="s" s="2">
-        <v>62</v>
-      </c>
-      <c r="AJ51" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AK51" t="s" s="2">
-        <v>319</v>
-      </c>
-      <c r="AL51" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AM51" t="s" s="2">
         <v>40</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AM51">
+  <autoFilter ref="A1:AM40">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -6877,7 +5603,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI50">
+  <conditionalFormatting sqref="A2:AI39">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/StructureDefinition-MedRecordUsage.xlsx
+++ b/StructureDefinition-MedRecordUsage.xlsx
@@ -9,13 +9,13 @@
     <sheet name="Elements" r:id="rId3" sheetId="1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AM$40</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AM$51</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1397" uniqueCount="298">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1774" uniqueCount="320">
   <si>
     <t>Path</t>
   </si>
@@ -511,20 +511,102 @@
     <t>treatmentPlan</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7belgium.org/fhir/riziv-medicationrecord/StructureDefinition/treatmentPlan}
+    <t xml:space="preserve">Extension {event-basedOn}
 </t>
   </si>
   <si>
-    <t>Based On</t>
-  </si>
-  <si>
-    <t>The Medication Treatment that this resource belongs to or is based on</t>
+    <t>Fulfills plan, proposal or order</t>
+  </si>
+  <si>
+    <t>A plan, proposal or order that is fulfilled in whole or in part by this event.</t>
   </si>
   <si>
     <t xml:space="preserve">ele-1
 </t>
   </si>
   <si>
+    <t>Event.basedOn</t>
+  </si>
+  <si>
+    <t>.outboundRelationship[typeCode=FLFS].target</t>
+  </si>
+  <si>
+    <t>ORC in proximity to EVN segment</t>
+  </si>
+  <si>
+    <t>MedicationStatement.extension.id</t>
+  </si>
+  <si>
+    <t>MedicationStatement.extension.extension</t>
+  </si>
+  <si>
+    <t>MedicationStatement.extension.url</t>
+  </si>
+  <si>
+    <t>identifies the meaning of the extension</t>
+  </si>
+  <si>
+    <t>Source of the definition for the extension code - a logical name or a URL.</t>
+  </si>
+  <si>
+    <t>The definition may point directly to a computable or human-readable definition of the extensibility codes, or it may be a logical URI as declared in some other specification. The definition SHALL be a URI for the Structure Definition defining the extension.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/StructureDefinition/event-basedOn</t>
+  </si>
+  <si>
+    <t>Extension.url</t>
+  </si>
+  <si>
+    <t>MedicationStatement.extension.value[x]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference
+</t>
+  </si>
+  <si>
+    <t>Value of extension</t>
+  </si>
+  <si>
+    <t>Value of extension - must be one of a constrained set of the data types (see [Extensibility](http://hl7.org/fhir/extensibility.html) for a list).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">type:$this}
+</t>
+  </si>
+  <si>
+    <t>closed</t>
+  </si>
+  <si>
+    <t>Extension.value[x]</t>
+  </si>
+  <si>
+    <t>valueReference</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(CarePlan)
+</t>
+  </si>
+  <si>
+    <t>basedOn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7belgium.org/fhir/riziv-medicationrecord/StructureDefinition/related-tl}
+</t>
+  </si>
+  <si>
+    <t>Based On Extension</t>
+  </si>
+  <si>
+    <t>Extension for connecting several resources to a single Treatment Line</t>
+  </si>
+  <si>
+    <t>http://hl7belgium.org/fhir/riziv-medicationrecord/StructureDefinition/related-tl</t>
+  </si>
+  <si>
+    <t>Value of extension - must be one of a constrained set of the data types (see [Extensibility](http://hl7.org/fhir/R4/extensibility.html) for a list).</t>
+  </si>
+  <si>
     <t>MedicationStatement.modifierExtension</t>
   </si>
   <si>
@@ -576,13 +658,7 @@
     <t>Fulfils plan, proposal or order</t>
   </si>
   <si>
-    <t>A plan, proposal or order that is fulfilled in whole or in part by this event.</t>
-  </si>
-  <si>
     <t>Allows tracing of authorization for the event and tracking whether proposals/recommendations were acted upon.</t>
-  </si>
-  <si>
-    <t>Event.basedOn</t>
   </si>
   <si>
     <t>.outboundRelationship[typeCode=FLFS].target[classCode=SBADM or PROC or PCPR or OBS, moodCode=RQO orPLAN or PRP]</t>
@@ -711,13 +787,6 @@
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/medication-codes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">type:$this}
-</t>
-  </si>
-  <si>
-    <t>closed</t>
   </si>
   <si>
     <t>Event.code</t>
@@ -1108,7 +1177,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AM40"/>
+  <dimension ref="A1:AM51"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1117,7 +1186,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="38.25" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="39.8203125" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="27.47265625" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="6.7734375" customWidth="true" bestFit="true" hidden="true"/>
@@ -1155,7 +1224,7 @@
     <col min="36" max="36" width="29.69921875" customWidth="true" bestFit="true"/>
     <col min="37" max="37" width="140.7265625" customWidth="true" bestFit="true"/>
     <col min="38" max="38" width="36.91796875" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="28.1484375" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="32.0234375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -3144,57 +3213,53 @@
         <v>78</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>40</v>
+        <v>159</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>40</v>
+        <v>160</v>
       </c>
       <c r="AL18" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>40</v>
+        <v>161</v>
       </c>
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
-        <v>69</v>
+        <v>40</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F19" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="G19" t="s" s="2">
         <v>40</v>
       </c>
       <c r="H19" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="I19" t="s" s="2">
         <v>40</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>70</v>
+        <v>52</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>160</v>
+        <v>64</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>161</v>
-      </c>
-      <c r="M19" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="N19" t="s" s="2">
-        <v>162</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="M19" s="2"/>
+      <c r="N19" s="2"/>
       <c r="O19" t="s" s="2">
         <v>40</v>
       </c>
@@ -3242,36 +3307,36 @@
         <v>40</v>
       </c>
       <c r="AE19" t="s" s="2">
+        <v>66</v>
+      </c>
+      <c r="AF19" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG19" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AH19" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI19" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ19" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK19" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AL19" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM19" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="20" hidden="true">
+      <c r="A20" t="s" s="2">
         <v>163</v>
-      </c>
-      <c r="AF19" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG19" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AH19" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI19" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ19" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AK19" t="s" s="2">
-        <v>149</v>
-      </c>
-      <c r="AL19" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AM19" t="s" s="2">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="s" s="2">
-        <v>164</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -3282,29 +3347,27 @@
         <v>41</v>
       </c>
       <c r="F20" t="s" s="2">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="H20" t="s" s="2">
         <v>40</v>
       </c>
       <c r="I20" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>165</v>
+        <v>70</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>166</v>
+        <v>151</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>167</v>
-      </c>
-      <c r="M20" t="s" s="2">
-        <v>168</v>
-      </c>
+        <v>152</v>
+      </c>
+      <c r="M20" s="2"/>
       <c r="N20" s="2"/>
       <c r="O20" t="s" s="2">
         <v>40</v>
@@ -3341,19 +3404,19 @@
         <v>40</v>
       </c>
       <c r="AA20" t="s" s="2">
-        <v>40</v>
+        <v>74</v>
       </c>
       <c r="AB20" t="s" s="2">
-        <v>40</v>
+        <v>75</v>
       </c>
       <c r="AC20" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AD20" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>164</v>
+        <v>77</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>41</v>
@@ -3365,16 +3428,16 @@
         <v>40</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>62</v>
+        <v>78</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>169</v>
+        <v>40</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>170</v>
+        <v>40</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>171</v>
+        <v>40</v>
       </c>
       <c r="AM20" t="s" s="2">
         <v>40</v>
@@ -3382,7 +3445,7 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -3390,10 +3453,10 @@
       </c>
       <c r="D21" s="2"/>
       <c r="E21" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="F21" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="G21" t="s" s="2">
         <v>40</v>
@@ -3402,27 +3465,27 @@
         <v>40</v>
       </c>
       <c r="I21" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>173</v>
+        <v>92</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>174</v>
+        <v>165</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>175</v>
-      </c>
-      <c r="M21" s="2"/>
-      <c r="N21" t="s" s="2">
-        <v>176</v>
-      </c>
+        <v>166</v>
+      </c>
+      <c r="M21" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="N21" s="2"/>
       <c r="O21" t="s" s="2">
         <v>40</v>
       </c>
       <c r="P21" s="2"/>
       <c r="Q21" t="s" s="2">
-        <v>40</v>
+        <v>168</v>
       </c>
       <c r="R21" t="s" s="2">
         <v>40</v>
@@ -3464,25 +3527,25 @@
         <v>40</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="AG21" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AH21" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>62</v>
+        <v>40</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>177</v>
+        <v>40</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>178</v>
+        <v>149</v>
       </c>
       <c r="AL21" t="s" s="2">
         <v>40</v>
@@ -3493,7 +3556,7 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>179</v>
+        <v>170</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -3501,10 +3564,10 @@
       </c>
       <c r="D22" s="2"/>
       <c r="E22" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="F22" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="G22" t="s" s="2">
         <v>40</v>
@@ -3513,21 +3576,19 @@
         <v>40</v>
       </c>
       <c r="I22" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>180</v>
+        <v>171</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>181</v>
+        <v>172</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>182</v>
+        <v>173</v>
       </c>
       <c r="M22" s="2"/>
-      <c r="N22" t="s" s="2">
-        <v>183</v>
-      </c>
+      <c r="N22" s="2"/>
       <c r="O22" t="s" s="2">
         <v>40</v>
       </c>
@@ -3563,25 +3624,23 @@
         <v>40</v>
       </c>
       <c r="AA22" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB22" t="s" s="2">
-        <v>40</v>
-      </c>
+        <v>174</v>
+      </c>
+      <c r="AB22" s="2"/>
       <c r="AC22" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AD22" t="s" s="2">
-        <v>40</v>
+        <v>175</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AH22" t="s" s="2">
         <v>40</v>
@@ -3590,10 +3649,10 @@
         <v>62</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>184</v>
+        <v>40</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>185</v>
+        <v>149</v>
       </c>
       <c r="AL22" t="s" s="2">
         <v>40</v>
@@ -3602,11 +3661,13 @@
         <v>40</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>186</v>
-      </c>
-      <c r="B23" s="2"/>
+        <v>170</v>
+      </c>
+      <c r="B23" t="s" s="2">
+        <v>177</v>
+      </c>
       <c r="C23" t="s" s="2">
         <v>40</v>
       </c>
@@ -3618,26 +3679,24 @@
         <v>50</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="H23" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="I23" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>126</v>
+        <v>178</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>187</v>
+        <v>172</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>188</v>
-      </c>
-      <c r="M23" t="s" s="2">
-        <v>189</v>
-      </c>
+        <v>173</v>
+      </c>
+      <c r="M23" s="2"/>
       <c r="N23" s="2"/>
       <c r="O23" t="s" s="2">
         <v>40</v>
@@ -3662,13 +3721,13 @@
         <v>40</v>
       </c>
       <c r="W23" t="s" s="2">
-        <v>190</v>
+        <v>40</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>191</v>
+        <v>40</v>
       </c>
       <c r="Y23" t="s" s="2">
-        <v>192</v>
+        <v>40</v>
       </c>
       <c r="Z23" t="s" s="2">
         <v>40</v>
@@ -3686,10 +3745,10 @@
         <v>40</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>186</v>
+        <v>176</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>50</v>
@@ -3701,23 +3760,25 @@
         <v>62</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>193</v>
+        <v>40</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>194</v>
+        <v>149</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>195</v>
+        <v>40</v>
       </c>
       <c r="AM23" t="s" s="2">
         <v>40</v>
       </c>
     </row>
-    <row r="24" hidden="true">
+    <row r="24">
       <c r="A24" t="s" s="2">
-        <v>196</v>
-      </c>
-      <c r="B24" s="2"/>
+        <v>150</v>
+      </c>
+      <c r="B24" t="s" s="2">
+        <v>179</v>
+      </c>
       <c r="C24" t="s" s="2">
         <v>40</v>
       </c>
@@ -3726,10 +3787,10 @@
         <v>41</v>
       </c>
       <c r="F24" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="H24" t="s" s="2">
         <v>40</v>
@@ -3738,17 +3799,15 @@
         <v>40</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>197</v>
+        <v>180</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>198</v>
+        <v>181</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>199</v>
-      </c>
-      <c r="M24" t="s" s="2">
-        <v>200</v>
-      </c>
+        <v>182</v>
+      </c>
+      <c r="M24" s="2"/>
       <c r="N24" s="2"/>
       <c r="O24" t="s" s="2">
         <v>40</v>
@@ -3773,13 +3832,13 @@
         <v>40</v>
       </c>
       <c r="W24" t="s" s="2">
-        <v>116</v>
+        <v>40</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>201</v>
+        <v>40</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>202</v>
+        <v>40</v>
       </c>
       <c r="Z24" t="s" s="2">
         <v>40</v>
@@ -3797,7 +3856,7 @@
         <v>40</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>196</v>
+        <v>153</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>41</v>
@@ -3806,16 +3865,16 @@
         <v>42</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>40</v>
+        <v>158</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>62</v>
+        <v>78</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>203</v>
+        <v>40</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>204</v>
+        <v>40</v>
       </c>
       <c r="AL24" t="s" s="2">
         <v>40</v>
@@ -3824,9 +3883,9 @@
         <v>40</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>205</v>
+        <v>162</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -3840,22 +3899,22 @@
         <v>50</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="H25" t="s" s="2">
         <v>40</v>
       </c>
       <c r="I25" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>197</v>
+        <v>52</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>206</v>
+        <v>64</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>207</v>
+        <v>65</v>
       </c>
       <c r="M25" s="2"/>
       <c r="N25" s="2"/>
@@ -3882,13 +3941,13 @@
         <v>40</v>
       </c>
       <c r="W25" t="s" s="2">
-        <v>130</v>
+        <v>40</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>208</v>
+        <v>40</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>209</v>
+        <v>40</v>
       </c>
       <c r="Z25" t="s" s="2">
         <v>40</v>
@@ -3906,7 +3965,7 @@
         <v>40</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>205</v>
+        <v>66</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>41</v>
@@ -3918,16 +3977,16 @@
         <v>40</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>62</v>
+        <v>40</v>
       </c>
       <c r="AJ25" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>210</v>
+        <v>67</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>211</v>
+        <v>40</v>
       </c>
       <c r="AM25" t="s" s="2">
         <v>40</v>
@@ -3935,7 +3994,7 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>212</v>
+        <v>163</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -3943,10 +4002,10 @@
       </c>
       <c r="D26" s="2"/>
       <c r="E26" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="F26" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="G26" t="s" s="2">
         <v>40</v>
@@ -3955,20 +4014,18 @@
         <v>40</v>
       </c>
       <c r="I26" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>213</v>
+        <v>70</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>214</v>
+        <v>151</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>215</v>
-      </c>
-      <c r="M26" t="s" s="2">
-        <v>216</v>
-      </c>
+        <v>152</v>
+      </c>
+      <c r="M26" s="2"/>
       <c r="N26" s="2"/>
       <c r="O26" t="s" s="2">
         <v>40</v>
@@ -3993,92 +4050,92 @@
         <v>40</v>
       </c>
       <c r="W26" t="s" s="2">
-        <v>116</v>
+        <v>40</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>217</v>
+        <v>40</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>218</v>
+        <v>40</v>
       </c>
       <c r="Z26" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AA26" t="s" s="2">
-        <v>219</v>
-      </c>
-      <c r="AB26" s="2"/>
+        <v>74</v>
+      </c>
+      <c r="AB26" t="s" s="2">
+        <v>75</v>
+      </c>
       <c r="AC26" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AD26" t="s" s="2">
-        <v>220</v>
+        <v>76</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>212</v>
+        <v>77</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AH26" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>62</v>
+        <v>78</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>221</v>
+        <v>40</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>222</v>
+        <v>40</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>223</v>
+        <v>40</v>
       </c>
       <c r="AM26" t="s" s="2">
         <v>40</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>212</v>
-      </c>
-      <c r="B27" t="s" s="2">
-        <v>224</v>
-      </c>
+        <v>164</v>
+      </c>
+      <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
         <v>40</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="F27" t="s" s="2">
         <v>50</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="H27" t="s" s="2">
         <v>40</v>
       </c>
       <c r="I27" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>197</v>
+        <v>92</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>214</v>
+        <v>165</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>215</v>
+        <v>166</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>216</v>
+        <v>167</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
@@ -4086,7 +4143,7 @@
       </c>
       <c r="P27" s="2"/>
       <c r="Q27" t="s" s="2">
-        <v>40</v>
+        <v>183</v>
       </c>
       <c r="R27" t="s" s="2">
         <v>40</v>
@@ -4104,13 +4161,13 @@
         <v>40</v>
       </c>
       <c r="W27" t="s" s="2">
-        <v>116</v>
+        <v>40</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>217</v>
+        <v>40</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>218</v>
+        <v>40</v>
       </c>
       <c r="Z27" t="s" s="2">
         <v>40</v>
@@ -4128,7 +4185,7 @@
         <v>40</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>212</v>
+        <v>169</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>50</v>
@@ -4140,28 +4197,26 @@
         <v>40</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>62</v>
+        <v>40</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>221</v>
+        <v>40</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>222</v>
+        <v>149</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>223</v>
+        <v>40</v>
       </c>
       <c r="AM27" t="s" s="2">
         <v>40</v>
       </c>
     </row>
-    <row r="28">
+    <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>212</v>
-      </c>
-      <c r="B28" t="s" s="2">
-        <v>225</v>
-      </c>
+        <v>170</v>
+      </c>
+      <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
         <v>40</v>
       </c>
@@ -4173,26 +4228,24 @@
         <v>50</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="H28" t="s" s="2">
         <v>40</v>
       </c>
       <c r="I28" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>226</v>
+        <v>171</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>214</v>
+        <v>172</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>215</v>
-      </c>
-      <c r="M28" t="s" s="2">
-        <v>216</v>
-      </c>
+        <v>184</v>
+      </c>
+      <c r="M28" s="2"/>
       <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
         <v>40</v>
@@ -4229,22 +4282,20 @@
         <v>40</v>
       </c>
       <c r="AA28" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB28" t="s" s="2">
-        <v>40</v>
-      </c>
+        <v>174</v>
+      </c>
+      <c r="AB28" s="2"/>
       <c r="AC28" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AD28" t="s" s="2">
-        <v>40</v>
+        <v>175</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>212</v>
+        <v>176</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>50</v>
@@ -4256,50 +4307,52 @@
         <v>62</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>221</v>
+        <v>40</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>222</v>
+        <v>149</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>223</v>
+        <v>40</v>
       </c>
       <c r="AM28" t="s" s="2">
         <v>40</v>
       </c>
     </row>
-    <row r="29">
+    <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>227</v>
-      </c>
-      <c r="B29" s="2"/>
+        <v>170</v>
+      </c>
+      <c r="B29" t="s" s="2">
+        <v>177</v>
+      </c>
       <c r="C29" t="s" s="2">
         <v>40</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="F29" t="s" s="2">
         <v>50</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="H29" t="s" s="2">
         <v>40</v>
       </c>
       <c r="I29" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>228</v>
+        <v>171</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>229</v>
+        <v>172</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>230</v>
+        <v>184</v>
       </c>
       <c r="M29" s="2"/>
       <c r="N29" s="2"/>
@@ -4350,10 +4403,10 @@
         <v>40</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>227</v>
+        <v>176</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>50</v>
@@ -4365,53 +4418,57 @@
         <v>62</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>231</v>
+        <v>40</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>232</v>
+        <v>149</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>233</v>
+        <v>40</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>234</v>
+        <v>40</v>
       </c>
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>235</v>
+        <v>185</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
-        <v>40</v>
+        <v>69</v>
       </c>
       <c r="D30" s="2"/>
       <c r="E30" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F30" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G30" t="s" s="2">
         <v>40</v>
       </c>
       <c r="H30" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="I30" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>236</v>
+        <v>70</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>237</v>
+        <v>186</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>238</v>
-      </c>
-      <c r="M30" s="2"/>
-      <c r="N30" s="2"/>
+        <v>187</v>
+      </c>
+      <c r="M30" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="N30" t="s" s="2">
+        <v>188</v>
+      </c>
       <c r="O30" t="s" s="2">
         <v>40</v>
       </c>
@@ -4459,25 +4516,25 @@
         <v>40</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>235</v>
+        <v>189</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AH30" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>62</v>
+        <v>78</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>239</v>
+        <v>40</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>240</v>
+        <v>149</v>
       </c>
       <c r="AL30" t="s" s="2">
         <v>40</v>
@@ -4486,9 +4543,9 @@
         <v>40</v>
       </c>
     </row>
-    <row r="31" hidden="true">
+    <row r="31">
       <c r="A31" t="s" s="2">
-        <v>241</v>
+        <v>190</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -4499,10 +4556,10 @@
         <v>41</v>
       </c>
       <c r="F31" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="H31" t="s" s="2">
         <v>40</v>
@@ -4511,16 +4568,16 @@
         <v>51</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>242</v>
+        <v>191</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>243</v>
+        <v>192</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>244</v>
+        <v>193</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>245</v>
+        <v>194</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" t="s" s="2">
@@ -4558,23 +4615,25 @@
         <v>40</v>
       </c>
       <c r="AA31" t="s" s="2">
-        <v>219</v>
-      </c>
-      <c r="AB31" s="2"/>
+        <v>40</v>
+      </c>
+      <c r="AB31" t="s" s="2">
+        <v>40</v>
+      </c>
       <c r="AC31" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AD31" t="s" s="2">
-        <v>220</v>
+        <v>40</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>241</v>
+        <v>190</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AH31" t="s" s="2">
         <v>40</v>
@@ -4583,25 +4642,23 @@
         <v>62</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>246</v>
+        <v>195</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>247</v>
+        <v>196</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>248</v>
+        <v>197</v>
       </c>
       <c r="AM31" t="s" s="2">
         <v>40</v>
       </c>
     </row>
-    <row r="32">
+    <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>241</v>
-      </c>
-      <c r="B32" t="s" s="2">
-        <v>249</v>
-      </c>
+        <v>198</v>
+      </c>
+      <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
         <v>40</v>
       </c>
@@ -4610,10 +4667,10 @@
         <v>41</v>
       </c>
       <c r="F32" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="H32" t="s" s="2">
         <v>40</v>
@@ -4622,18 +4679,18 @@
         <v>51</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>250</v>
+        <v>199</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>243</v>
+        <v>200</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>244</v>
-      </c>
-      <c r="M32" t="s" s="2">
-        <v>245</v>
-      </c>
-      <c r="N32" s="2"/>
+        <v>157</v>
+      </c>
+      <c r="M32" s="2"/>
+      <c r="N32" t="s" s="2">
+        <v>201</v>
+      </c>
       <c r="O32" t="s" s="2">
         <v>40</v>
       </c>
@@ -4681,13 +4738,13 @@
         <v>40</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>241</v>
+        <v>198</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AH32" t="s" s="2">
         <v>40</v>
@@ -4696,25 +4753,23 @@
         <v>62</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>246</v>
+        <v>159</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>247</v>
+        <v>202</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>248</v>
+        <v>40</v>
       </c>
       <c r="AM32" t="s" s="2">
         <v>40</v>
       </c>
     </row>
-    <row r="33">
+    <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>241</v>
-      </c>
-      <c r="B33" t="s" s="2">
-        <v>251</v>
-      </c>
+        <v>203</v>
+      </c>
+      <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
         <v>40</v>
       </c>
@@ -4723,10 +4778,10 @@
         <v>41</v>
       </c>
       <c r="F33" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="H33" t="s" s="2">
         <v>40</v>
@@ -4735,18 +4790,18 @@
         <v>51</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>252</v>
+        <v>204</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>243</v>
+        <v>205</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>244</v>
-      </c>
-      <c r="M33" t="s" s="2">
-        <v>245</v>
-      </c>
-      <c r="N33" s="2"/>
+        <v>206</v>
+      </c>
+      <c r="M33" s="2"/>
+      <c r="N33" t="s" s="2">
+        <v>207</v>
+      </c>
       <c r="O33" t="s" s="2">
         <v>40</v>
       </c>
@@ -4794,13 +4849,13 @@
         <v>40</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>241</v>
+        <v>203</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG33" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AH33" t="s" s="2">
         <v>40</v>
@@ -4809,13 +4864,13 @@
         <v>62</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>246</v>
+        <v>208</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>247</v>
+        <v>209</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>248</v>
+        <v>40</v>
       </c>
       <c r="AM33" t="s" s="2">
         <v>40</v>
@@ -4823,7 +4878,7 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>253</v>
+        <v>210</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -4831,7 +4886,7 @@
       </c>
       <c r="D34" s="2"/>
       <c r="E34" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="F34" t="s" s="2">
         <v>50</v>
@@ -4840,21 +4895,23 @@
         <v>51</v>
       </c>
       <c r="H34" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="I34" t="s" s="2">
         <v>51</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>250</v>
+        <v>126</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>254</v>
+        <v>211</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>255</v>
-      </c>
-      <c r="M34" s="2"/>
+        <v>212</v>
+      </c>
+      <c r="M34" t="s" s="2">
+        <v>213</v>
+      </c>
       <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
         <v>40</v>
@@ -4879,13 +4936,13 @@
         <v>40</v>
       </c>
       <c r="W34" t="s" s="2">
-        <v>40</v>
+        <v>214</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>40</v>
+        <v>215</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>40</v>
+        <v>216</v>
       </c>
       <c r="Z34" t="s" s="2">
         <v>40</v>
@@ -4903,10 +4960,10 @@
         <v>40</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>253</v>
+        <v>210</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>50</v>
@@ -4918,21 +4975,21 @@
         <v>62</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>40</v>
+        <v>217</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>256</v>
+        <v>218</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>257</v>
+        <v>219</v>
       </c>
       <c r="AM34" t="s" s="2">
         <v>40</v>
       </c>
     </row>
-    <row r="35">
+    <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>258</v>
+        <v>220</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -4943,10 +5000,10 @@
         <v>41</v>
       </c>
       <c r="F35" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="H35" t="s" s="2">
         <v>40</v>
@@ -4955,15 +5012,17 @@
         <v>40</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>259</v>
+        <v>221</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>260</v>
+        <v>222</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>261</v>
-      </c>
-      <c r="M35" s="2"/>
+        <v>223</v>
+      </c>
+      <c r="M35" t="s" s="2">
+        <v>224</v>
+      </c>
       <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
         <v>40</v>
@@ -4988,13 +5047,13 @@
         <v>40</v>
       </c>
       <c r="W35" t="s" s="2">
-        <v>40</v>
+        <v>116</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>40</v>
+        <v>225</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>40</v>
+        <v>226</v>
       </c>
       <c r="Z35" t="s" s="2">
         <v>40</v>
@@ -5012,13 +5071,13 @@
         <v>40</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>258</v>
+        <v>220</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AH35" t="s" s="2">
         <v>40</v>
@@ -5027,21 +5086,21 @@
         <v>62</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>40</v>
+        <v>227</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>262</v>
+        <v>228</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>263</v>
+        <v>40</v>
       </c>
       <c r="AM35" t="s" s="2">
         <v>40</v>
       </c>
     </row>
-    <row r="36" hidden="true">
+    <row r="36">
       <c r="A36" t="s" s="2">
-        <v>264</v>
+        <v>229</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -5052,29 +5111,27 @@
         <v>41</v>
       </c>
       <c r="F36" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="H36" t="s" s="2">
         <v>40</v>
       </c>
       <c r="I36" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>265</v>
+        <v>221</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>266</v>
+        <v>230</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>267</v>
-      </c>
-      <c r="M36" t="s" s="2">
-        <v>268</v>
-      </c>
+        <v>231</v>
+      </c>
+      <c r="M36" s="2"/>
       <c r="N36" s="2"/>
       <c r="O36" t="s" s="2">
         <v>40</v>
@@ -5099,13 +5156,13 @@
         <v>40</v>
       </c>
       <c r="W36" t="s" s="2">
-        <v>40</v>
+        <v>130</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>40</v>
+        <v>232</v>
       </c>
       <c r="Y36" t="s" s="2">
-        <v>40</v>
+        <v>233</v>
       </c>
       <c r="Z36" t="s" s="2">
         <v>40</v>
@@ -5123,13 +5180,13 @@
         <v>40</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>264</v>
+        <v>229</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG36" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AH36" t="s" s="2">
         <v>40</v>
@@ -5141,18 +5198,18 @@
         <v>40</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>269</v>
+        <v>234</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>40</v>
+        <v>235</v>
       </c>
       <c r="AM36" t="s" s="2">
         <v>40</v>
       </c>
     </row>
-    <row r="37">
+    <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>270</v>
+        <v>236</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -5160,31 +5217,31 @@
       </c>
       <c r="D37" s="2"/>
       <c r="E37" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="F37" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="G37" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H37" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I37" t="s" s="2">
         <v>51</v>
       </c>
-      <c r="H37" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I37" t="s" s="2">
-        <v>40</v>
-      </c>
       <c r="J37" t="s" s="2">
-        <v>197</v>
+        <v>237</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>271</v>
+        <v>238</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>272</v>
+        <v>239</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>273</v>
+        <v>240</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
@@ -5213,34 +5270,32 @@
         <v>116</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>274</v>
+        <v>241</v>
       </c>
       <c r="Y37" t="s" s="2">
-        <v>275</v>
+        <v>242</v>
       </c>
       <c r="Z37" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AA37" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB37" t="s" s="2">
-        <v>40</v>
-      </c>
+        <v>174</v>
+      </c>
+      <c r="AB37" s="2"/>
       <c r="AC37" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AD37" t="s" s="2">
-        <v>40</v>
+        <v>175</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>270</v>
+        <v>236</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AH37" t="s" s="2">
         <v>40</v>
@@ -5249,13 +5304,13 @@
         <v>62</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>276</v>
+        <v>243</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>277</v>
+        <v>244</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>278</v>
+        <v>245</v>
       </c>
       <c r="AM37" t="s" s="2">
         <v>40</v>
@@ -5263,9 +5318,11 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>279</v>
-      </c>
-      <c r="B38" s="2"/>
+        <v>236</v>
+      </c>
+      <c r="B38" t="s" s="2">
+        <v>246</v>
+      </c>
       <c r="C38" t="s" s="2">
         <v>40</v>
       </c>
@@ -5274,7 +5331,7 @@
         <v>41</v>
       </c>
       <c r="F38" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="G38" t="s" s="2">
         <v>51</v>
@@ -5283,19 +5340,19 @@
         <v>40</v>
       </c>
       <c r="I38" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>280</v>
+        <v>221</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>281</v>
+        <v>238</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>282</v>
+        <v>239</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>283</v>
+        <v>240</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" t="s" s="2">
@@ -5321,13 +5378,13 @@
         <v>40</v>
       </c>
       <c r="W38" t="s" s="2">
-        <v>40</v>
+        <v>116</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>40</v>
+        <v>241</v>
       </c>
       <c r="Y38" t="s" s="2">
-        <v>40</v>
+        <v>242</v>
       </c>
       <c r="Z38" t="s" s="2">
         <v>40</v>
@@ -5345,13 +5402,13 @@
         <v>40</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>279</v>
+        <v>236</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="AG38" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AH38" t="s" s="2">
         <v>40</v>
@@ -5360,23 +5417,25 @@
         <v>62</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>284</v>
+        <v>243</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>285</v>
+        <v>244</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>278</v>
+        <v>245</v>
       </c>
       <c r="AM38" t="s" s="2">
         <v>40</v>
       </c>
     </row>
-    <row r="39" hidden="true">
+    <row r="39">
       <c r="A39" t="s" s="2">
-        <v>286</v>
-      </c>
-      <c r="B39" s="2"/>
+        <v>236</v>
+      </c>
+      <c r="B39" t="s" s="2">
+        <v>247</v>
+      </c>
       <c r="C39" t="s" s="2">
         <v>40</v>
       </c>
@@ -5385,27 +5444,29 @@
         <v>41</v>
       </c>
       <c r="F39" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="H39" t="s" s="2">
         <v>40</v>
       </c>
       <c r="I39" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>287</v>
+        <v>248</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>288</v>
+        <v>238</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>289</v>
-      </c>
-      <c r="M39" s="2"/>
+        <v>239</v>
+      </c>
+      <c r="M39" t="s" s="2">
+        <v>240</v>
+      </c>
       <c r="N39" s="2"/>
       <c r="O39" t="s" s="2">
         <v>40</v>
@@ -5454,13 +5515,13 @@
         <v>40</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>286</v>
+        <v>236</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="AG39" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AH39" t="s" s="2">
         <v>40</v>
@@ -5469,13 +5530,13 @@
         <v>62</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>290</v>
+        <v>243</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>291</v>
+        <v>244</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>40</v>
+        <v>245</v>
       </c>
       <c r="AM39" t="s" s="2">
         <v>40</v>
@@ -5483,7 +5544,7 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>292</v>
+        <v>249</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -5491,10 +5552,10 @@
       </c>
       <c r="D40" s="2"/>
       <c r="E40" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="F40" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="G40" t="s" s="2">
         <v>51</v>
@@ -5503,20 +5564,18 @@
         <v>40</v>
       </c>
       <c r="I40" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>293</v>
+        <v>250</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>294</v>
+        <v>251</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>295</v>
-      </c>
-      <c r="M40" t="s" s="2">
-        <v>296</v>
-      </c>
+        <v>252</v>
+      </c>
+      <c r="M40" s="2"/>
       <c r="N40" s="2"/>
       <c r="O40" t="s" s="2">
         <v>40</v>
@@ -5565,13 +5624,13 @@
         <v>40</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>292</v>
+        <v>249</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="AG40" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AH40" t="s" s="2">
         <v>40</v>
@@ -5580,20 +5639,1235 @@
         <v>62</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>40</v>
+        <v>253</v>
       </c>
       <c r="AK40" t="s" s="2">
+        <v>254</v>
+      </c>
+      <c r="AL40" t="s" s="2">
+        <v>255</v>
+      </c>
+      <c r="AM40" t="s" s="2">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="41" hidden="true">
+      <c r="A41" t="s" s="2">
+        <v>257</v>
+      </c>
+      <c r="B41" s="2"/>
+      <c r="C41" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D41" s="2"/>
+      <c r="E41" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F41" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="G41" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H41" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I41" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="J41" t="s" s="2">
+        <v>258</v>
+      </c>
+      <c r="K41" t="s" s="2">
+        <v>259</v>
+      </c>
+      <c r="L41" t="s" s="2">
+        <v>260</v>
+      </c>
+      <c r="M41" s="2"/>
+      <c r="N41" s="2"/>
+      <c r="O41" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P41" s="2"/>
+      <c r="Q41" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R41" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S41" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T41" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U41" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V41" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W41" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X41" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y41" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z41" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA41" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB41" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC41" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD41" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE41" t="s" s="2">
+        <v>257</v>
+      </c>
+      <c r="AF41" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG41" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AH41" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI41" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="AJ41" t="s" s="2">
+        <v>261</v>
+      </c>
+      <c r="AK41" t="s" s="2">
+        <v>262</v>
+      </c>
+      <c r="AL41" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM41" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="42" hidden="true">
+      <c r="A42" t="s" s="2">
+        <v>263</v>
+      </c>
+      <c r="B42" s="2"/>
+      <c r="C42" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D42" s="2"/>
+      <c r="E42" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F42" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="G42" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H42" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I42" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="J42" t="s" s="2">
+        <v>264</v>
+      </c>
+      <c r="K42" t="s" s="2">
+        <v>265</v>
+      </c>
+      <c r="L42" t="s" s="2">
+        <v>266</v>
+      </c>
+      <c r="M42" t="s" s="2">
+        <v>267</v>
+      </c>
+      <c r="N42" s="2"/>
+      <c r="O42" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P42" s="2"/>
+      <c r="Q42" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R42" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S42" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T42" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U42" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V42" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W42" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X42" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y42" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z42" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA42" t="s" s="2">
+        <v>174</v>
+      </c>
+      <c r="AB42" s="2"/>
+      <c r="AC42" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD42" t="s" s="2">
+        <v>175</v>
+      </c>
+      <c r="AE42" t="s" s="2">
+        <v>263</v>
+      </c>
+      <c r="AF42" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG42" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AH42" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI42" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="AJ42" t="s" s="2">
+        <v>268</v>
+      </c>
+      <c r="AK42" t="s" s="2">
+        <v>269</v>
+      </c>
+      <c r="AL42" t="s" s="2">
+        <v>270</v>
+      </c>
+      <c r="AM42" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s" s="2">
+        <v>263</v>
+      </c>
+      <c r="B43" t="s" s="2">
+        <v>271</v>
+      </c>
+      <c r="C43" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D43" s="2"/>
+      <c r="E43" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F43" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="G43" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="H43" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I43" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="J43" t="s" s="2">
+        <v>272</v>
+      </c>
+      <c r="K43" t="s" s="2">
+        <v>265</v>
+      </c>
+      <c r="L43" t="s" s="2">
+        <v>266</v>
+      </c>
+      <c r="M43" t="s" s="2">
+        <v>267</v>
+      </c>
+      <c r="N43" s="2"/>
+      <c r="O43" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P43" s="2"/>
+      <c r="Q43" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R43" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S43" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T43" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U43" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V43" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W43" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X43" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y43" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z43" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA43" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB43" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC43" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD43" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE43" t="s" s="2">
+        <v>263</v>
+      </c>
+      <c r="AF43" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG43" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AH43" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI43" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="AJ43" t="s" s="2">
+        <v>268</v>
+      </c>
+      <c r="AK43" t="s" s="2">
+        <v>269</v>
+      </c>
+      <c r="AL43" t="s" s="2">
+        <v>270</v>
+      </c>
+      <c r="AM43" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s" s="2">
+        <v>263</v>
+      </c>
+      <c r="B44" t="s" s="2">
+        <v>273</v>
+      </c>
+      <c r="C44" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D44" s="2"/>
+      <c r="E44" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F44" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="G44" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="H44" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I44" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="J44" t="s" s="2">
+        <v>274</v>
+      </c>
+      <c r="K44" t="s" s="2">
+        <v>265</v>
+      </c>
+      <c r="L44" t="s" s="2">
+        <v>266</v>
+      </c>
+      <c r="M44" t="s" s="2">
+        <v>267</v>
+      </c>
+      <c r="N44" s="2"/>
+      <c r="O44" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P44" s="2"/>
+      <c r="Q44" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R44" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S44" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T44" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U44" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V44" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W44" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X44" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y44" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z44" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA44" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB44" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC44" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD44" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE44" t="s" s="2">
+        <v>263</v>
+      </c>
+      <c r="AF44" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG44" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AH44" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI44" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="AJ44" t="s" s="2">
+        <v>268</v>
+      </c>
+      <c r="AK44" t="s" s="2">
+        <v>269</v>
+      </c>
+      <c r="AL44" t="s" s="2">
+        <v>270</v>
+      </c>
+      <c r="AM44" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s" s="2">
+        <v>275</v>
+      </c>
+      <c r="B45" s="2"/>
+      <c r="C45" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D45" s="2"/>
+      <c r="E45" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F45" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="G45" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="H45" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I45" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="J45" t="s" s="2">
+        <v>272</v>
+      </c>
+      <c r="K45" t="s" s="2">
+        <v>276</v>
+      </c>
+      <c r="L45" t="s" s="2">
+        <v>277</v>
+      </c>
+      <c r="M45" s="2"/>
+      <c r="N45" s="2"/>
+      <c r="O45" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P45" s="2"/>
+      <c r="Q45" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R45" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S45" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T45" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U45" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V45" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W45" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X45" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y45" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z45" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA45" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB45" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC45" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD45" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE45" t="s" s="2">
+        <v>275</v>
+      </c>
+      <c r="AF45" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG45" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AH45" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI45" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="AJ45" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK45" t="s" s="2">
+        <v>278</v>
+      </c>
+      <c r="AL45" t="s" s="2">
+        <v>279</v>
+      </c>
+      <c r="AM45" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s" s="2">
+        <v>280</v>
+      </c>
+      <c r="B46" s="2"/>
+      <c r="C46" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D46" s="2"/>
+      <c r="E46" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F46" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="G46" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="H46" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I46" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="J46" t="s" s="2">
+        <v>281</v>
+      </c>
+      <c r="K46" t="s" s="2">
+        <v>282</v>
+      </c>
+      <c r="L46" t="s" s="2">
+        <v>283</v>
+      </c>
+      <c r="M46" s="2"/>
+      <c r="N46" s="2"/>
+      <c r="O46" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P46" s="2"/>
+      <c r="Q46" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R46" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S46" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T46" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U46" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V46" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W46" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X46" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y46" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z46" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA46" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB46" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC46" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD46" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE46" t="s" s="2">
+        <v>280</v>
+      </c>
+      <c r="AF46" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG46" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AH46" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI46" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="AJ46" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK46" t="s" s="2">
+        <v>284</v>
+      </c>
+      <c r="AL46" t="s" s="2">
+        <v>285</v>
+      </c>
+      <c r="AM46" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="47" hidden="true">
+      <c r="A47" t="s" s="2">
+        <v>286</v>
+      </c>
+      <c r="B47" s="2"/>
+      <c r="C47" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D47" s="2"/>
+      <c r="E47" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F47" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="G47" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H47" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I47" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="J47" t="s" s="2">
+        <v>287</v>
+      </c>
+      <c r="K47" t="s" s="2">
+        <v>288</v>
+      </c>
+      <c r="L47" t="s" s="2">
+        <v>289</v>
+      </c>
+      <c r="M47" t="s" s="2">
+        <v>290</v>
+      </c>
+      <c r="N47" s="2"/>
+      <c r="O47" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P47" s="2"/>
+      <c r="Q47" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R47" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S47" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T47" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U47" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V47" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W47" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X47" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y47" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z47" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA47" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB47" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC47" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD47" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE47" t="s" s="2">
+        <v>286</v>
+      </c>
+      <c r="AF47" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG47" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AH47" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI47" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="AJ47" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK47" t="s" s="2">
+        <v>291</v>
+      </c>
+      <c r="AL47" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM47" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="s" s="2">
+        <v>292</v>
+      </c>
+      <c r="B48" s="2"/>
+      <c r="C48" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D48" s="2"/>
+      <c r="E48" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F48" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="G48" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="H48" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I48" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="J48" t="s" s="2">
+        <v>221</v>
+      </c>
+      <c r="K48" t="s" s="2">
+        <v>293</v>
+      </c>
+      <c r="L48" t="s" s="2">
+        <v>294</v>
+      </c>
+      <c r="M48" t="s" s="2">
+        <v>295</v>
+      </c>
+      <c r="N48" s="2"/>
+      <c r="O48" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P48" s="2"/>
+      <c r="Q48" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R48" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S48" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T48" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U48" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V48" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W48" t="s" s="2">
+        <v>116</v>
+      </c>
+      <c r="X48" t="s" s="2">
+        <v>296</v>
+      </c>
+      <c r="Y48" t="s" s="2">
         <v>297</v>
       </c>
-      <c r="AL40" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AM40" t="s" s="2">
+      <c r="Z48" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA48" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB48" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC48" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD48" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE48" t="s" s="2">
+        <v>292</v>
+      </c>
+      <c r="AF48" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG48" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AH48" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI48" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="AJ48" t="s" s="2">
+        <v>298</v>
+      </c>
+      <c r="AK48" t="s" s="2">
+        <v>299</v>
+      </c>
+      <c r="AL48" t="s" s="2">
+        <v>300</v>
+      </c>
+      <c r="AM48" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="s" s="2">
+        <v>301</v>
+      </c>
+      <c r="B49" s="2"/>
+      <c r="C49" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D49" s="2"/>
+      <c r="E49" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F49" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="G49" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="H49" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I49" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="J49" t="s" s="2">
+        <v>302</v>
+      </c>
+      <c r="K49" t="s" s="2">
+        <v>303</v>
+      </c>
+      <c r="L49" t="s" s="2">
+        <v>304</v>
+      </c>
+      <c r="M49" t="s" s="2">
+        <v>305</v>
+      </c>
+      <c r="N49" s="2"/>
+      <c r="O49" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P49" s="2"/>
+      <c r="Q49" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R49" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S49" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T49" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U49" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V49" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W49" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X49" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y49" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z49" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA49" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB49" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC49" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD49" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE49" t="s" s="2">
+        <v>301</v>
+      </c>
+      <c r="AF49" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG49" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AH49" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI49" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="AJ49" t="s" s="2">
+        <v>306</v>
+      </c>
+      <c r="AK49" t="s" s="2">
+        <v>307</v>
+      </c>
+      <c r="AL49" t="s" s="2">
+        <v>300</v>
+      </c>
+      <c r="AM49" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="50" hidden="true">
+      <c r="A50" t="s" s="2">
+        <v>308</v>
+      </c>
+      <c r="B50" s="2"/>
+      <c r="C50" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D50" s="2"/>
+      <c r="E50" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F50" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="G50" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H50" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I50" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="J50" t="s" s="2">
+        <v>309</v>
+      </c>
+      <c r="K50" t="s" s="2">
+        <v>310</v>
+      </c>
+      <c r="L50" t="s" s="2">
+        <v>311</v>
+      </c>
+      <c r="M50" s="2"/>
+      <c r="N50" s="2"/>
+      <c r="O50" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P50" s="2"/>
+      <c r="Q50" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R50" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S50" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T50" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U50" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V50" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W50" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X50" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y50" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z50" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA50" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB50" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC50" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD50" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE50" t="s" s="2">
+        <v>308</v>
+      </c>
+      <c r="AF50" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG50" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AH50" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI50" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="AJ50" t="s" s="2">
+        <v>312</v>
+      </c>
+      <c r="AK50" t="s" s="2">
+        <v>313</v>
+      </c>
+      <c r="AL50" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM50" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="s" s="2">
+        <v>314</v>
+      </c>
+      <c r="B51" s="2"/>
+      <c r="C51" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D51" s="2"/>
+      <c r="E51" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F51" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="G51" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="H51" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I51" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="J51" t="s" s="2">
+        <v>315</v>
+      </c>
+      <c r="K51" t="s" s="2">
+        <v>316</v>
+      </c>
+      <c r="L51" t="s" s="2">
+        <v>317</v>
+      </c>
+      <c r="M51" t="s" s="2">
+        <v>318</v>
+      </c>
+      <c r="N51" s="2"/>
+      <c r="O51" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P51" s="2"/>
+      <c r="Q51" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R51" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S51" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T51" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U51" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V51" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W51" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X51" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y51" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z51" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA51" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB51" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC51" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD51" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE51" t="s" s="2">
+        <v>314</v>
+      </c>
+      <c r="AF51" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG51" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AH51" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI51" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="AJ51" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK51" t="s" s="2">
+        <v>319</v>
+      </c>
+      <c r="AL51" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM51" t="s" s="2">
         <v>40</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AM40">
+  <autoFilter ref="A1:AM51">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -5603,7 +6877,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI39">
+  <conditionalFormatting sqref="A2:AI50">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/StructureDefinition-MedRecordUsage.xlsx
+++ b/StructureDefinition-MedRecordUsage.xlsx
@@ -591,7 +591,7 @@
     <t>basedOn</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7belgium.org/fhir/riziv-medicationrecord/StructureDefinition/related-tl}
+    <t xml:space="preserve">Extension {https://www.hl7belgium.be/fhir/StructureDefinition/related-tl}
 </t>
   </si>
   <si>
@@ -601,7 +601,7 @@
     <t>Extension for connecting several resources to a single Treatment Line</t>
   </si>
   <si>
-    <t>http://hl7belgium.org/fhir/riziv-medicationrecord/StructureDefinition/related-tl</t>
+    <t>https://www.hl7belgium.be/fhir/StructureDefinition/related-tl</t>
   </si>
   <si>
     <t>Value of extension - must be one of a constrained set of the data types (see [Extensibility](http://hl7.org/fhir/R4/extensibility.html) for a list).</t>

--- a/StructureDefinition-MedRecordUsage.xlsx
+++ b/StructureDefinition-MedRecordUsage.xlsx
@@ -591,7 +591,7 @@
     <t>basedOn</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {https://www.hl7belgium.be/fhir/StructureDefinition/related-tl}
+    <t xml:space="preserve">Extension {http://hl7belgium.org/fhir/riziv-medicationrecord/StructureDefinition/related-tl}
 </t>
   </si>
   <si>
@@ -601,7 +601,7 @@
     <t>Extension for connecting several resources to a single Treatment Line</t>
   </si>
   <si>
-    <t>https://www.hl7belgium.be/fhir/StructureDefinition/related-tl</t>
+    <t>http://hl7belgium.org/fhir/riziv-medicationrecord/StructureDefinition/related-tl</t>
   </si>
   <si>
     <t>Value of extension - must be one of a constrained set of the data types (see [Extensibility](http://hl7.org/fhir/R4/extensibility.html) for a list).</t>
